--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="184">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -563,6 +563,15 @@
   </si>
   <si>
     <t>Steps to manage this list:</t>
+  </si>
+  <si>
+    <t>Clack</t>
+  </si>
+  <si>
+    <t>gruntmane</t>
+  </si>
+  <si>
+    <t>Eyal Gruntman</t>
   </si>
 </sst>
 </file>
@@ -669,12 +678,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -750,7 +761,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="62">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -783,6 +794,7 @@
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -810,6 +822,7 @@
     <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1142,7 +1155,7 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1464,7 +1477,7 @@
         <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>38</v>
@@ -1559,13 +1572,13 @@
         <v>137</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="I22" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1582,13 +1595,13 @@
         <v>136</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1596,180 +1609,180 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I29" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" t="s">
         <v>142</v>
@@ -1777,22 +1790,22 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
         <v>142</v>
@@ -1800,111 +1813,111 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" t="s">
         <v>142</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
         <v>142</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
         <v>142</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
         <v>104</v>
@@ -1915,22 +1928,22 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I38" t="s">
         <v>141</v>
@@ -1938,22 +1951,22 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I39" t="s">
         <v>141</v>
@@ -1961,10 +1974,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
         <v>104</v>
@@ -1973,10 +1986,10 @@
         <v>141</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
         <v>141</v>
@@ -1984,22 +1997,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
         <v>141</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I41" t="s">
         <v>141</v>
@@ -2007,114 +2020,114 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
         <v>141</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>141</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I43" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
         <v>141</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I44" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I46" t="s">
         <v>129</v>
@@ -2122,226 +2135,226 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="I47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
         <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I49" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I51" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I52" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" t="s">
         <v>141</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" t="s">
-        <v>119</v>
-      </c>
-      <c r="I53" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I55" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
         <v>121</v>
@@ -2352,56 +2365,56 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I58" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
         <v>121</v>
@@ -2410,171 +2423,171 @@
         <v>134</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="H59" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="I59" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="I61" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="I62" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I63" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I64" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E65" t="s">
+        <v>136</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" t="s">
         <v>131</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I66" t="s">
         <v>129</v>
@@ -2582,43 +2595,51 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" t="s">
+        <v>128</v>
+      </c>
+      <c r="I67" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E69" t="s">
         <v>129</v>
@@ -2626,105 +2647,116 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="G4:I60">
-    <sortCondition ref="G3"/>
+  <sortState ref="G9:I67">
+    <sortCondition ref="G9"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2738,10 +2770,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M61"/>
+  <dimension ref="B4:M62"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3067,7 +3099,7 @@
         <v>145</v>
       </c>
       <c r="J20" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -3188,10 +3220,10 @@
         <v>90</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -3209,12 +3241,8 @@
       <c r="D27" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="11"/>
@@ -3300,13 +3328,13 @@
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -3314,10 +3342,10 @@
         <v>129</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -3325,10 +3353,10 @@
         <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -3336,10 +3364,10 @@
         <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -3347,10 +3375,10 @@
         <v>129</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -3358,10 +3386,10 @@
         <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -3369,10 +3397,10 @@
         <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -3380,32 +3408,32 @@
         <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -3413,10 +3441,10 @@
         <v>134</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -3424,10 +3452,10 @@
         <v>134</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -3435,7 +3463,7 @@
         <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
         <v>121</v>
@@ -3443,13 +3471,13 @@
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -3457,32 +3485,32 @@
         <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -3490,10 +3518,10 @@
         <v>141</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -3501,10 +3529,10 @@
         <v>141</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -3512,7 +3540,7 @@
         <v>141</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>104</v>
@@ -3523,10 +3551,10 @@
         <v>141</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -3534,10 +3562,10 @@
         <v>141</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -3545,10 +3573,10 @@
         <v>141</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -3556,10 +3584,10 @@
         <v>141</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -3567,10 +3595,10 @@
         <v>141</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -3578,10 +3606,10 @@
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -3589,36 +3617,47 @@
         <v>141</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:D61">
+  <sortState ref="B4:D62">
     <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="209">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -572,6 +572,81 @@
   </si>
   <si>
     <t>Eyal Gruntman</t>
+  </si>
+  <si>
+    <t>dicksonlab</t>
+  </si>
+  <si>
+    <t>bathd</t>
+  </si>
+  <si>
+    <t>dicksonb</t>
+  </si>
+  <si>
+    <t>lillvisj</t>
+  </si>
+  <si>
+    <t>senr</t>
+  </si>
+  <si>
+    <t>wuy10</t>
+  </si>
+  <si>
+    <t>zhaox10</t>
+  </si>
+  <si>
+    <t>dolafit</t>
+  </si>
+  <si>
+    <t>kelemank</t>
+  </si>
+  <si>
+    <t>ruizd</t>
+  </si>
+  <si>
+    <t>dagu</t>
+  </si>
+  <si>
+    <t>wegeners</t>
+  </si>
+  <si>
+    <t>texadam</t>
+  </si>
+  <si>
+    <t>economom</t>
+  </si>
+  <si>
+    <t>weaverc10</t>
+  </si>
+  <si>
+    <t>zhengz11</t>
+  </si>
+  <si>
+    <t>chandrashekarj</t>
+  </si>
+  <si>
+    <t>gerfenc</t>
+  </si>
+  <si>
+    <t>morimotom</t>
+  </si>
+  <si>
+    <t>hampels</t>
+  </si>
+  <si>
+    <t>wonga10</t>
+  </si>
+  <si>
+    <t>lih</t>
+  </si>
+  <si>
+    <t>motaherr</t>
+  </si>
+  <si>
+    <t>malkesmano</t>
+  </si>
+  <si>
+    <t>zengk</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2752,6 +2827,131 @@
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26020" windowHeight="23140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13420" windowHeight="20240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="237">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -565,9 +565,6 @@
     <t>Steps to manage this list:</t>
   </si>
   <si>
-    <t>Clack</t>
-  </si>
-  <si>
     <t>gruntmane</t>
   </si>
   <si>
@@ -647,6 +644,93 @@
   </si>
   <si>
     <t>zengk</t>
+  </si>
+  <si>
+    <t>Barry Dickson</t>
+  </si>
+  <si>
+    <t>Dickson</t>
+  </si>
+  <si>
+    <t>Mouse Light</t>
+  </si>
+  <si>
+    <t>Keleman</t>
+  </si>
+  <si>
+    <t>Dan Bath</t>
+  </si>
+  <si>
+    <t>Joshua Lillvis</t>
+  </si>
+  <si>
+    <t>Rajyashree Sen</t>
+  </si>
+  <si>
+    <t>Yang Wu</t>
+  </si>
+  <si>
+    <t>Xiaoliang Zhao</t>
+  </si>
+  <si>
+    <t>Krystyna Keleman</t>
+  </si>
+  <si>
+    <t>Danielle Ruiz</t>
+  </si>
+  <si>
+    <t>Ugur Dag</t>
+  </si>
+  <si>
+    <t>Stephanie Wegener</t>
+  </si>
+  <si>
+    <t>Michael Texada</t>
+  </si>
+  <si>
+    <t>Truman</t>
+  </si>
+  <si>
+    <t>Michael Economo</t>
+  </si>
+  <si>
+    <t>Zhihao Zheng</t>
+  </si>
+  <si>
+    <t>Bock</t>
+  </si>
+  <si>
+    <t>Jayaram Chandrashekar</t>
+  </si>
+  <si>
+    <t>Chip Gerfen</t>
+  </si>
+  <si>
+    <t>Mai Morimoto</t>
+  </si>
+  <si>
+    <t>Steffi Hampel</t>
+  </si>
+  <si>
+    <t>Allan Wong</t>
+  </si>
+  <si>
+    <t>Fly Functional Connectome</t>
+  </si>
+  <si>
+    <t>Hsing-His Li</t>
+  </si>
+  <si>
+    <t>Reeham Motaher</t>
+  </si>
+  <si>
+    <t>Oz Malkesman</t>
+  </si>
+  <si>
+    <t>Kevin Zeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiting Scientist </t>
   </si>
 </sst>
 </file>
@@ -707,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -752,8 +836,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -816,8 +909,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -835,8 +976,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="110">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -870,6 +1013,30 @@
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -898,6 +1065,30 @@
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1227,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1249,7 +1440,7 @@
         <v>156</v>
       </c>
       <c r="B1" s="4">
-        <v>40101</v>
+        <v>40253</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1297,12 +1488,12 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>169</v>
@@ -1313,7 +1504,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>153</v>
@@ -1336,7 +1527,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1359,7 +1550,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1382,56 +1573,56 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>80</v>
@@ -1440,7 +1631,7 @@
         <v>131</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
         <v>80</v>
@@ -1451,183 +1642,183 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="I20" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
         <v>136</v>
@@ -1635,689 +1826,689 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
         <v>136</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="H25" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="I28" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
         <v>136</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" t="s">
         <v>142</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H35" t="s">
-        <v>162</v>
-      </c>
-      <c r="I35" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I36" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I37" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="I41" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="H43" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H44" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I44" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" t="s">
         <v>141</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I46" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I47" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="H48" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="I48" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="H49" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="I49" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I51" t="s">
         <v>141</v>
@@ -2325,298 +2516,298 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I52" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="H53" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>141</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I54" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="H55" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
         <v>141</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="H56" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="I56" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I57" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="H58" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="I58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="I59" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I60" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" t="s">
-        <v>163</v>
-      </c>
-      <c r="E61" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="H61" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="I61" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" t="s">
-        <v>165</v>
-      </c>
-      <c r="E62" t="s">
-        <v>166</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="H62" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
       <c r="I62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H63" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I63" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H64" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I64" t="s">
         <v>141</v>
@@ -2624,338 +2815,742 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E65" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="H66" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="I66" t="s">
-        <v>129</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E67" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" t="s">
         <v>141</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" t="s">
-        <v>128</v>
-      </c>
-      <c r="I67" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
-      </c>
-      <c r="G68" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E69" t="s">
         <v>129</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H69" t="s">
+        <v>214</v>
+      </c>
+      <c r="I69" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="D70" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>211</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" t="s">
+        <v>120</v>
+      </c>
+      <c r="I70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>121</v>
+      </c>
+      <c r="I71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H72" t="s">
+        <v>121</v>
+      </c>
+      <c r="I72" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" t="s">
+        <v>163</v>
+      </c>
+      <c r="I73" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H74" t="s">
+        <v>165</v>
+      </c>
+      <c r="I74" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>159</v>
+        <v>33</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>122</v>
+      </c>
+      <c r="I75" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>173</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" t="s">
+        <v>123</v>
+      </c>
+      <c r="I76" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" t="s">
+        <v>221</v>
+      </c>
+      <c r="I77" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" t="s">
+        <v>166</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H78" t="s">
+        <v>164</v>
+      </c>
+      <c r="I78" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s">
+        <v>124</v>
+      </c>
+      <c r="I79" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" t="s">
+        <v>147</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H80" t="s">
+        <v>125</v>
+      </c>
+      <c r="I80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>222</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H81" t="s">
+        <v>220</v>
+      </c>
+      <c r="I81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="D82" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s">
+        <v>126</v>
+      </c>
+      <c r="I82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="D83" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" t="s">
+        <v>127</v>
+      </c>
+      <c r="I83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="D84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H84" t="s">
+        <v>230</v>
+      </c>
+      <c r="I84" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" t="s">
+        <v>220</v>
+      </c>
+      <c r="E85" t="s">
+        <v>136</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" t="s">
+        <v>128</v>
+      </c>
+      <c r="I85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
+      <c r="D86" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H86" t="s">
+        <v>215</v>
+      </c>
+      <c r="I86" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+      <c r="D87" t="s">
+        <v>127</v>
+      </c>
+      <c r="E87" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" t="s">
+        <v>235</v>
+      </c>
+      <c r="I87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" t="s">
+        <v>230</v>
+      </c>
+      <c r="E88" t="s">
+        <v>231</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H88" t="s">
+        <v>216</v>
+      </c>
+      <c r="I88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="D89" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" t="s">
+        <v>129</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" t="s">
+        <v>224</v>
+      </c>
+      <c r="I89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>159</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>161</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>193</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G9:I67">
+  <sortState ref="G9:I89">
     <sortCondition ref="G9"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2970,18 +3565,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M62"/>
+  <dimension ref="B4:M85"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="7"/>
   </cols>
@@ -2999,24 +3596,24 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -3024,7 +3621,7 @@
         <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -3044,10 +3641,10 @@
         <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>144</v>
@@ -3064,13 +3661,13 @@
         <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>130</v>
+        <v>225</v>
       </c>
       <c r="J9" s="10">
         <v>1</v>
@@ -3084,38 +3681,36 @@
         <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J10" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
-      <c r="M10" s="11">
-        <v>2.5000000000000001E-2</v>
-      </c>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J11" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -3123,19 +3718,19 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="J12" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
@@ -3143,16 +3738,16 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>147</v>
+        <v>209</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J13" s="10">
         <v>1</v>
@@ -3163,38 +3758,36 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="J14" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="11">
-        <v>0.05</v>
-      </c>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="J15" s="10">
         <v>1</v>
@@ -3205,16 +3798,16 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="J16" s="10">
         <v>1</v>
@@ -3225,19 +3818,19 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="J17" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -3245,58 +3838,52 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="J18" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
-      <c r="M18" s="11">
-        <v>2.5000000000000001E-2</v>
-      </c>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J20" s="10">
         <v>2</v>
@@ -3307,41 +3894,39 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="J21" s="10">
         <v>8</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
-      <c r="M21" s="11">
-        <v>0.3</v>
-      </c>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="J22" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
@@ -3349,39 +3934,41 @@
     </row>
     <row r="23" spans="2:13">
       <c r="B23" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="J23" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
+      <c r="M23" s="11">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="J24" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -3389,476 +3976,773 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="J25" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
-      <c r="M25" s="11">
-        <v>0.3</v>
-      </c>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="J26" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="11">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>176</v>
+      </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
-      <c r="M27" s="11"/>
+      <c r="M27" s="11">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
+        <v>232</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J29" s="10"/>
+        <v>134</v>
+      </c>
+      <c r="J29" s="10">
+        <v>5</v>
+      </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="11">
-        <v>0.2</v>
-      </c>
+      <c r="M29" s="11"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="10">
+        <v>12</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11">
+        <v>0.33</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J32" s="10"/>
+        <v>235</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" s="10">
+        <v>1</v>
+      </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
-      <c r="M32" s="11">
-        <f>SUM(M8:M30)</f>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
+        <v>120</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="10">
+        <f>SUM(J8:J33)</f>
+        <v>82</v>
+      </c>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="11">
+        <f>SUM(M8:M33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" t="s">
+        <v>141</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D85" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:D62">
-    <sortCondition ref="B4"/>
+  <sortState ref="I43:K65">
+    <sortCondition ref="K43"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13420" windowHeight="20240" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="242">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -731,6 +731,21 @@
   </si>
   <si>
     <t xml:space="preserve">Visiting Scientist </t>
+  </si>
+  <si>
+    <t>sitaramand</t>
+  </si>
+  <si>
+    <t>ihrkeg</t>
+  </si>
+  <si>
+    <t>Gudrun Ihrke</t>
+  </si>
+  <si>
+    <t>Divya Sitaraman</t>
+  </si>
+  <si>
+    <t>Enter full info in Subject table</t>
   </si>
 </sst>
 </file>
@@ -846,12 +861,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="110">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -979,7 +1010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="110">
+  <cellStyles count="126">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1037,6 +1068,14 @@
     <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1089,6 +1128,14 @@
     <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1418,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1440,17 +1487,19 @@
         <v>156</v>
       </c>
       <c r="B1" s="4">
-        <v>40253</v>
+        <v>40267</v>
       </c>
       <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="E1" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:9">
       <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>180</v>
+      <c r="E2" t="s">
+        <v>168</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1461,7 +1510,7 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1472,7 +1521,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2137,10 +2186,10 @@
         <v>210</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="I35" t="s">
         <v>142</v>
@@ -2160,13 +2209,13 @@
         <v>139</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2183,13 +2232,13 @@
         <v>140</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I37" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2206,13 +2255,13 @@
         <v>141</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I38" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2220,19 +2269,19 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
         <v>142</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I39" t="s">
         <v>142</v>
@@ -2243,19 +2292,19 @@
         <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
         <v>142</v>
@@ -2263,134 +2312,134 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="I41" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="I42" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
         <v>142</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
         <v>142</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="H44" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="I44" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
         <v>104</v>
@@ -2401,22 +2450,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I47" t="s">
         <v>141</v>
@@ -2424,56 +2473,56 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="I49" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
         <v>104</v>
@@ -2482,33 +2531,33 @@
         <v>141</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
         <v>141</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I51" t="s">
         <v>141</v>
@@ -2516,22 +2565,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I52" t="s">
         <v>141</v>
@@ -2539,114 +2588,114 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="H53" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="I53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="H54" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="I54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>141</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="I55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
         <v>141</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H56" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I56" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="H57" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="I57" t="s">
         <v>142</v>
@@ -2654,68 +2703,68 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I58" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="H59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I59" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I60" t="s">
         <v>129</v>
@@ -2723,272 +2772,272 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s">
         <v>142</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="I61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" t="s">
         <v>131</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s">
-        <v>114</v>
-      </c>
-      <c r="I62" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I63" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
         <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I64" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I65" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="I66" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="H67" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" t="s">
+        <v>118</v>
+      </c>
+      <c r="I68" t="s">
         <v>141</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s">
-        <v>119</v>
-      </c>
-      <c r="I68" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="I69" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="H70" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="I70" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="H71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I71" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="H72" t="s">
         <v>121</v>
@@ -2999,79 +3048,79 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="E73" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="H73" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="I73" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="H74" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="I74" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="H75" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="I75" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
         <v>121</v>
@@ -3080,217 +3129,217 @@
         <v>134</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="H76" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="I76" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E77" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="H77" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="I77" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H78" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="I78" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="E79" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="H79" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="I79" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H80" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="I80" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="H81" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="E83" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="H83" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="I83" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="D84" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E84" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="H84" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="I84" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="E85" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
         <v>129</v>
@@ -3298,68 +3347,68 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E86" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H86" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="I86" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="E87" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" t="s">
+        <v>128</v>
+      </c>
+      <c r="I87" t="s">
         <v>129</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H87" t="s">
-        <v>235</v>
-      </c>
-      <c r="I87" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>187</v>
+        <v>43</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I88" t="s">
         <v>209</v>
@@ -3367,64 +3416,82 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E89" t="s">
         <v>129</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H89" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="I89" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="E90" t="s">
+        <v>231</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H90" t="s">
+        <v>216</v>
+      </c>
+      <c r="I90" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s">
-        <v>142</v>
+        <v>129</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H91" t="s">
+        <v>224</v>
+      </c>
+      <c r="I91" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E92" t="s">
         <v>209</v>
@@ -3432,125 +3499,153 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D93" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E93" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>35</v>
+        <v>159</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>21</v>
+        <v>161</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" t="s">
+        <v>224</v>
+      </c>
+      <c r="E95" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>29</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>3</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
         <v>198</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G9:I89">
+  <sortState ref="G9:I91">
     <sortCondition ref="G9"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3565,10 +3660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M85"/>
+  <dimension ref="B4:M88"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView showRuler="0" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3830,7 +3925,7 @@
         <v>142</v>
       </c>
       <c r="J17" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -4140,30 +4235,30 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>236</v>
       </c>
       <c r="J33" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:13">
@@ -4171,17 +4266,17 @@
         <v>139</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>177</v>
       </c>
       <c r="J35" s="10">
         <f>SUM(J8:J33)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -4192,13 +4287,13 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:13">
@@ -4206,10 +4301,10 @@
         <v>136</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:13">
@@ -4217,10 +4312,10 @@
         <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -4228,10 +4323,10 @@
         <v>136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -4239,10 +4334,10 @@
         <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -4250,10 +4345,10 @@
         <v>136</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -4261,10 +4356,10 @@
         <v>136</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:13">
@@ -4272,21 +4367,21 @@
         <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="2:13">
@@ -4294,10 +4389,10 @@
         <v>211</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="2:13">
@@ -4305,21 +4400,21 @@
         <v>211</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -4327,10 +4422,10 @@
         <v>210</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -4338,10 +4433,10 @@
         <v>210</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D49" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -4349,10 +4444,10 @@
         <v>210</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -4360,32 +4455,32 @@
         <v>210</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -4393,10 +4488,10 @@
         <v>145</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -4404,21 +4499,21 @@
         <v>145</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -4426,10 +4521,10 @@
         <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -4437,10 +4532,10 @@
         <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -4448,10 +4543,10 @@
         <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -4459,10 +4554,10 @@
         <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -4470,10 +4565,10 @@
         <v>129</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -4481,10 +4576,10 @@
         <v>129</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -4492,32 +4587,32 @@
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -4525,10 +4620,10 @@
         <v>134</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>202</v>
+        <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -4536,10 +4631,10 @@
         <v>134</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -4547,10 +4642,10 @@
         <v>134</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -4558,7 +4653,7 @@
         <v>134</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
         <v>121</v>
@@ -4566,13 +4661,13 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -4580,21 +4675,21 @@
         <v>132</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -4602,10 +4697,10 @@
         <v>141</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="2:4">
@@ -4613,10 +4708,10 @@
         <v>141</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -4624,7 +4719,7 @@
         <v>141</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
         <v>104</v>
@@ -4635,10 +4730,10 @@
         <v>141</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -4646,10 +4741,10 @@
         <v>141</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -4657,10 +4752,10 @@
         <v>141</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -4668,10 +4763,10 @@
         <v>141</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -4679,70 +4774,96 @@
         <v>141</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81" t="s">
         <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
       <c r="B82" t="s">
         <v>141</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
-      <c r="B83" t="s">
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
         <v>151</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
-      <c r="B84" t="s">
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
         <v>222</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
-      <c r="B85" t="s">
+    <row r="86" spans="2:7">
+      <c r="B86" t="s">
         <v>135</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>114</v>
       </c>
     </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="G88" s="1"/>
+    </row>
   </sheetData>
-  <sortState ref="I43:K65">
-    <sortCondition ref="K43"/>
+  <sortState ref="B4:D87">
+    <sortCondition ref="B4"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13420" windowHeight="20240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37360" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="246">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -746,6 +746,18 @@
   </si>
   <si>
     <t>Enter full info in Subject table</t>
+  </si>
+  <si>
+    <t>riddifordl</t>
+  </si>
+  <si>
+    <t>Lynn Riddiford</t>
+  </si>
+  <si>
+    <t>Riddiford</t>
+  </si>
+  <si>
+    <t>riddiford</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1487,7 +1499,7 @@
         <v>156</v>
       </c>
       <c r="B1" s="4">
-        <v>40267</v>
+        <v>40269</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
@@ -3496,6 +3508,15 @@
       <c r="E92" t="s">
         <v>209</v>
       </c>
+      <c r="G92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H92" t="s">
+        <v>243</v>
+      </c>
+      <c r="I92" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
@@ -3543,6 +3564,15 @@
       <c r="A96" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C96" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
@@ -3642,6 +3672,11 @@
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3662,8 +3697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:M88"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4260,6 +4295,12 @@
       <c r="D34" t="s">
         <v>165</v>
       </c>
+      <c r="I34" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
@@ -4275,8 +4316,8 @@
         <v>177</v>
       </c>
       <c r="J35" s="10">
-        <f>SUM(J8:J33)</f>
-        <v>84</v>
+        <f>SUM(J8:J34)</f>
+        <v>85</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -4859,6 +4900,15 @@
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
+      <c r="B88" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" t="s">
+        <v>243</v>
+      </c>
       <c r="G88" s="1"/>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="249">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -758,6 +758,15 @@
   </si>
   <si>
     <t>riddiford</t>
+  </si>
+  <si>
+    <t>hustons</t>
+  </si>
+  <si>
+    <t>Stephen Huston</t>
+  </si>
+  <si>
+    <t>Huston</t>
   </si>
 </sst>
 </file>
@@ -873,12 +882,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="126">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1022,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="126">
+  <cellStyles count="128">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1088,6 +1099,7 @@
     <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1148,6 +1160,7 @@
     <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1477,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G93" sqref="G93:I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3531,6 +3544,15 @@
       <c r="E93" t="s">
         <v>142</v>
       </c>
+      <c r="G93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H93" t="s">
+        <v>247</v>
+      </c>
+      <c r="I93" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
@@ -3574,82 +3596,91 @@
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="C97" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" t="s">
+        <v>247</v>
+      </c>
+      <c r="E97" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -3677,6 +3708,11 @@
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3695,10 +3731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M88"/>
+  <dimension ref="B4:M89"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4296,7 +4332,7 @@
         <v>165</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J34" s="14">
         <v>1</v>
@@ -4312,17 +4348,10 @@
       <c r="D35" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" s="10">
-        <f>SUM(J8:J34)</f>
-        <v>85</v>
-      </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="11">
-        <f>SUM(M8:M33)</f>
+      <c r="I35" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" s="14">
         <v>1</v>
       </c>
     </row>
@@ -4336,6 +4365,19 @@
       <c r="D36" t="s">
         <v>120</v>
       </c>
+      <c r="I36" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="J36" s="10">
+        <f>SUM(J8:J35)</f>
+        <v>86</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="11">
+        <f>SUM(M8:M33)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
@@ -4910,6 +4952,17 @@
         <v>243</v>
       </c>
       <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" t="s">
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B4:D87">

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="251">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -767,13 +767,19 @@
   </si>
   <si>
     <t>Huston</t>
+  </si>
+  <si>
+    <t>shaol10</t>
+  </si>
+  <si>
+    <t>Lisha Shao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -808,6 +814,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -882,7 +895,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1011,8 +1024,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1032,8 +1057,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="140">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1100,6 +1126,12 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1161,6 +1193,12 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1490,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93:I93"/>
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3567,6 +3605,15 @@
       <c r="E94" t="s">
         <v>209</v>
       </c>
+      <c r="G94" t="s">
+        <v>249</v>
+      </c>
+      <c r="H94" t="s">
+        <v>250</v>
+      </c>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
@@ -3614,6 +3661,15 @@
       <c r="A98" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C98" t="s">
+        <v>249</v>
+      </c>
+      <c r="D98" t="s">
+        <v>250</v>
+      </c>
+      <c r="E98" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
@@ -3713,6 +3769,11 @@
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3731,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M89"/>
+  <dimension ref="B4:M90"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4052,7 +4113,7 @@
         <v>139</v>
       </c>
       <c r="J20" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -4370,7 +4431,7 @@
       </c>
       <c r="J36" s="10">
         <f>SUM(J8:J35)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -4962,6 +5023,17 @@
       </c>
       <c r="D89" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="37360" windowHeight="23560" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="253">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -773,6 +773,12 @@
   </si>
   <si>
     <t>Lisha Shao</t>
+  </si>
+  <si>
+    <t>chenn</t>
+  </si>
+  <si>
+    <t>Nan Chen</t>
   </si>
 </sst>
 </file>
@@ -895,12 +901,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="140">
+  <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1059,7 +1069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="140">
+  <cellStyles count="144">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1132,6 +1142,8 @@
     <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1199,6 +1211,8 @@
     <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1528,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1550,7 +1564,7 @@
         <v>156</v>
       </c>
       <c r="B1" s="4">
-        <v>40269</v>
+        <v>40367</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
@@ -3628,6 +3642,15 @@
       <c r="E95" t="s">
         <v>225</v>
       </c>
+      <c r="G95" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H95" t="s">
+        <v>252</v>
+      </c>
+      <c r="I95" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
@@ -3675,6 +3698,15 @@
       <c r="A99" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="C99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D99" t="s">
+        <v>252</v>
+      </c>
+      <c r="E99" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
@@ -3774,6 +3806,11 @@
     <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3792,10 +3829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M90"/>
+  <dimension ref="B4:M91"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4186,16 +4223,16 @@
         <v>142</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>171</v>
       </c>
       <c r="J24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -4206,10 +4243,10 @@
         <v>142</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>145</v>
@@ -4226,10 +4263,10 @@
         <v>142</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>129</v>
@@ -4248,10 +4285,10 @@
         <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>176</v>
@@ -4268,10 +4305,10 @@
         <v>142</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>143</v>
@@ -4288,10 +4325,10 @@
         <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>134</v>
@@ -4308,10 +4345,10 @@
         <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>132</v>
@@ -4328,10 +4365,10 @@
         <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>141</v>
@@ -4350,10 +4387,10 @@
         <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>222</v>
@@ -4370,10 +4407,10 @@
         <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>236</v>
@@ -4417,21 +4454,21 @@
       </c>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" t="s">
+      <c r="B36" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
+      <c r="C36" t="s">
+        <v>249</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>177</v>
       </c>
       <c r="J36" s="10">
         <f>SUM(J8:J35)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -4442,24 +4479,24 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -4467,10 +4504,10 @@
         <v>136</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -4478,10 +4515,10 @@
         <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -4489,10 +4526,10 @@
         <v>136</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -4500,10 +4537,10 @@
         <v>136</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="2:13">
@@ -4511,10 +4548,10 @@
         <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="2:13">
@@ -4522,32 +4559,32 @@
         <v>136</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="2:13">
@@ -4555,32 +4592,32 @@
         <v>211</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -4588,10 +4625,10 @@
         <v>210</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -4599,10 +4636,10 @@
         <v>210</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -4610,98 +4647,98 @@
         <v>210</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="D55" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>4</v>
+        <v>244</v>
+      </c>
+      <c r="C60" t="s">
+        <v>242</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -4709,10 +4746,10 @@
         <v>129</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -4720,10 +4757,10 @@
         <v>129</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -4731,10 +4768,10 @@
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -4742,65 +4779,65 @@
         <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -4808,76 +4845,76 @@
         <v>134</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -4885,10 +4922,10 @@
         <v>141</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -4896,10 +4933,10 @@
         <v>141</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -4907,10 +4944,10 @@
         <v>141</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -4918,10 +4955,10 @@
         <v>141</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="2:7">
@@ -4929,10 +4966,10 @@
         <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:7">
@@ -4940,10 +4977,10 @@
         <v>141</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="2:7">
@@ -4951,94 +4988,106 @@
         <v>141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" t="s">
-        <v>242</v>
+        <v>151</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>243</v>
+        <v>150</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C90" t="s">
-        <v>249</v>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>250</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B4:D87">
-    <sortCondition ref="B4"/>
+  <sortState ref="B4:D91">
+    <sortCondition ref="B4:B91"/>
+    <sortCondition ref="C4:C91"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37360" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37360" windowHeight="23560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="255">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -779,6 +779,12 @@
   </si>
   <si>
     <t>Nan Chen</t>
+  </si>
+  <si>
+    <t>leiz</t>
+  </si>
+  <si>
+    <t>Zhengchang Lei</t>
   </si>
 </sst>
 </file>
@@ -901,12 +907,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="144">
+  <cellStyleXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1069,7 +1077,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="144">
+  <cellStyles count="146">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1144,6 +1152,7 @@
     <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1213,6 +1222,7 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1542,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showRuler="0" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H96" sqref="G96:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3665,6 +3675,15 @@
       <c r="E96" t="s">
         <v>244</v>
       </c>
+      <c r="G96" t="s">
+        <v>253</v>
+      </c>
+      <c r="H96" t="s">
+        <v>254</v>
+      </c>
+      <c r="I96" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
@@ -3712,6 +3731,15 @@
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C100" t="s">
+        <v>253</v>
+      </c>
+      <c r="D100" t="s">
+        <v>254</v>
+      </c>
+      <c r="E100" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
@@ -3811,6 +3839,11 @@
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3829,10 +3862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M91"/>
+  <dimension ref="B4:M92"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5084,6 +5117,17 @@
         <v>240</v>
       </c>
     </row>
+    <row r="92" spans="2:7">
+      <c r="B92" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" t="s">
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B4:D91">
     <sortCondition ref="B4:B91"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37360" windowHeight="23560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37360" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="257">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -785,6 +785,12 @@
   </si>
   <si>
     <t>Zhengchang Lei</t>
+  </si>
+  <si>
+    <t>svobodak</t>
+  </si>
+  <si>
+    <t>Karel Svoboda</t>
   </si>
 </sst>
 </file>
@@ -1552,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H96" sqref="G96:I96"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3685,7 +3691,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
         <v>21</v>
       </c>
@@ -3698,8 +3704,17 @@
       <c r="E97" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H97" t="s">
+        <v>256</v>
+      </c>
+      <c r="I97" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
         <v>64</v>
       </c>
@@ -3713,7 +3728,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
         <v>195</v>
       </c>
@@ -3727,7 +3742,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
         <v>54</v>
       </c>
@@ -3741,62 +3756,71 @@
         <v>211</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="C101" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" t="s">
+        <v>256</v>
+      </c>
+      <c r="E101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -3844,6 +3868,11 @@
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
         <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3862,10 +3891,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M92"/>
+  <dimension ref="B4:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView showRuler="0" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5128,6 +5157,17 @@
         <v>254</v>
       </c>
     </row>
+    <row r="93" spans="2:7">
+      <c r="B93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D93" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="B4:D91">
     <sortCondition ref="B4:B91"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37360" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="6400" yWindow="0" windowWidth="30940" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="278">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -535,9 +535,6 @@
     <t>All Workstation-Only Accounts</t>
   </si>
   <si>
-    <t>Project Resources</t>
-  </si>
-  <si>
     <t>By Group</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Billing Percentage</t>
-  </si>
-  <si>
     <t>Accounts</t>
   </si>
   <si>
@@ -791,6 +785,75 @@
   </si>
   <si>
     <t>Karel Svoboda</t>
+  </si>
+  <si>
+    <t>dolanm</t>
+  </si>
+  <si>
+    <t>Michael-John Dolan</t>
+  </si>
+  <si>
+    <t>vorimor</t>
+  </si>
+  <si>
+    <t>Rebecca Vorimo</t>
+  </si>
+  <si>
+    <t>doec</t>
+  </si>
+  <si>
+    <t>Chris Doe</t>
+  </si>
+  <si>
+    <t>bockd</t>
+  </si>
+  <si>
+    <t>lauritzens</t>
+  </si>
+  <si>
+    <t>Davi Bock</t>
+  </si>
+  <si>
+    <t>Scott Lauritzen</t>
+  </si>
+  <si>
+    <t>jefferisg</t>
+  </si>
+  <si>
+    <t>Greg Jefferis</t>
+  </si>
+  <si>
+    <t>Kazunori Shinomiya</t>
+  </si>
+  <si>
+    <t>shinomiyak</t>
+  </si>
+  <si>
+    <t>hayworthk</t>
+  </si>
+  <si>
+    <t>Kenneth Hayworth</t>
+  </si>
+  <si>
+    <t>wangk11</t>
+  </si>
+  <si>
+    <t>Kaiyu Wang</t>
+  </si>
+  <si>
+    <t>Hess</t>
+  </si>
+  <si>
+    <t>Kai Feng</t>
+  </si>
+  <si>
+    <t>fengk</t>
+  </si>
+  <si>
+    <t>blaker</t>
+  </si>
+  <si>
+    <t>Regina Blake</t>
   </si>
 </sst>
 </file>
@@ -858,25 +921,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -891,7 +941,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -907,13 +959,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="146">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1060,8 +1114,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1074,16 +1142,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="146">
+  <cellStyles count="160">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1159,6 +1232,17 @@
     <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1229,6 +1313,9 @@
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1558,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1580,11 +1667,11 @@
         <v>156</v>
       </c>
       <c r="B1" s="4">
-        <v>40367</v>
+        <v>40575</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -1614,7 +1701,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1630,12 +1717,12 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
+      <c r="A7" t="s">
+        <v>276</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>169</v>
@@ -1646,7 +1733,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>153</v>
@@ -1669,7 +1756,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1692,7 +1779,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>27</v>
@@ -1715,298 +1802,298 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>208</v>
+      </c>
+      <c r="G12" t="s">
+        <v>276</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>223</v>
+      </c>
+      <c r="G13" t="s">
+        <v>261</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="H20" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H23" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="I23" t="s">
         <v>209</v>
@@ -2014,597 +2101,594 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="E24" t="s">
         <v>209</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="H25" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="I25" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>259</v>
       </c>
       <c r="H28" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>181</v>
+        <v>129</v>
+      </c>
+      <c r="G29" t="s">
+        <v>255</v>
       </c>
       <c r="H29" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="I29" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="I30" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>181</v>
+        <v>255</v>
+      </c>
+      <c r="C31" t="s">
+        <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>202</v>
+        <v>135</v>
+      </c>
+      <c r="G31" t="s">
+        <v>275</v>
       </c>
       <c r="H31" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I33" t="s">
         <v>136</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s">
-        <v>92</v>
-      </c>
-      <c r="I32" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" t="s">
-        <v>93</v>
-      </c>
-      <c r="I33" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="H34" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="H35" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="I35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>62</v>
+        <v>269</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="I39" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>270</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>273</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="H42" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="I42" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" t="s">
+        <v>237</v>
+      </c>
+      <c r="I43" t="s">
         <v>142</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" t="s">
         <v>142</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H44" t="s">
-        <v>162</v>
-      </c>
-      <c r="I44" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I45" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>34</v>
+        <v>246</v>
+      </c>
+      <c r="G46" t="s">
+        <v>265</v>
       </c>
       <c r="H46" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="I46" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I47" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H48" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="H49" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="I49" t="s">
         <v>142</v>
@@ -2612,574 +2696,574 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>265</v>
       </c>
       <c r="D50" t="s">
-        <v>104</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="I50" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="H51" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="1" t="s">
-        <v>30</v>
+      <c r="A53" t="s">
+        <v>265</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>232</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
         <v>142</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="H53" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>101</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="I54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>46</v>
+        <v>209</v>
+      </c>
+      <c r="G55" t="s">
+        <v>262</v>
       </c>
       <c r="H55" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
+        <v>136</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" t="s">
         <v>141</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H56" t="s">
-        <v>228</v>
-      </c>
-      <c r="I56" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="E57" t="s">
+        <v>134</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" t="s">
         <v>141</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H57" t="s">
-        <v>233</v>
-      </c>
-      <c r="I57" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>262</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>69</v>
+        <v>223</v>
+      </c>
+      <c r="G59" t="s">
+        <v>251</v>
       </c>
       <c r="H59" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="I59" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="E60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="H60" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="I60" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="H61" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="I61" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>110</v>
-      </c>
-      <c r="E62" t="s">
-        <v>142</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="H62" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="I62" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" t="s">
+        <v>209</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" t="s">
-        <v>111</v>
-      </c>
-      <c r="E63" t="s">
-        <v>131</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I63" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" t="s">
+        <v>230</v>
+      </c>
+      <c r="E64" t="s">
+        <v>142</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" t="s">
-        <v>112</v>
-      </c>
-      <c r="E64" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H64" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="H65" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="I65" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" t="s">
+        <v>141</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H66" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I66" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H67" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="I67" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="H68" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="I68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I69" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D71" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I71" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I72" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="H73" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="I73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="I74" t="s">
         <v>135</v>
@@ -3187,696 +3271,949 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="I75" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="H76" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="I76" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D77" t="s">
-        <v>121</v>
-      </c>
       <c r="E77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="H77" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="I77" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="D78" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="E78" t="s">
         <v>135</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I78" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H79" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I79" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E80" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H80" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="I80" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>240</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="E81" t="s">
-        <v>146</v>
+        <v>242</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I81" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="I82" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E83" t="s">
-        <v>222</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>194</v>
+        <v>209</v>
+      </c>
+      <c r="G83" t="s">
+        <v>247</v>
       </c>
       <c r="H83" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="I83" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="G84" t="s">
+        <v>268</v>
       </c>
       <c r="H84" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="I84" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="H85" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I85" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="E86" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="H86" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="I86" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>194</v>
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>247</v>
       </c>
       <c r="D87" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="E87" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H87" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I87" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>28</v>
+        <v>172</v>
+      </c>
+      <c r="C88" t="s">
+        <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="H88" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="I88" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E89" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="H89" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="I89" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="H90" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="I90" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="H91" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="I91" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>245</v>
+        <v>21</v>
       </c>
       <c r="H92" t="s">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="I92" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="E93" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="H93" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="I93" t="s">
-        <v>248</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="E94" t="s">
-        <v>209</v>
-      </c>
-      <c r="G94" t="s">
-        <v>249</v>
+        <v>166</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="H94" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="I94" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>198</v>
+        <v>17</v>
+      </c>
+      <c r="C95" t="s">
+        <v>253</v>
       </c>
       <c r="D95" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="E95" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="I95" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" t="s">
-        <v>242</v>
+        <v>190</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D96" t="s">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>244</v>
-      </c>
-      <c r="G96" t="s">
-        <v>253</v>
+        <v>146</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="H96" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="I96" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D97" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="E97" t="s">
-        <v>248</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>255</v>
+        <v>147</v>
+      </c>
+      <c r="G97" t="s">
+        <v>257</v>
       </c>
       <c r="H97" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I97" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" t="s">
-        <v>249</v>
+        <v>70</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D98" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>220</v>
+      </c>
+      <c r="G98" t="s">
+        <v>271</v>
+      </c>
+      <c r="H98" t="s">
+        <v>272</v>
+      </c>
+      <c r="I98" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="D99" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="E99" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H99" t="s">
+        <v>125</v>
+      </c>
+      <c r="I99" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C100" t="s">
-        <v>253</v>
+        <v>43</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="E100" t="s">
-        <v>211</v>
+        <v>131</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H100" t="s">
+        <v>218</v>
+      </c>
+      <c r="I100" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C101" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>142</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" t="s">
+        <v>126</v>
+      </c>
+      <c r="I101" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="1" t="s">
-        <v>13</v>
+      <c r="A102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" t="s">
+        <v>272</v>
+      </c>
+      <c r="E102" t="s">
+        <v>207</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="1" t="s">
-        <v>29</v>
+      <c r="A103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" t="s">
+        <v>141</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H103" t="s">
+        <v>228</v>
+      </c>
+      <c r="I103" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D104" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" t="s">
+        <v>136</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" t="s">
+        <v>128</v>
+      </c>
+      <c r="I104" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>197</v>
+        <v>16</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H105" t="s">
+        <v>213</v>
+      </c>
+      <c r="I105" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>194</v>
+        <v>51</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" t="s">
+        <v>129</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H106" t="s">
+        <v>233</v>
+      </c>
+      <c r="I106" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>28</v>
+        <v>235</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" t="s">
+        <v>229</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H107" t="s">
+        <v>214</v>
+      </c>
+      <c r="I107" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>3</v>
+        <v>159</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" t="s">
+        <v>129</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H108" t="s">
+        <v>222</v>
+      </c>
+      <c r="I108" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>203</v>
+        <v>161</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D109" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D110" t="s">
+        <v>233</v>
+      </c>
+      <c r="E110" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
-        <v>188</v>
+      <c r="A111" t="s">
+        <v>253</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D111" t="s">
+        <v>214</v>
+      </c>
+      <c r="E111" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D112" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>242</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>249</v>
+      <c r="A119" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
-        <v>251</v>
+      <c r="A120" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>253</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>255</v>
+      <c r="A122" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G9:I91">
+  <sortState ref="G9:I108">
     <sortCondition ref="G9"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3891,10 +4228,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M93"/>
+  <dimension ref="B4:M104"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3922,720 +4259,731 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>223</v>
+      </c>
+      <c r="C7" t="s">
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>178</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="8">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J12" s="10">
-        <v>7</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
+        <v>173</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="8">
+        <v>9</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="10">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
+      <c r="J14" s="8">
+        <v>2</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
-      </c>
-      <c r="I15" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="10">
+        <v>206</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" s="8">
         <v>1</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
-      </c>
-      <c r="I17" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="10">
-        <v>10</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
+      <c r="J17" s="8">
+        <v>11</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
-      </c>
-      <c r="I18" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
+        <v>212</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="8">
+        <v>3</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="10">
-        <v>3</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
+        <v>213</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J21" s="10">
-        <v>8</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
+        <v>214</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>271</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" s="10">
-        <v>3</v>
-      </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
+        <v>272</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="8">
+        <v>8</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>275</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J23" s="10">
-        <v>5</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11">
-        <v>0.14000000000000001</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" s="8">
+        <v>4</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="14"/>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>239</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="10">
-        <v>2</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="8">
+        <v>7</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="14"/>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" s="10">
-        <v>3</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="J26" s="10">
-        <v>8</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11">
-        <v>0.33</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="14"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="11">
-        <v>0.2</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="14"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="10">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="11"/>
+        <v>228</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" s="8">
+        <v>8</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="14"/>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>142</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="10">
-        <v>5</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="11"/>
+        <v>237</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="14"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>234</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="10">
-        <v>2</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="14"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J31" s="10">
-        <v>12</v>
-      </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="11">
-        <v>0.33</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" s="8">
+        <v>5</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="14"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" t="s">
         <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J32" s="10">
-        <v>1</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="11"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>207</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="J33" s="14">
-        <v>2</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" s="8">
+        <v>12</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="14"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J34" s="14">
+        <v>230</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" s="12">
         <v>1</v>
       </c>
+      <c r="K34" s="17"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="14"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="J35" s="14">
-        <v>1</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="9">
+        <v>5</v>
+      </c>
+      <c r="K35" s="17"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="14"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" t="s">
-        <v>249</v>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>250</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J36" s="10">
-        <f>SUM(J8:J35)</f>
-        <v>88</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="11">
-        <f>SUM(M8:M33)</f>
-        <v>1</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="14"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J37" s="8">
+        <f>SUM(J8:J36)</f>
+        <v>101</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="14"/>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="14"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>86</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="14"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>37</v>
+      <c r="B42" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" t="s">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="2:13">
@@ -4643,450 +4991,450 @@
         <v>136</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>220</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="D57" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" t="s">
-        <v>242</v>
+        <v>208</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>4</v>
+        <v>208</v>
+      </c>
+      <c r="C64" t="s">
+        <v>276</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>128</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>50</v>
+        <v>242</v>
+      </c>
+      <c r="C70" t="s">
+        <v>240</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="2:7">
@@ -5094,84 +5442,204 @@
         <v>141</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="D92" t="s">
-        <v>254</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D101" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" t="s">
+        <v>135</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D102" t="s">
         <v>256</v>
       </c>
     </row>
+    <row r="103" spans="2:4">
+      <c r="B103" t="s">
+        <v>135</v>
+      </c>
+      <c r="C103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" t="s">
+        <v>265</v>
+      </c>
+      <c r="D104" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B4:D91">
-    <sortCondition ref="B4:B91"/>
-    <sortCondition ref="C4:C91"/>
+  <sortState ref="I8:L36">
+    <sortCondition ref="I8"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="0" windowWidth="30940" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="6180" yWindow="220" windowWidth="30940" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="305">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -436,9 +436,6 @@
     <t>Fetter</t>
   </si>
   <si>
-    <t>Hantman</t>
-  </si>
-  <si>
     <t>Heberlein</t>
   </si>
   <si>
@@ -544,12 +541,6 @@
     <t>Martin Peek</t>
   </si>
   <si>
-    <t>Svoboda</t>
-  </si>
-  <si>
-    <t>Scientific Computing</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -751,9 +742,6 @@
     <t>Riddiford</t>
   </si>
   <si>
-    <t>riddiford</t>
-  </si>
-  <si>
     <t>hustons</t>
   </si>
   <si>
@@ -854,13 +842,106 @@
   </si>
   <si>
     <t>Regina Blake</t>
+  </si>
+  <si>
+    <t>salvesenk</t>
+  </si>
+  <si>
+    <t>robiea</t>
+  </si>
+  <si>
+    <t>projtechres</t>
+  </si>
+  <si>
+    <t>kunstm</t>
+  </si>
+  <si>
+    <t>aboucharl</t>
+  </si>
+  <si>
+    <t>jugf</t>
+  </si>
+  <si>
+    <t>liul11</t>
+  </si>
+  <si>
+    <t>strotherj</t>
+  </si>
+  <si>
+    <t>Itom10</t>
+  </si>
+  <si>
+    <t>itok</t>
+  </si>
+  <si>
+    <t>goldammerj</t>
+  </si>
+  <si>
+    <t>Kelley Salvesen</t>
+  </si>
+  <si>
+    <t>Alice Robie</t>
+  </si>
+  <si>
+    <t>Michael Kunst</t>
+  </si>
+  <si>
+    <t>Laurent Abouchar</t>
+  </si>
+  <si>
+    <t>Florian Jug</t>
+  </si>
+  <si>
+    <t>Ling-Yu Liu</t>
+  </si>
+  <si>
+    <t>James Strother</t>
+  </si>
+  <si>
+    <t>Masayoshi Ito</t>
+  </si>
+  <si>
+    <t>Kei Ito</t>
+  </si>
+  <si>
+    <t>Jens Goldammer</t>
+  </si>
+  <si>
+    <t>candej</t>
+  </si>
+  <si>
+    <t>dingy</t>
+  </si>
+  <si>
+    <t>sternd</t>
+  </si>
+  <si>
+    <t>achej</t>
+  </si>
+  <si>
+    <t>Jessica Cande</t>
+  </si>
+  <si>
+    <t>Stern</t>
+  </si>
+  <si>
+    <t>David Stern</t>
+  </si>
+  <si>
+    <t>Jan Marek Ache</t>
+  </si>
+  <si>
+    <t>Yun Ding</t>
+  </si>
+  <si>
+    <t>Ito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -895,13 +976,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -967,7 +1041,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="160">
+  <cellStyleXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1128,8 +1202,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1144,7 +1262,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1156,7 +1273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="160">
+  <cellStyles count="204">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1243,6 +1360,28 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1316,6 +1455,28 @@
     <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1645,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1664,14 +1825,14 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20">
       <c r="A1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B1" s="4">
-        <v>40575</v>
+        <v>40633</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -1679,36 +1840,36 @@
     <row r="2" spans="1:9">
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" t="s">
+        <v>278</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
+      <c r="A5" t="s">
+        <v>298</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1717,1139 +1878,1142 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>276</v>
+      <c r="A7" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="G8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="G9" t="s">
+        <v>278</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>257</v>
+      </c>
+      <c r="C10" t="s">
+        <v>298</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>298</v>
       </c>
       <c r="H10" t="s">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>276</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" t="s">
-        <v>276</v>
+        <v>150</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>277</v>
+        <v>149</v>
       </c>
       <c r="I12" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>261</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" t="s">
-        <v>261</v>
+        <v>204</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="H13" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="I13" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>31</v>
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>205</v>
+      </c>
+      <c r="G14" t="s">
+        <v>272</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C15" t="s">
+        <v>257</v>
+      </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>220</v>
+      </c>
+      <c r="G15" t="s">
+        <v>257</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>295</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>74</v>
+        <v>300</v>
+      </c>
+      <c r="G17" t="s">
+        <v>295</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>208</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="D21" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="I21" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H26" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" t="s">
         <v>206</v>
-      </c>
-      <c r="I26" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" t="s">
         <v>206</v>
       </c>
-      <c r="E27" t="s">
-        <v>207</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
-      </c>
-      <c r="G28" t="s">
-        <v>259</v>
+        <v>133</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>260</v>
+        <v>203</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" t="s">
-        <v>255</v>
+        <v>136</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="H29" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="I29" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" t="s">
-        <v>259</v>
+        <v>178</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>296</v>
       </c>
       <c r="H30" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="I30" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" t="s">
-        <v>255</v>
+      <c r="A31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D31" t="s">
-        <v>256</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" t="s">
-        <v>275</v>
+        <v>204</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="H31" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>194</v>
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>296</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>44</v>
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>255</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>275</v>
-      </c>
-      <c r="C33" t="s">
-        <v>275</v>
+      <c r="A33" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>207</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>129</v>
+      </c>
+      <c r="G33" t="s">
+        <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="I33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H34" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>251</v>
+      </c>
+      <c r="C35" t="s">
+        <v>251</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
+      </c>
+      <c r="G35" t="s">
+        <v>271</v>
       </c>
       <c r="H35" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="I35" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" t="s">
-        <v>225</v>
-      </c>
-      <c r="E36" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H37" t="s">
+        <v>89</v>
+      </c>
+      <c r="I37" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H37" t="s">
-        <v>227</v>
-      </c>
-      <c r="I37" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="I38" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>269</v>
+        <v>136</v>
+      </c>
+      <c r="G39" t="s">
+        <v>284</v>
       </c>
       <c r="H39" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="I39" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="I40" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>195</v>
+      </c>
+      <c r="C41" t="s">
+        <v>284</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="E41" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="1" t="s">
-        <v>200</v>
+      <c r="A42" t="s">
+        <v>284</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="H42" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="I42" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E43" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="H43" t="s">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H44" t="s">
+        <v>266</v>
+      </c>
+      <c r="I44" t="s">
         <v>269</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H44" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H45" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
-      </c>
-      <c r="G46" t="s">
-        <v>265</v>
+        <v>205</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="H46" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="I47" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="H48" t="s">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="I48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>58</v>
+        <v>139</v>
+      </c>
+      <c r="G49" t="s">
+        <v>283</v>
       </c>
       <c r="H49" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="I49" t="s">
-        <v>142</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>265</v>
+        <v>67</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>71</v>
+        <v>140</v>
+      </c>
+      <c r="G50" t="s">
+        <v>282</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
+        <v>292</v>
       </c>
       <c r="I50" t="s">
-        <v>142</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>240</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="I51" t="s">
-        <v>209</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H52" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>265</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>58</v>
+      <c r="A53" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>283</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="E53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>157</v>
+        <v>304</v>
+      </c>
+      <c r="G53" t="s">
+        <v>261</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="I53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" t="s">
+        <v>304</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H54" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I54" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55" t="s">
-        <v>209</v>
-      </c>
-      <c r="G55" t="s">
-        <v>262</v>
-      </c>
       <c r="H55" t="s">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="I55" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
+      <c r="A56" t="s">
+        <v>282</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
         <v>136</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H56" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
         <v>141</v>
@@ -2857,22 +3021,22 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" t="s">
+        <v>261</v>
+      </c>
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E57" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I57" t="s">
         <v>141</v>
@@ -2880,1340 +3044,1687 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>143</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
+      </c>
+      <c r="G58" t="s">
+        <v>279</v>
       </c>
       <c r="H58" t="s">
-        <v>105</v>
+        <v>289</v>
       </c>
       <c r="I58" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>262</v>
+        <v>37</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="E59" t="s">
-        <v>223</v>
-      </c>
-      <c r="G59" t="s">
-        <v>251</v>
+        <v>141</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="H59" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="I59" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
-        <v>40</v>
+      <c r="A60" t="s">
+        <v>261</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
         <v>141</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
         <v>141</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="H61" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="I61" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>279</v>
+      </c>
+      <c r="D62" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" t="s">
-        <v>141</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>251</v>
+        <v>58</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>20</v>
+        <v>206</v>
+      </c>
+      <c r="G63" t="s">
+        <v>277</v>
       </c>
       <c r="H63" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="I63" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>60</v>
+        <v>136</v>
+      </c>
+      <c r="G64" t="s">
+        <v>258</v>
       </c>
       <c r="H64" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="I64" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" t="s">
-        <v>211</v>
-      </c>
-      <c r="E65" t="s">
-        <v>207</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="H65" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="I65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" t="s">
-        <v>141</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H66" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I66" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" t="s">
+        <v>287</v>
+      </c>
+      <c r="E67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" t="s">
-        <v>107</v>
-      </c>
-      <c r="E67" t="s">
-        <v>141</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="H67" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="I67" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>258</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
+      </c>
+      <c r="G68" t="s">
+        <v>247</v>
       </c>
       <c r="H68" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="I68" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="I69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="H70" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="I70" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H71" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>203</v>
+      <c r="A72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>247</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I72" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="H73" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="H74" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="I74" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>280</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E76" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="H76" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="I76" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="H77" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I77" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>23</v>
+        <v>199</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I78" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="H79" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I80" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" t="s">
-        <v>240</v>
+        <v>19</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I81" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
-        <v>2</v>
+      <c r="A82" t="s">
+        <v>280</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H82" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="I82" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
-      </c>
-      <c r="G83" t="s">
-        <v>247</v>
+        <v>141</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H83" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="I83" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E84" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G84" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H84" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="I84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E85" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H85" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I85" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H86" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I86" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" t="s">
-        <v>247</v>
+        <v>46</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="E87" t="s">
-        <v>139</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>51</v>
+        <v>131</v>
+      </c>
+      <c r="G87" t="s">
+        <v>237</v>
       </c>
       <c r="H87" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="I87" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C88" t="s">
-        <v>268</v>
+        <v>23</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>235</v>
+        <v>135</v>
+      </c>
+      <c r="G88" t="s">
+        <v>275</v>
       </c>
       <c r="H88" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="I88" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>68</v>
+        <v>196</v>
+      </c>
+      <c r="C89" t="s">
+        <v>276</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="I89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E90" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H90" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="I90" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E91" t="s">
-        <v>134</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>253</v>
+        <v>140</v>
+      </c>
+      <c r="G91" t="s">
+        <v>274</v>
       </c>
       <c r="H91" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="I91" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>235</v>
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>237</v>
       </c>
       <c r="D92" t="s">
         <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I92" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>159</v>
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>275</v>
       </c>
       <c r="D93" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="E93" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I93" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H94" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I94" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" t="s">
-        <v>253</v>
+        <v>77</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="D95" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
-        <v>208</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>160</v>
+        <v>206</v>
+      </c>
+      <c r="G95" t="s">
+        <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
+      </c>
+      <c r="C96" t="s">
+        <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>285</v>
       </c>
       <c r="E96" t="s">
+        <v>141</v>
+      </c>
+      <c r="G96" t="s">
+        <v>264</v>
+      </c>
+      <c r="H96" t="s">
+        <v>263</v>
+      </c>
+      <c r="I96" t="s">
         <v>146</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H96" t="s">
-        <v>124</v>
-      </c>
-      <c r="I96" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97" t="s">
-        <v>257</v>
+        <v>140</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H97" t="s">
-        <v>258</v>
+        <v>120</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="E98" t="s">
-        <v>220</v>
-      </c>
-      <c r="G98" t="s">
-        <v>271</v>
+        <v>136</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>272</v>
+        <v>121</v>
       </c>
       <c r="I98" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="D99" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="E99" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I99" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>243</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="E100" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="H100" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="I100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
-        <v>185</v>
+      <c r="A101" t="s">
+        <v>276</v>
       </c>
       <c r="C101" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D101" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E101" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="I101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C102" t="s">
-        <v>271</v>
+      <c r="A102" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="G102" t="s">
+        <v>297</v>
       </c>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="I102" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" t="s">
-        <v>268</v>
+      <c r="A103" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E103" t="s">
-        <v>141</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>201</v>
+        <v>134</v>
+      </c>
+      <c r="G103" t="s">
+        <v>281</v>
       </c>
       <c r="H103" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="I103" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c r="D104" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="E104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I104" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="1" t="s">
-        <v>16</v>
+      <c r="A105" t="s">
+        <v>275</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="E105" t="s">
-        <v>131</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>186</v>
+        <v>135</v>
+      </c>
+      <c r="G105" t="s">
+        <v>249</v>
       </c>
       <c r="H105" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="I105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E106" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="H106" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="I106" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>201</v>
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>297</v>
       </c>
       <c r="D107" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="E107" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="H107" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="I107" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>55</v>
+        <v>187</v>
+      </c>
+      <c r="C108" t="s">
+        <v>281</v>
       </c>
       <c r="D108" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="E108" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H108" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I108" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D109" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>165</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H109" t="s">
+        <v>163</v>
+      </c>
+      <c r="I109" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C110" s="1" t="s">
+      <c r="A110" t="s">
+        <v>274</v>
+      </c>
+      <c r="C110" t="s">
+        <v>249</v>
+      </c>
+      <c r="D110" t="s">
+        <v>250</v>
+      </c>
+      <c r="E110" t="s">
         <v>205</v>
       </c>
-      <c r="D110" t="s">
-        <v>233</v>
-      </c>
-      <c r="E110" t="s">
-        <v>142</v>
+      <c r="G110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" t="s">
+        <v>124</v>
+      </c>
+      <c r="I110" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" t="s">
+        <v>145</v>
+      </c>
+      <c r="G111" t="s">
         <v>253</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D111" t="s">
-        <v>214</v>
-      </c>
-      <c r="E111" t="s">
-        <v>207</v>
+      <c r="H111" t="s">
+        <v>254</v>
+      </c>
+      <c r="I111" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D112" t="s">
+        <v>123</v>
+      </c>
+      <c r="E112" t="s">
+        <v>146</v>
+      </c>
+      <c r="G112" t="s">
+        <v>267</v>
+      </c>
+      <c r="H112" t="s">
+        <v>268</v>
+      </c>
+      <c r="I112" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" t="s">
+        <v>216</v>
+      </c>
+      <c r="E113" t="s">
+        <v>217</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H113" t="s">
+        <v>125</v>
+      </c>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D114" t="s">
+        <v>163</v>
+      </c>
+      <c r="E114" t="s">
+        <v>136</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H114" t="s">
+        <v>215</v>
+      </c>
+      <c r="I114" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115" t="s">
+        <v>131</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s">
+        <v>126</v>
+      </c>
+      <c r="I115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>264</v>
+      </c>
+      <c r="C116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D116" t="s">
+        <v>254</v>
+      </c>
+      <c r="E116" t="s">
+        <v>141</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>127</v>
+      </c>
+      <c r="I116" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" t="s">
+        <v>267</v>
+      </c>
+      <c r="D117" t="s">
+        <v>268</v>
+      </c>
+      <c r="E117" t="s">
+        <v>204</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I117" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" t="s">
+        <v>125</v>
+      </c>
+      <c r="E118" t="s">
+        <v>140</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H118" t="s">
+        <v>128</v>
+      </c>
+      <c r="I118" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D119" t="s">
+        <v>215</v>
+      </c>
+      <c r="E119" t="s">
+        <v>136</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H119" t="s">
+        <v>210</v>
+      </c>
+      <c r="I119" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>126</v>
+      </c>
+      <c r="E120" t="s">
+        <v>131</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H120" t="s">
+        <v>230</v>
+      </c>
+      <c r="I120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" t="s">
+        <v>129</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H121" t="s">
+        <v>211</v>
+      </c>
+      <c r="I121" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" t="s">
+        <v>226</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H122" t="s">
+        <v>219</v>
+      </c>
+      <c r="I122" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>281</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" t="s">
+        <v>129</v>
+      </c>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D124" t="s">
+        <v>210</v>
+      </c>
+      <c r="E124" t="s">
+        <v>204</v>
+      </c>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D125" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" t="s">
+        <v>141</v>
+      </c>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D126" t="s">
+        <v>211</v>
+      </c>
+      <c r="E126" t="s">
+        <v>204</v>
+      </c>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D112" t="s">
-        <v>222</v>
-      </c>
-      <c r="E112" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D127" t="s">
+        <v>219</v>
+      </c>
+      <c r="E127" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="G9:I108">
+  <sortState ref="G9:I127">
     <sortCondition ref="G9"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4228,16 +4739,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M104"/>
+  <dimension ref="B4:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B4" sqref="B4:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="24.5" customWidth="1"/>
     <col min="9" max="9" width="24.83203125" customWidth="1"/>
@@ -4247,1399 +4758,1613 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" t="s">
-        <v>223</v>
+      <c r="B7" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13"/>
+        <v>220</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>144</v>
+      <c r="I8" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>286</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>223</v>
+        <v>130</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>220</v>
       </c>
       <c r="J9" s="8">
         <v>3</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="I10" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2</v>
+      </c>
+      <c r="K10" s="15"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="8">
+        <v>7</v>
+      </c>
+      <c r="K11" s="15"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" t="s">
+      <c r="D12" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="8">
-        <v>6</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>207</v>
+      <c r="I12" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="J12" s="8">
         <v>9</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>137</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>147</v>
+      <c r="I14" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="J14" s="8">
         <v>2</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>182</v>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>183</v>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>229</v>
+        <v>131</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="J16" s="8">
         <v>1</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="D17" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="J17" s="8">
-        <v>11</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>184</v>
+      <c r="B18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>166</v>
+        <v>204</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="J18" s="8">
         <v>1</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>185</v>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>139</v>
+        <v>204</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="J19" s="8">
         <v>3</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>186</v>
+        <v>271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>273</v>
+        <v>204</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
       </c>
-      <c r="K20" s="16"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>187</v>
+      <c r="B21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" s="11">
+        <v>204</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J21" s="10">
         <v>1</v>
       </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="14"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" t="s">
-        <v>207</v>
+      <c r="B22" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s">
-        <v>272</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="J22" s="8">
-        <v>8</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="14"/>
+        <v>204</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" s="10">
+        <v>3</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" t="s">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="J23" s="8">
+        <v>8</v>
+      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="13"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="8">
         <v>4</v>
       </c>
-      <c r="K23" s="16"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" t="s">
+      <c r="K24" s="15"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="8">
+        <v>7</v>
+      </c>
+      <c r="K25" s="15"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="8">
-        <v>7</v>
-      </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="8">
-        <v>2</v>
-      </c>
-      <c r="K25" s="16"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D26" t="s">
-        <v>267</v>
-      </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="15" t="s">
         <v>145</v>
       </c>
       <c r="J26" s="8">
         <v>3</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="8">
+        <v>4</v>
+      </c>
+      <c r="K27" s="15"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="15"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C29" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="14"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" t="s">
-        <v>228</v>
-      </c>
-      <c r="I28" s="16" t="s">
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J29" s="8">
         <v>8</v>
       </c>
-      <c r="K28" s="16"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="14"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D29" t="s">
-        <v>237</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>142</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="J30" s="8">
         <v>1</v>
       </c>
-      <c r="K30" s="16"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="14"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>62</v>
+      <c r="B31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
       </c>
       <c r="D31" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>134</v>
       </c>
       <c r="J31" s="8">
         <v>5</v>
       </c>
-      <c r="K31" s="16"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="14"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="13"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>58</v>
+      <c r="B32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" t="s">
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
-      </c>
-      <c r="I32" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>132</v>
       </c>
       <c r="J32" s="8">
         <v>2</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="14"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="13"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="J33" s="8">
+        <v>3</v>
+      </c>
+      <c r="K33" s="15"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="8">
+        <v>12</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="9">
+        <v>3</v>
+      </c>
+      <c r="K35" s="16"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C36" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="D36" t="s">
         <v>141</v>
       </c>
-      <c r="J33" s="8">
-        <v>12</v>
-      </c>
-      <c r="K33" s="16"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="14"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" t="s">
-        <v>230</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="J34" s="12">
+      <c r="I36" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36" s="11">
         <v>1</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="14"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" t="s">
-        <v>232</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="J35" s="9">
-        <v>5</v>
-      </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="14"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="K36" s="16"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="14"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="J37" s="9">
+        <v>8</v>
+      </c>
+      <c r="K37" s="16"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="8">
+        <f>SUM(J8:J38)</f>
+        <v>119</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C40" t="s">
         <v>110</v>
       </c>
-      <c r="I37" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" s="8">
-        <f>SUM(J8:J36)</f>
-        <v>101</v>
-      </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="14"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" t="s">
-        <v>142</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" t="s">
-        <v>233</v>
-      </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="14"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D39" t="s">
-        <v>258</v>
-      </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="14"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C45" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" t="s">
-        <v>273</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D44" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>243</v>
+      </c>
+      <c r="C46" t="s">
+        <v>244</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>75</v>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>49</v>
+      <c r="B48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" t="s">
+        <v>266</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>37</v>
+      <c r="B49" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" t="s">
+        <v>241</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>40</v>
+        <v>284</v>
+      </c>
+      <c r="C50" t="s">
+        <v>294</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>136</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>43</v>
+        <v>283</v>
+      </c>
+      <c r="C51" t="s">
+        <v>293</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
+        <v>282</v>
+      </c>
+      <c r="C52" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" t="s">
-        <v>217</v>
-      </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C60" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D57" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" t="s">
-        <v>208</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" t="s">
-        <v>208</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" t="s">
-        <v>208</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="D60" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>198</v>
+      <c r="B61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" t="s">
+        <v>214</v>
       </c>
       <c r="D61" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" t="s">
-        <v>208</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>78</v>
+      <c r="B62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
+        <v>248</v>
       </c>
       <c r="D63" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" t="s">
-        <v>208</v>
+      <c r="B64" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="C64" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>249</v>
+        <v>272</v>
+      </c>
+      <c r="C65" t="s">
+        <v>273</v>
       </c>
       <c r="D65" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>21</v>
+      <c r="B66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" t="s">
+        <v>221</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>179</v>
+      <c r="B67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>199</v>
+      <c r="B68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" t="s">
+        <v>218</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>39</v>
+      <c r="B69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" t="s">
+        <v>222</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" t="s">
-        <v>242</v>
+      <c r="B70" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>7</v>
+        <v>249</v>
+      </c>
+      <c r="C71" t="s">
+        <v>250</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>76</v>
+      <c r="B72" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" t="s">
+        <v>246</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>5</v>
+        <v>276</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>4</v>
+      <c r="B74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>77</v>
+      <c r="B75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" t="s">
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>17</v>
+      <c r="B76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" t="s">
+        <v>223</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>3</v>
+      <c r="B77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>55</v>
+        <v>281</v>
+      </c>
+      <c r="C78" t="s">
+        <v>291</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C88" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" t="s">
+      <c r="D88" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" t="s">
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" t="s">
         <v>134</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" t="s">
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" t="s">
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C94" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" t="s">
-        <v>134</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" t="s">
+      <c r="D95" t="s">
         <v>132</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" t="s">
-        <v>148</v>
-      </c>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" t="s">
-        <v>141</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" t="s">
-        <v>141</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" t="s">
-        <v>141</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" t="s">
-        <v>141</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D95" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" t="s">
-        <v>141</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>26</v>
+        <v>295</v>
+      </c>
+      <c r="C96" t="s">
+        <v>299</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>141</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>52</v>
+        <v>296</v>
+      </c>
+      <c r="C97" t="s">
+        <v>303</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C98" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" t="s">
+        <v>301</v>
+      </c>
+      <c r="D98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+      <c r="D99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="B105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>125</v>
+      </c>
+      <c r="D109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C110" t="s">
+        <v>149</v>
+      </c>
+      <c r="D110" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
-      <c r="B99" t="s">
-        <v>220</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D99" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100" t="s">
+    <row r="111" spans="2:4">
+      <c r="B111" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s">
+        <v>85</v>
+      </c>
+      <c r="D112" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C113" t="s">
+        <v>91</v>
+      </c>
+      <c r="D113" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C114" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
+        <v>278</v>
+      </c>
+      <c r="C115" t="s">
+        <v>288</v>
+      </c>
+      <c r="D115" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="1" t="s">
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116" t="s">
+        <v>256</v>
+      </c>
+      <c r="D116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" t="s">
+        <v>262</v>
+      </c>
+      <c r="D118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" t="s">
+        <v>279</v>
+      </c>
+      <c r="C119" t="s">
+        <v>289</v>
+      </c>
+      <c r="D119" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4">
+      <c r="B120" t="s">
+        <v>277</v>
+      </c>
+      <c r="C120" t="s">
+        <v>287</v>
+      </c>
+      <c r="D120" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D100" t="s">
+      <c r="C121" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="101" spans="2:4">
-      <c r="B101" t="s">
+      <c r="D121" t="s">
         <v>135</v>
       </c>
-      <c r="C101" s="1" t="s">
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" t="s">
         <v>235</v>
       </c>
-      <c r="D101" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102" t="s">
+      <c r="D122" t="s">
         <v>135</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D102" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103" t="s">
-        <v>135</v>
-      </c>
-      <c r="C103" t="s">
-        <v>259</v>
-      </c>
-      <c r="D103" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" t="s">
-        <v>265</v>
-      </c>
-      <c r="D104" t="s">
-        <v>266</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="I8:L36">
-    <sortCondition ref="I8"/>
+  <sortState ref="B4:D122">
+    <sortCondition ref="D4"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="220" windowWidth="30940" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="460" yWindow="360" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="300">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -46,9 +46,6 @@
     <t>asoy</t>
   </si>
   <si>
-    <t>daviesp</t>
-  </si>
-  <si>
     <t>saffordt</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>murphys</t>
   </si>
   <si>
-    <t>kimmelb</t>
-  </si>
-  <si>
     <t>simpsonj</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>cardg</t>
   </si>
   <si>
-    <t>midgleyf</t>
-  </si>
-  <si>
     <t>fosterl</t>
   </si>
   <si>
@@ -830,12 +821,6 @@
   </si>
   <si>
     <t>Hess</t>
-  </si>
-  <si>
-    <t>Kai Feng</t>
-  </si>
-  <si>
-    <t>fengk</t>
   </si>
   <si>
     <t>blaker</t>
@@ -947,6 +932,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1041,7 +1027,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="204">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1246,8 +1232,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1272,8 +1259,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="204"/>
   </cellXfs>
-  <cellStyles count="204">
+  <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1477,6 +1465,7 @@
     <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="204" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1806,11 +1795,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1823,1729 +1810,1740 @@
     <col min="9" max="9" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20">
+    <row r="1" spans="1:11" ht="20">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" s="4">
         <v>40633</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" t="s">
         <v>204</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" t="s">
-        <v>207</v>
-      </c>
       <c r="I13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" t="s">
+        <v>268</v>
+      </c>
+      <c r="I14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" t="s">
+        <v>217</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" t="s">
         <v>295</v>
       </c>
-      <c r="C14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" t="s">
-        <v>272</v>
-      </c>
-      <c r="H14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" t="s">
-        <v>257</v>
-      </c>
-      <c r="H15" t="s">
-        <v>259</v>
-      </c>
-      <c r="I15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I17" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E23" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="G23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" t="s">
+        <v>211</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="G28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
+        <v>291</v>
+      </c>
+      <c r="H30" t="s">
+        <v>298</v>
+      </c>
+      <c r="I30" t="s">
         <v>295</v>
       </c>
-      <c r="D17" t="s">
-        <v>299</v>
-      </c>
-      <c r="E17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" t="s">
         <v>295</v>
       </c>
-      <c r="H17" t="s">
-        <v>299</v>
-      </c>
-      <c r="I17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G32" t="s">
+        <v>252</v>
+      </c>
+      <c r="H32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I32" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H21" t="s">
-        <v>221</v>
-      </c>
-      <c r="I21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" t="s">
-        <v>246</v>
-      </c>
-      <c r="I23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" t="s">
-        <v>246</v>
-      </c>
-      <c r="E24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" t="s">
-        <v>214</v>
-      </c>
-      <c r="I26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" t="s">
-        <v>206</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H28" t="s">
-        <v>203</v>
-      </c>
-      <c r="I28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E30" t="s">
-        <v>204</v>
-      </c>
-      <c r="G30" t="s">
-        <v>296</v>
-      </c>
-      <c r="H30" t="s">
-        <v>303</v>
-      </c>
-      <c r="I30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E32" t="s">
-        <v>300</v>
-      </c>
-      <c r="G32" t="s">
-        <v>255</v>
-      </c>
-      <c r="H32" t="s">
-        <v>256</v>
-      </c>
-      <c r="I32" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>248</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
-      </c>
-      <c r="G35" t="s">
-        <v>271</v>
+        <v>132</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" t="s">
-        <v>271</v>
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="I37" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>195</v>
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>279</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="I38" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" t="s">
-        <v>284</v>
+        <v>202</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="I39" t="s">
-        <v>304</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>195</v>
+      <c r="A40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" t="s">
+        <v>279</v>
       </c>
       <c r="D40" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>299</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C41" t="s">
-        <v>284</v>
+        <v>38</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="D41" t="s">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>304</v>
+        <v>141</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="H41" t="s">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c r="I41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>284</v>
+      <c r="A42" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="H42" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="I43" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="I44" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="I46" t="s">
-        <v>140</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H47" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="I47" t="s">
-        <v>242</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>233</v>
+        <v>136</v>
+      </c>
+      <c r="G48" t="s">
+        <v>278</v>
       </c>
       <c r="H48" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="I48" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>265</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G49" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H49" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I49" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" t="s">
-        <v>282</v>
+        <v>239</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="I50" t="s">
-        <v>304</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D51" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
+      </c>
+      <c r="C52" t="s">
+        <v>278</v>
       </c>
       <c r="D52" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>37</v>
+        <v>299</v>
+      </c>
+      <c r="G52" t="s">
+        <v>258</v>
       </c>
       <c r="H52" t="s">
+        <v>259</v>
+      </c>
+      <c r="I52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" t="s">
+        <v>287</v>
+      </c>
+      <c r="E53" t="s">
+        <v>299</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" t="s">
         <v>97</v>
       </c>
-      <c r="I52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" t="s">
-        <v>283</v>
-      </c>
-      <c r="D53" t="s">
-        <v>293</v>
-      </c>
-      <c r="E53" t="s">
-        <v>304</v>
-      </c>
-      <c r="G53" t="s">
-        <v>261</v>
-      </c>
-      <c r="H53" t="s">
-        <v>262</v>
-      </c>
-      <c r="I53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" t="s">
-        <v>292</v>
-      </c>
-      <c r="E54" t="s">
-        <v>304</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="I55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>258</v>
+      </c>
+      <c r="D56" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" t="s">
         <v>98</v>
       </c>
-      <c r="I54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" t="s">
-        <v>99</v>
-      </c>
-      <c r="I55" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" t="s">
-        <v>136</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" t="s">
-        <v>100</v>
-      </c>
       <c r="I56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" t="s">
-        <v>261</v>
+        <v>34</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
+      </c>
+      <c r="G57" t="s">
+        <v>274</v>
       </c>
       <c r="H57" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="I57" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>12</v>
+      <c r="A58" t="s">
+        <v>258</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
-      </c>
-      <c r="G58" t="s">
-        <v>279</v>
+        <v>138</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="H58" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="I58" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="H59" t="s">
         <v>99</v>
       </c>
-      <c r="E59" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H59" t="s">
-        <v>212</v>
-      </c>
       <c r="I59" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>261</v>
+      <c r="A60" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="H60" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="I60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>274</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" t="s">
-        <v>279</v>
+        <v>68</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="E62" t="s">
-        <v>135</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>30</v>
+        <v>203</v>
+      </c>
+      <c r="G62" t="s">
+        <v>272</v>
       </c>
       <c r="H62" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="I62" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1" t="s">
-        <v>58</v>
+      <c r="A63" t="s">
+        <v>274</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="G63" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="H63" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="I63" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>183</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>136</v>
-      </c>
-      <c r="G64" t="s">
-        <v>258</v>
+        <v>131</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H64" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="I64" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>279</v>
+      <c r="A65" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>30</v>
+        <v>153</v>
+      </c>
+      <c r="C66" t="s">
+        <v>272</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D67" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="E67" t="s">
-        <v>135</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>53</v>
+        <v>217</v>
+      </c>
+      <c r="G67" t="s">
+        <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="I67" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" t="s">
-        <v>258</v>
+        <v>154</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
-      </c>
-      <c r="G68" t="s">
-        <v>247</v>
+        <v>137</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="H68" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="I68" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="1" t="s">
-        <v>156</v>
+      <c r="A69" t="s">
+        <v>272</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H69" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="I69" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="H70" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="I70" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>244</v>
       </c>
       <c r="D71" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" t="s">
+        <v>203</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" t="s">
         <v>105</v>
       </c>
-      <c r="E71" t="s">
-        <v>140</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H71" t="s">
-        <v>106</v>
-      </c>
-      <c r="I71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" t="s">
-        <v>248</v>
-      </c>
-      <c r="E72" t="s">
-        <v>206</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" t="s">
-        <v>107</v>
-      </c>
       <c r="I72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="H73" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="I73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>181</v>
+        <v>244</v>
+      </c>
+      <c r="C74" t="s">
+        <v>275</v>
       </c>
       <c r="D74" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
       <c r="E74" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>201</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="I74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75" t="s">
-        <v>280</v>
+        <v>196</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="H75" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I76" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D77" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
         <v>107</v>
       </c>
-      <c r="E77" t="s">
-        <v>140</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H77" t="s">
-        <v>228</v>
-      </c>
       <c r="I77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H78" t="s">
         <v>108</v>
       </c>
-      <c r="E78" t="s">
+      <c r="I78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D79" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" t="s">
         <v>140</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H78" t="s">
-        <v>110</v>
-      </c>
-      <c r="I78" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" t="s">
-        <v>229</v>
-      </c>
-      <c r="E79" t="s">
-        <v>141</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I79" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3553,1174 +3551,1136 @@
         <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="H80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I80" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D81" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="H81" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="I81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>280</v>
+      <c r="A82" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="I82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
-        <v>141</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>18</v>
+        <v>128</v>
+      </c>
+      <c r="G83" t="s">
+        <v>271</v>
       </c>
       <c r="H83" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="I83" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>131</v>
-      </c>
-      <c r="G84" t="s">
-        <v>276</v>
+        <v>126</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H84" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="I84" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E85" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I85" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D86" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
+      </c>
+      <c r="G86" t="s">
+        <v>234</v>
       </c>
       <c r="H86" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="I86" t="s">
-        <v>140</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="E87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G87" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="H87" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="I87" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>271</v>
       </c>
       <c r="D88" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" t="s">
+        <v>142</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
         <v>114</v>
       </c>
-      <c r="E88" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" t="s">
-        <v>275</v>
-      </c>
-      <c r="H88" t="s">
-        <v>286</v>
-      </c>
       <c r="I88" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" t="s">
-        <v>276</v>
+        <v>66</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="I89" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D90" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>187</v>
+        <v>137</v>
+      </c>
+      <c r="G90" t="s">
+        <v>269</v>
       </c>
       <c r="H90" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="I90" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="C91" t="s">
+        <v>234</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="E91" t="s">
-        <v>140</v>
-      </c>
-      <c r="G91" t="s">
-        <v>274</v>
+        <v>236</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H91" t="s">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c r="I91" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I92" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" t="s">
-        <v>275</v>
+        <v>30</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="I93" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>129</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>182</v>
+        <v>203</v>
+      </c>
+      <c r="G94" t="s">
+        <v>240</v>
       </c>
       <c r="H94" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="I94" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>187</v>
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>269</v>
       </c>
       <c r="D95" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="G95" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="H95" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="I95" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" t="s">
-        <v>274</v>
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D96" t="s">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
-      </c>
-      <c r="G96" t="s">
-        <v>264</v>
+        <v>137</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H96" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="I96" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
-        <v>33</v>
+      <c r="A97" t="s">
+        <v>271</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
         <v>118</v>
       </c>
-      <c r="E97" t="s">
-        <v>140</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H97" t="s">
-        <v>120</v>
-      </c>
       <c r="I97" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="E98" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I98" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>182</v>
+        <v>62</v>
+      </c>
+      <c r="C99" t="s">
+        <v>240</v>
       </c>
       <c r="D99" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="I99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="E100" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="H100" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>276</v>
-      </c>
-      <c r="C101" t="s">
-        <v>264</v>
+        <v>270</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="E101" t="s">
-        <v>146</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
+      </c>
+      <c r="G101" t="s">
+        <v>292</v>
       </c>
       <c r="H101" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E102" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="H102" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="I102" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D103" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E103" t="s">
-        <v>134</v>
-      </c>
-      <c r="G103" t="s">
-        <v>281</v>
+        <v>131</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="H103" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="I103" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="E104" t="s">
-        <v>134</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>160</v>
+        <v>132</v>
+      </c>
+      <c r="G104" t="s">
+        <v>246</v>
       </c>
       <c r="H104" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="I104" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" t="s">
-        <v>275</v>
+      <c r="A105" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="D105" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="E105" t="s">
-        <v>135</v>
-      </c>
-      <c r="G105" t="s">
-        <v>249</v>
+        <v>129</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="I105" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>158</v>
+      <c r="A106" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" t="s">
+        <v>292</v>
       </c>
       <c r="D106" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="E106" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="D107" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E107" t="s">
-        <v>300</v>
+        <v>141</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="I107" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C108" t="s">
-        <v>281</v>
+        <v>23</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D108" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="E108" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="H108" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="I108" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>160</v>
+        <v>40</v>
+      </c>
+      <c r="C109" t="s">
+        <v>246</v>
       </c>
       <c r="D109" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="E109" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="H109" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="I109" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" t="s">
-        <v>274</v>
-      </c>
-      <c r="C110" t="s">
-        <v>249</v>
+      <c r="A110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D110" t="s">
+        <v>119</v>
+      </c>
+      <c r="E110" t="s">
+        <v>142</v>
+      </c>
+      <c r="G110" t="s">
         <v>250</v>
       </c>
-      <c r="E110" t="s">
-        <v>205</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H110" t="s">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="I110" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
-        <v>70</v>
+      <c r="A111" t="s">
+        <v>240</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
+        <v>120</v>
+      </c>
+      <c r="E111" t="s">
+        <v>143</v>
+      </c>
+      <c r="G111" t="s">
+        <v>264</v>
+      </c>
+      <c r="H111" t="s">
+        <v>265</v>
+      </c>
+      <c r="I111" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>261</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D112" t="s">
+        <v>213</v>
+      </c>
+      <c r="E112" t="s">
+        <v>214</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H112" t="s">
         <v>122</v>
       </c>
-      <c r="E111" t="s">
-        <v>145</v>
-      </c>
-      <c r="G111" t="s">
-        <v>253</v>
-      </c>
-      <c r="H111" t="s">
-        <v>254</v>
-      </c>
-      <c r="I111" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D112" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" t="s">
-        <v>146</v>
-      </c>
-      <c r="G112" t="s">
-        <v>267</v>
-      </c>
-      <c r="H112" t="s">
-        <v>268</v>
-      </c>
       <c r="I112" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D113" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="H113" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="D114" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="I114" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>29</v>
+      <c r="A115" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C115" t="s">
+        <v>250</v>
       </c>
       <c r="D115" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115" t="s">
+        <v>138</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" t="s">
         <v>124</v>
       </c>
-      <c r="E115" t="s">
-        <v>131</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>126</v>
       </c>
-      <c r="I115" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" t="s">
         <v>264</v>
       </c>
-      <c r="C116" t="s">
-        <v>253</v>
-      </c>
       <c r="D116" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="H116" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="I116" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C117" t="s">
-        <v>267</v>
+        <v>155</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D117" t="s">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="H117" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="I117" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="1" t="s">
-        <v>16</v>
+      <c r="A118" t="s">
+        <v>292</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="E118" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="H118" t="s">
+        <v>207</v>
+      </c>
+      <c r="I118" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>276</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" t="s">
         <v>128</v>
       </c>
-      <c r="I118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D119" t="s">
-        <v>215</v>
-      </c>
-      <c r="E119" t="s">
-        <v>136</v>
-      </c>
       <c r="G119" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="H119" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="I119" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E120" t="s">
         <v>126</v>
       </c>
-      <c r="E120" t="s">
-        <v>131</v>
-      </c>
       <c r="G120" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="H120" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="I120" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>3</v>
+        <v>195</v>
       </c>
       <c r="D121" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="E121" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H121" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I121" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>226</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H122" t="s">
-        <v>219</v>
-      </c>
-      <c r="I122" t="s">
-        <v>220</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G122" s="1"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" t="s">
-        <v>281</v>
+      <c r="A123" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="D123" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="E123" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D124" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E124" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D125" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E125" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" t="s">
-        <v>249</v>
+      <c r="A126" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D126" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E126" t="s">
-        <v>204</v>
-      </c>
-      <c r="G126" s="1"/>
+        <v>217</v>
+      </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D127" t="s">
-        <v>219</v>
-      </c>
-      <c r="E127" t="s">
-        <v>220</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="1" t="s">
-        <v>159</v>
+      <c r="A131" t="s">
+        <v>264</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="1" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G134" s="1"/>
+        <v>186</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" t="s">
-        <v>267</v>
+      <c r="A135" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="1" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4739,10 +4699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M122"/>
+  <dimension ref="B4:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B122"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4759,52 +4719,52 @@
   <sheetData>
     <row r="4" spans="2:13">
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="11"/>
@@ -4812,16 +4772,16 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
@@ -4832,16 +4792,16 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J9" s="8">
         <v>3</v>
@@ -4852,16 +4812,16 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J10" s="8">
         <v>2</v>
@@ -4872,16 +4832,16 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J11" s="8">
         <v>7</v>
@@ -4892,19 +4852,19 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J12" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="11"/>
@@ -4912,16 +4872,16 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
@@ -4932,16 +4892,16 @@
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J14" s="8">
         <v>2</v>
@@ -4952,16 +4912,16 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J15" s="8">
         <v>2</v>
@@ -4972,16 +4932,16 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J16" s="8">
         <v>1</v>
@@ -4992,16 +4952,16 @@
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J17" s="8">
         <v>12</v>
@@ -5012,16 +4972,16 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J18" s="8">
         <v>1</v>
@@ -5032,16 +4992,16 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J19" s="8">
         <v>3</v>
@@ -5051,17 +5011,17 @@
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" t="s">
-        <v>271</v>
+      <c r="B20" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
@@ -5072,16 +5032,16 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J21" s="10">
         <v>1</v>
@@ -5091,17 +5051,17 @@
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="1" t="s">
-        <v>182</v>
+      <c r="B22" t="s">
+        <v>264</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="J22" s="10">
         <v>3</v>
@@ -5111,17 +5071,17 @@
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" t="s">
-        <v>267</v>
+      <c r="B23" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J23" s="8">
         <v>8</v>
@@ -5132,16 +5092,16 @@
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J24" s="8">
         <v>4</v>
@@ -5152,16 +5112,16 @@
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J25" s="8">
         <v>7</v>
@@ -5171,17 +5131,17 @@
       <c r="M25" s="13"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="1" t="s">
-        <v>44</v>
+      <c r="B26" t="s">
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J26" s="8">
         <v>3</v>
@@ -5191,17 +5151,17 @@
       <c r="M26" s="13"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" t="s">
-        <v>264</v>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J27" s="8">
         <v>4</v>
@@ -5212,16 +5172,16 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J28" s="10">
         <v>1</v>
@@ -5231,17 +5191,17 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="1" t="s">
-        <v>45</v>
+      <c r="B29" t="s">
+        <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J29" s="8">
         <v>8</v>
@@ -5251,17 +5211,17 @@
       <c r="M29" s="13"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" t="s">
-        <v>280</v>
+      <c r="B30" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="D30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>142</v>
       </c>
       <c r="J30" s="8">
         <v>1</v>
@@ -5272,16 +5232,16 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J31" s="8">
         <v>5</v>
@@ -5292,16 +5252,16 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="1" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J32" s="8">
         <v>2</v>
@@ -5312,16 +5272,16 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
         <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="J33" s="8">
         <v>3</v>
@@ -5332,16 +5292,16 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J34" s="8">
         <v>12</v>
@@ -5352,16 +5312,16 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J35" s="9">
         <v>3</v>
@@ -5372,16 +5332,16 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J36" s="11">
         <v>1</v>
@@ -5392,16 +5352,16 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J37" s="9">
         <v>8</v>
@@ -5412,13 +5372,13 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I38" s="16"/>
       <c r="J38" s="11"/>
@@ -5428,199 +5388,199 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="1" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J39" s="8">
         <f>SUM(J8:J38)</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K39" s="15"/>
       <c r="L39" s="11"/>
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="1" t="s">
-        <v>2</v>
+      <c r="B40" t="s">
+        <v>269</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" t="s">
-        <v>253</v>
+      <c r="B42" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="1" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="1" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="1" t="s">
-        <v>67</v>
+      <c r="B45" t="s">
+        <v>240</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" t="s">
-        <v>243</v>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>262</v>
       </c>
       <c r="C47" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="1" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="1" t="s">
-        <v>240</v>
+      <c r="B49" t="s">
+        <v>279</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D50" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" t="s">
-        <v>282</v>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>304</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
         <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -5628,10 +5588,10 @@
         <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D56" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -5639,727 +5599,716 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D61" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="1" t="s">
-        <v>186</v>
+      <c r="B62" t="s">
+        <v>244</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" t="s">
-        <v>247</v>
+      <c r="B63" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C63" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="1" t="s">
-        <v>187</v>
+      <c r="B64" t="s">
+        <v>267</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" t="s">
-        <v>272</v>
+      <c r="B65" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="1" t="s">
-        <v>78</v>
+      <c r="B70" t="s">
+        <v>246</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>247</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" t="s">
-        <v>249</v>
+      <c r="B71" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="1" t="s">
-        <v>245</v>
+      <c r="B72" t="s">
+        <v>271</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" t="s">
-        <v>276</v>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="1" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="1" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="1" t="s">
-        <v>39</v>
+      <c r="B77" t="s">
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" t="s">
-        <v>237</v>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="D79" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="D80" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D86" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C87" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D88" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="1" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="C89" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="D89" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="1" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="D90" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="1" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="1" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="1" t="s">
-        <v>158</v>
+      <c r="B95" t="s">
+        <v>290</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" t="s">
         <v>295</v>
-      </c>
-      <c r="C96" t="s">
-        <v>299</v>
-      </c>
-      <c r="D96" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" t="s">
         <v>296</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" t="s">
-        <v>297</v>
+      <c r="B98" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>301</v>
+        <v>144</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D101" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D102" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D104" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D108" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C109" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D110" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C111" t="s">
         <v>82</v>
       </c>
       <c r="D111" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="1" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="D113" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="2:4">
-      <c r="B114" s="1" t="s">
-        <v>190</v>
+      <c r="B114" t="s">
+        <v>273</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="D114" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D115" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C116" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D117" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C118" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="D118" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D119" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" t="s">
-        <v>277</v>
+      <c r="B120" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="2:4">
       <c r="B121" s="1" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="D121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4">
-      <c r="B122" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C122" t="s">
-        <v>235</v>
-      </c>
-      <c r="D122" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="312">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -920,6 +920,42 @@
   </si>
   <si>
     <t>Ito</t>
+  </si>
+  <si>
+    <t>bermang</t>
+  </si>
+  <si>
+    <t>Gordon Berman</t>
+  </si>
+  <si>
+    <t>ribeiroi</t>
+  </si>
+  <si>
+    <t>Ines Ribeiro</t>
+  </si>
+  <si>
+    <t>wangf12</t>
+  </si>
+  <si>
+    <t>Fei Wang</t>
+  </si>
+  <si>
+    <t>arthurb</t>
+  </si>
+  <si>
+    <t>otsunah</t>
+  </si>
+  <si>
+    <t>Ben Arthur</t>
+  </si>
+  <si>
+    <t>Hideo Otsuna</t>
+  </si>
+  <si>
+    <t>Celia Beron</t>
+  </si>
+  <si>
+    <t>beronc</t>
   </si>
 </sst>
 </file>
@@ -932,7 +968,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,7 +1063,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="205">
+  <cellStyleXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1233,6 +1269,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1261,7 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="204"/>
   </cellXfs>
-  <cellStyles count="205">
+  <cellStyles count="206">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1370,6 +1407,7 @@
     <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1795,9 +1833,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:A151"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4681,6 +4721,54 @@
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>302</v>
+      </c>
+      <c r="B147" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>304</v>
+      </c>
+      <c r="B148" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>311</v>
+      </c>
+      <c r="B151" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="314">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -946,16 +946,22 @@
     <t>otsunah</t>
   </si>
   <si>
-    <t>Ben Arthur</t>
-  </si>
-  <si>
-    <t>Hideo Otsuna</t>
-  </si>
-  <si>
     <t>Celia Beron</t>
   </si>
   <si>
     <t>beronc</t>
+  </si>
+  <si>
+    <t>minegishir</t>
+  </si>
+  <si>
+    <t>schauderd</t>
+  </si>
+  <si>
+    <t>Ryo Minegishi</t>
+  </si>
+  <si>
+    <t>JUS</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1069,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="206">
+  <cellStyleXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1269,6 +1275,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
@@ -1298,7 +1309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="204"/>
   </cellXfs>
-  <cellStyles count="206">
+  <cellStyles count="211">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1408,6 +1419,11 @@
     <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1833,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:A151"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1855,7 +1871,7 @@
         <v>152</v>
       </c>
       <c r="B1" s="4">
-        <v>40633</v>
+        <v>40712</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
@@ -4565,7 +4581,15 @@
       <c r="E122" t="s">
         <v>126</v>
       </c>
-      <c r="G122" s="1"/>
+      <c r="G122" t="s">
+        <v>300</v>
+      </c>
+      <c r="H122" t="s">
+        <v>301</v>
+      </c>
+      <c r="I122" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
@@ -4580,7 +4604,15 @@
       <c r="E123" t="s">
         <v>201</v>
       </c>
-      <c r="G123" s="1"/>
+      <c r="G123" t="s">
+        <v>302</v>
+      </c>
+      <c r="H123" t="s">
+        <v>303</v>
+      </c>
+      <c r="I123" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
@@ -4595,7 +4627,15 @@
       <c r="E124" t="s">
         <v>138</v>
       </c>
-      <c r="G124" s="1"/>
+      <c r="G124" t="s">
+        <v>304</v>
+      </c>
+      <c r="H124" t="s">
+        <v>305</v>
+      </c>
+      <c r="I124" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
@@ -4610,7 +4650,15 @@
       <c r="E125" t="s">
         <v>201</v>
       </c>
-      <c r="G125" s="1"/>
+      <c r="G125" t="s">
+        <v>309</v>
+      </c>
+      <c r="H125" t="s">
+        <v>308</v>
+      </c>
+      <c r="I125" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
@@ -4625,35 +4673,89 @@
       <c r="E126" t="s">
         <v>217</v>
       </c>
+      <c r="G126" t="s">
+        <v>310</v>
+      </c>
+      <c r="H126" t="s">
+        <v>312</v>
+      </c>
+      <c r="I126" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="C127" t="s">
+        <v>300</v>
+      </c>
+      <c r="D127" t="s">
+        <v>301</v>
+      </c>
+      <c r="E127" t="s">
+        <v>132</v>
+      </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C128" t="s">
+        <v>302</v>
+      </c>
+      <c r="D128" t="s">
+        <v>303</v>
+      </c>
+      <c r="E128" t="s">
+        <v>201</v>
+      </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C129" t="s">
+        <v>304</v>
+      </c>
+      <c r="D129" t="s">
+        <v>305</v>
+      </c>
+      <c r="E129" t="s">
+        <v>201</v>
+      </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="C130" t="s">
+        <v>309</v>
+      </c>
+      <c r="D130" t="s">
+        <v>308</v>
+      </c>
+      <c r="E130" t="s">
+        <v>313</v>
+      </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>264</v>
       </c>
+      <c r="C131" t="s">
+        <v>310</v>
+      </c>
+      <c r="D131" t="s">
+        <v>312</v>
+      </c>
+      <c r="E131" t="s">
+        <v>132</v>
+      </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="1:7">
@@ -4723,52 +4825,44 @@
         <v>190</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>300</v>
-      </c>
-      <c r="B146" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>302</v>
-      </c>
-      <c r="B147" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>304</v>
-      </c>
-      <c r="B148" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>306</v>
-      </c>
-      <c r="B149" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>307</v>
-      </c>
-      <c r="B150" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
         <v>311</v>
-      </c>
-      <c r="B151" t="s">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4787,10 +4881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M121"/>
+  <dimension ref="B4:M126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4952,7 +5046,7 @@
         <v>201</v>
       </c>
       <c r="J12" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="11"/>
@@ -5189,10 +5283,10 @@
         <v>201</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="J24" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" s="15"/>
       <c r="L24" s="11"/>
@@ -5209,10 +5303,10 @@
         <v>134</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J25" s="8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="11"/>
@@ -5229,10 +5323,10 @@
         <v>143</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="J26" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="11"/>
@@ -5249,10 +5343,10 @@
         <v>143</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J27" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="11"/>
@@ -5268,11 +5362,11 @@
       <c r="D28" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="J28" s="10">
-        <v>1</v>
+      <c r="I28" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="8">
+        <v>4</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="11"/>
@@ -5288,11 +5382,11 @@
       <c r="D29" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="8">
-        <v>8</v>
+      <c r="I29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" s="10">
+        <v>1</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="11"/>
@@ -5309,10 +5403,10 @@
         <v>223</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J30" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K30" s="15"/>
       <c r="L30" s="11"/>
@@ -5329,10 +5423,10 @@
         <v>138</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J31" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K31" s="15"/>
       <c r="L31" s="11"/>
@@ -5349,10 +5443,10 @@
         <v>138</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J32" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="11"/>
@@ -5369,10 +5463,10 @@
         <v>138</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="J33" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="11"/>
@@ -5389,10 +5483,10 @@
         <v>138</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="J34" s="8">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="11"/>
@@ -5408,13 +5502,13 @@
       <c r="D35" t="s">
         <v>138</v>
       </c>
-      <c r="I35" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" s="9">
-        <v>3</v>
-      </c>
-      <c r="K35" s="16"/>
+      <c r="I35" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J35" s="8">
+        <v>12</v>
+      </c>
+      <c r="K35" s="15"/>
       <c r="L35" s="11"/>
       <c r="M35" s="13"/>
     </row>
@@ -5429,10 +5523,10 @@
         <v>138</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J36" s="11">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="J36" s="9">
+        <v>3</v>
       </c>
       <c r="K36" s="16"/>
       <c r="L36" s="11"/>
@@ -5448,11 +5542,11 @@
       <c r="D37" t="s">
         <v>138</v>
       </c>
-      <c r="I37" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J37" s="9">
-        <v>8</v>
+      <c r="I37" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J37" s="11">
+        <v>1</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="11"/>
@@ -5468,8 +5562,12 @@
       <c r="D38" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="11"/>
+      <c r="I38" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" s="9">
+        <v>10</v>
+      </c>
       <c r="K38" s="16"/>
       <c r="L38" s="11"/>
       <c r="M38" s="13"/>
@@ -5484,14 +5582,9 @@
       <c r="D39" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J39" s="8">
-        <f>SUM(J8:J38)</f>
-        <v>118</v>
-      </c>
-      <c r="K39" s="15"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="11"/>
       <c r="M39" s="13"/>
     </row>
@@ -5505,6 +5598,14 @@
       <c r="D40" t="s">
         <v>138</v>
       </c>
+      <c r="I40" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" s="8">
+        <f>SUM(J8:J39)</f>
+        <v>123</v>
+      </c>
+      <c r="K40" s="15"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" t="s">
@@ -6396,6 +6497,61 @@
         <v>232</v>
       </c>
       <c r="D121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4">
+      <c r="B122" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4">
+      <c r="B123" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" t="s">
+        <v>303</v>
+      </c>
+      <c r="D123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4">
+      <c r="B124" t="s">
+        <v>304</v>
+      </c>
+      <c r="C124" t="s">
+        <v>305</v>
+      </c>
+      <c r="D124" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4">
+      <c r="B125" t="s">
+        <v>309</v>
+      </c>
+      <c r="C125" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4">
+      <c r="B126" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" t="s">
+        <v>312</v>
+      </c>
+      <c r="D126" t="s">
         <v>132</v>
       </c>
     </row>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="360" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="316">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -962,6 +962,12 @@
   </si>
   <si>
     <t>JUS</t>
+  </si>
+  <si>
+    <t>terraincognita</t>
+  </si>
+  <si>
+    <t>Terra Incognita Group</t>
   </si>
 </sst>
 </file>
@@ -974,7 +980,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,7 +1074,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="211">
+  <cellStyleXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1275,6 +1280,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1309,7 +1315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="204"/>
   </cellXfs>
-  <cellStyles count="211">
+  <cellStyles count="212">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1424,6 +1430,7 @@
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1849,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K152"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4762,6 +4769,15 @@
       <c r="A132" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C132" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" t="s">
+        <v>315</v>
+      </c>
+      <c r="E132" t="s">
+        <v>138</v>
+      </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="1:7">
@@ -4863,6 +4879,11 @@
     <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="360" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="327">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -964,10 +964,43 @@
     <t>JUS</t>
   </si>
   <si>
-    <t>terraincognita</t>
-  </si>
-  <si>
-    <t>Terra Incognita Group</t>
+    <t>sareenp</t>
+  </si>
+  <si>
+    <t>kaoj</t>
+  </si>
+  <si>
+    <t>lazarusr</t>
+  </si>
+  <si>
+    <t>Rachel Lazarus</t>
+  </si>
+  <si>
+    <t>Jui-Chun Kao</t>
+  </si>
+  <si>
+    <t>Preeti Sareen</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>Erhan Bas</t>
+  </si>
+  <si>
+    <t>mokk</t>
+  </si>
+  <si>
+    <t>bassinb</t>
+  </si>
+  <si>
+    <t>winnubstj</t>
+  </si>
+  <si>
+    <t>Kent Mok</t>
+  </si>
+  <si>
+    <t>Johan Winnubst</t>
   </si>
 </sst>
 </file>
@@ -980,6 +1013,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1288,7 +1322,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1314,6 +1348,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="204"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="204" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="212">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -1856,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1878,7 +1918,7 @@
         <v>152</v>
       </c>
       <c r="B1" s="4">
-        <v>40712</v>
+        <v>40765</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
@@ -2063,23 +2103,23 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>176</v>
+      <c r="C13" t="s">
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>176</v>
+        <v>202</v>
+      </c>
+      <c r="G13" t="s">
+        <v>320</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="I13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K13" s="20"/>
     </row>
@@ -2087,23 +2127,23 @@
       <c r="A14" t="s">
         <v>290</v>
       </c>
-      <c r="C14" t="s">
-        <v>267</v>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" t="s">
-        <v>267</v>
+        <v>201</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" s="20"/>
     </row>
@@ -2112,22 +2152,22 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="I15" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="K15" s="20"/>
     </row>
@@ -2135,23 +2175,23 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
+      <c r="C16" t="s">
+        <v>309</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>313</v>
+      </c>
+      <c r="G16" t="s">
+        <v>309</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="K16" s="20"/>
     </row>
@@ -2160,22 +2200,22 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="G17" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="H17" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="I17" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="K17" s="20"/>
     </row>
@@ -2183,23 +2223,23 @@
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
+      <c r="C18" t="s">
+        <v>254</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>20</v>
+        <v>217</v>
+      </c>
+      <c r="G18" t="s">
+        <v>254</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="K18" s="20"/>
     </row>
@@ -2208,22 +2248,22 @@
         <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K19" s="20"/>
     </row>
@@ -2231,23 +2271,23 @@
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
+      <c r="C20" t="s">
+        <v>290</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>295</v>
+      </c>
+      <c r="G20" t="s">
+        <v>290</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="K20" s="20"/>
     </row>
@@ -2256,22 +2296,22 @@
         <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="K21" s="20"/>
     </row>
@@ -2280,22 +2320,22 @@
         <v>242</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2303,22 +2343,22 @@
         <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2326,22 +2366,22 @@
         <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="D24" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="I24" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2349,22 +2389,22 @@
         <v>185</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2372,22 +2412,22 @@
         <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="H26" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2395,22 +2435,22 @@
         <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2418,22 +2458,22 @@
         <v>177</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2441,22 +2481,22 @@
         <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H29" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2464,22 +2504,22 @@
         <v>291</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
-      </c>
-      <c r="G30" t="s">
-        <v>291</v>
+        <v>203</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s">
-        <v>295</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2487,45 +2527,45 @@
         <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" t="s">
         <v>200</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>201</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C32" t="s">
-        <v>291</v>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>298</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>295</v>
-      </c>
-      <c r="G32" t="s">
-        <v>252</v>
+        <v>133</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2533,45 +2573,45 @@
         <v>182</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="H33" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C34" t="s">
-        <v>252</v>
+      <c r="C34" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2579,22 +2619,22 @@
         <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="D35" t="s">
-        <v>249</v>
+        <v>298</v>
       </c>
       <c r="E35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" t="s">
+        <v>252</v>
+      </c>
+      <c r="H35" t="s">
+        <v>253</v>
+      </c>
+      <c r="I35" t="s">
         <v>132</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" t="s">
-        <v>85</v>
-      </c>
-      <c r="I35" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2602,42 +2642,42 @@
         <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="E36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>72</v>
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>41</v>
+      <c r="C37" t="s">
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H37" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="I37" t="s">
         <v>202</v>
@@ -2647,23 +2687,23 @@
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>72</v>
+      <c r="C38" t="s">
+        <v>248</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" t="s">
-        <v>279</v>
+        <v>132</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2671,45 +2711,45 @@
         <v>192</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
         <v>202</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>279</v>
       </c>
-      <c r="C40" t="s">
-        <v>279</v>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="E40" t="s">
-        <v>299</v>
+        <v>134</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2717,22 +2757,22 @@
         <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>194</v>
+        <v>133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>279</v>
       </c>
       <c r="H41" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="I41" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2740,45 +2780,45 @@
         <v>173</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="H42" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="I42" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>45</v>
+      <c r="C43" t="s">
+        <v>279</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2786,22 +2826,22 @@
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D44" t="s">
+      <c r="H44" t="s">
         <v>221</v>
       </c>
-      <c r="E44" t="s">
+      <c r="I44" t="s">
         <v>131</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" t="s">
-        <v>90</v>
-      </c>
-      <c r="I44" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2809,22 +2849,22 @@
         <v>194</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
         <v>89</v>
       </c>
-      <c r="E45" t="s">
+      <c r="I45" t="s">
         <v>202</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2832,22 +2872,22 @@
         <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D46" t="s">
+      <c r="H46" t="s">
         <v>263</v>
       </c>
-      <c r="E46" t="s">
+      <c r="I46" t="s">
         <v>266</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H46" t="s">
-        <v>238</v>
-      </c>
-      <c r="I46" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2855,22 +2895,22 @@
         <v>262</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H47" t="s">
         <v>90</v>
       </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>135</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H47" t="s">
-        <v>231</v>
-      </c>
-      <c r="I47" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2878,22 +2918,22 @@
         <v>64</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
-      </c>
-      <c r="G48" t="s">
-        <v>278</v>
+        <v>202</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2901,22 +2941,22 @@
         <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
-      </c>
-      <c r="G49" t="s">
-        <v>277</v>
+        <v>266</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="I49" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2924,19 +2964,19 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="H50" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="I50" t="s">
         <v>138</v>
@@ -2947,68 +2987,68 @@
         <v>237</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>34</v>
+        <v>136</v>
+      </c>
+      <c r="G51" t="s">
+        <v>278</v>
       </c>
       <c r="H51" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="I51" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C52" t="s">
-        <v>278</v>
+      <c r="C52" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="E52" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" t="s">
+        <v>277</v>
+      </c>
+      <c r="H52" t="s">
+        <v>287</v>
+      </c>
+      <c r="I52" t="s">
         <v>299</v>
-      </c>
-      <c r="G52" t="s">
-        <v>258</v>
-      </c>
-      <c r="H52" t="s">
-        <v>259</v>
-      </c>
-      <c r="I52" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>278</v>
       </c>
-      <c r="C53" t="s">
-        <v>277</v>
+      <c r="C53" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="E53" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I53" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3016,45 +3056,45 @@
         <v>277</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="E54" t="s">
         <v>138</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>34</v>
+      <c r="C55" t="s">
+        <v>278</v>
       </c>
       <c r="D55" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>55</v>
+        <v>299</v>
+      </c>
+      <c r="G55" t="s">
+        <v>258</v>
       </c>
       <c r="H55" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="I55" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3062,22 +3102,22 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I56" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3085,22 +3125,22 @@
         <v>34</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" t="s">
-        <v>274</v>
+        <v>138</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H57" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3108,45 +3148,45 @@
         <v>258</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" t="s">
         <v>138</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H58" t="s">
-        <v>209</v>
-      </c>
-      <c r="I58" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>55</v>
+      <c r="C59" t="s">
+        <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="E59" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59" t="s">
         <v>138</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3154,45 +3194,45 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
+      </c>
+      <c r="G60" t="s">
+        <v>274</v>
       </c>
       <c r="H60" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="I60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C61" t="s">
-        <v>274</v>
+      <c r="C61" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="H61" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="I61" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3200,22 +3240,22 @@
         <v>68</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
-      </c>
-      <c r="G62" t="s">
-        <v>272</v>
+        <v>138</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>282</v>
+        <v>99</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3223,114 +3263,114 @@
         <v>274</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" t="s">
-        <v>255</v>
+        <v>138</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="H63" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="I63" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>153</v>
+      <c r="C64" t="s">
+        <v>274</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>27</v>
+      <c r="C65" t="s">
+        <v>315</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="E65" t="s">
-        <v>139</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>22</v>
+        <v>136</v>
+      </c>
+      <c r="G65" t="s">
+        <v>272</v>
       </c>
       <c r="H65" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="I65" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
+      <c r="C66" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D66" t="s">
-        <v>282</v>
+        <v>209</v>
       </c>
       <c r="E66" t="s">
-        <v>132</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>50</v>
+        <v>203</v>
+      </c>
+      <c r="G66" t="s">
+        <v>255</v>
       </c>
       <c r="H66" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="I66" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C67" t="s">
-        <v>255</v>
+      <c r="C67" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="H67" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="I67" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3338,22 +3378,22 @@
         <v>154</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D68" t="s">
+      <c r="H68" t="s">
         <v>101</v>
       </c>
-      <c r="E68" t="s">
+      <c r="I68" t="s">
         <v>137</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H68" t="s">
-        <v>224</v>
-      </c>
-      <c r="I68" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3361,42 +3401,42 @@
         <v>272</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D69" t="s">
+      <c r="H69" t="s">
         <v>101</v>
       </c>
-      <c r="E69" t="s">
+      <c r="I69" t="s">
         <v>137</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H69" t="s">
-        <v>205</v>
-      </c>
-      <c r="I69" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" t="s">
+        <v>282</v>
+      </c>
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D70" t="s">
+      <c r="H70" t="s">
         <v>102</v>
-      </c>
-      <c r="E70" t="s">
-        <v>137</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H70" t="s">
-        <v>103</v>
       </c>
       <c r="I70" t="s">
         <v>137</v>
@@ -3407,45 +3447,45 @@
         <v>31</v>
       </c>
       <c r="C71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D71" t="s">
+        <v>257</v>
+      </c>
+      <c r="E71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" t="s">
         <v>244</v>
       </c>
-      <c r="D71" t="s">
+      <c r="H71" t="s">
         <v>245</v>
       </c>
-      <c r="E71" t="s">
+      <c r="I71" t="s">
         <v>203</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" t="s">
-        <v>104</v>
-      </c>
-      <c r="I71" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>196</v>
+      <c r="C72" t="s">
+        <v>316</v>
       </c>
       <c r="D72" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="E72" t="s">
         <v>138</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="I72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3453,45 +3493,45 @@
         <v>50</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D73" t="s">
+      <c r="H73" t="s">
         <v>205</v>
       </c>
-      <c r="E73" t="s">
+      <c r="I73" t="s">
         <v>201</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H73" t="s">
-        <v>226</v>
-      </c>
-      <c r="I73" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C74" t="s">
-        <v>275</v>
+      <c r="C74" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D74" t="s">
-        <v>285</v>
+        <v>101</v>
       </c>
       <c r="E74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H74" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I74" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3499,45 +3539,45 @@
         <v>196</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E75" t="s">
         <v>137</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="I75" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>18</v>
+      <c r="C76" t="s">
+        <v>244</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="E76" t="s">
+        <v>203</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" t="s">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
         <v>137</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H76" t="s">
-        <v>225</v>
-      </c>
-      <c r="I76" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3545,19 +3585,19 @@
         <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="I77" t="s">
         <v>138</v>
@@ -3568,45 +3608,45 @@
         <v>17</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I78" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>275</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>43</v>
+      <c r="C79" t="s">
+        <v>275</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>285</v>
       </c>
       <c r="E79" t="s">
-        <v>140</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
+      </c>
+      <c r="G79" t="s">
+        <v>310</v>
       </c>
       <c r="H79" t="s">
-        <v>109</v>
+        <v>312</v>
       </c>
       <c r="I79" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3614,22 +3654,22 @@
         <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D80" t="s">
+      <c r="H80" t="s">
         <v>220</v>
       </c>
-      <c r="E80" t="s">
+      <c r="I80" t="s">
         <v>141</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H80" t="s">
-        <v>110</v>
-      </c>
-      <c r="I80" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3637,22 +3677,22 @@
         <v>18</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D81" t="s">
+      <c r="H81" t="s">
         <v>225</v>
       </c>
-      <c r="E81" t="s">
+      <c r="I81" t="s">
         <v>138</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H81" t="s">
-        <v>169</v>
-      </c>
-      <c r="I81" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3660,22 +3700,22 @@
         <v>57</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
         <v>107</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>138</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" t="s">
-        <v>111</v>
-      </c>
-      <c r="I82" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3683,22 +3723,22 @@
         <v>198</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D83" t="s">
+      <c r="H83" t="s">
         <v>108</v>
       </c>
-      <c r="E83" t="s">
+      <c r="I83" t="s">
         <v>128</v>
-      </c>
-      <c r="G83" t="s">
-        <v>271</v>
-      </c>
-      <c r="H83" t="s">
-        <v>142</v>
-      </c>
-      <c r="I83" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3706,45 +3746,45 @@
         <v>43</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" t="s">
+        <v>140</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D84" t="s">
+      <c r="H84" t="s">
         <v>109</v>
       </c>
-      <c r="E84" t="s">
+      <c r="I84" t="s">
         <v>126</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H84" t="s">
-        <v>112</v>
-      </c>
-      <c r="I84" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" t="s">
+        <v>312</v>
+      </c>
+      <c r="E85" t="s">
+        <v>132</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D85" t="s">
+      <c r="H85" t="s">
         <v>110</v>
       </c>
-      <c r="E85" t="s">
+      <c r="I85" t="s">
         <v>126</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H85" t="s">
-        <v>113</v>
-      </c>
-      <c r="I85" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3752,22 +3792,22 @@
         <v>197</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" t="s">
+        <v>220</v>
+      </c>
+      <c r="E86" t="s">
+        <v>141</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D86" t="s">
+      <c r="H86" t="s">
         <v>169</v>
       </c>
-      <c r="E86" t="s">
+      <c r="I86" t="s">
         <v>128</v>
-      </c>
-      <c r="G86" t="s">
-        <v>234</v>
-      </c>
-      <c r="H86" t="s">
-        <v>235</v>
-      </c>
-      <c r="I86" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3775,45 +3815,45 @@
         <v>13</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E87" t="s">
+        <v>138</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D87" t="s">
+      <c r="H87" t="s">
         <v>111</v>
       </c>
-      <c r="E87" t="s">
+      <c r="I87" t="s">
         <v>132</v>
-      </c>
-      <c r="G87" t="s">
-        <v>270</v>
-      </c>
-      <c r="H87" t="s">
-        <v>281</v>
-      </c>
-      <c r="I87" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88" t="s">
         <v>271</v>
       </c>
-      <c r="D88" t="s">
+      <c r="H88" t="s">
         <v>142</v>
       </c>
-      <c r="E88" t="s">
+      <c r="I88" t="s">
         <v>142</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H88" t="s">
-        <v>114</v>
-      </c>
-      <c r="I88" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3821,22 +3861,22 @@
         <v>66</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D89" t="s">
+      <c r="H89" t="s">
         <v>112</v>
       </c>
-      <c r="E89" t="s">
+      <c r="I89" t="s">
         <v>141</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H89" t="s">
-        <v>210</v>
-      </c>
-      <c r="I89" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3844,68 +3884,68 @@
         <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" t="s">
+        <v>126</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D90" t="s">
+      <c r="H90" t="s">
         <v>113</v>
       </c>
-      <c r="E90" t="s">
+      <c r="I90" t="s">
         <v>137</v>
-      </c>
-      <c r="G90" t="s">
-        <v>269</v>
-      </c>
-      <c r="H90" t="s">
-        <v>280</v>
-      </c>
-      <c r="I90" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C91" t="s">
-        <v>234</v>
+      <c r="C91" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>235</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>236</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>23</v>
+        <v>126</v>
+      </c>
+      <c r="G91" t="s">
+        <v>302</v>
       </c>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="I91" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C92" t="s">
-        <v>270</v>
+      <c r="C92" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>127</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
+      </c>
+      <c r="G92" t="s">
+        <v>234</v>
       </c>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="I92" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3913,68 +3953,68 @@
         <v>30</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E93" t="s">
-        <v>126</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
+      </c>
+      <c r="G93" t="s">
+        <v>270</v>
       </c>
       <c r="H93" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="I93" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>184</v>
+      <c r="C94" t="s">
+        <v>271</v>
       </c>
       <c r="D94" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>203</v>
-      </c>
-      <c r="G94" t="s">
-        <v>240</v>
+        <v>142</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H94" t="s">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="I94" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C95" t="s">
-        <v>269</v>
+      <c r="C95" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
-      </c>
-      <c r="G95" t="s">
-        <v>261</v>
+        <v>141</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="H95" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="I95" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3982,68 +4022,68 @@
         <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E96" t="s">
         <v>137</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>65</v>
+      <c r="G96" t="s">
+        <v>269</v>
       </c>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="I96" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>271</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>40</v>
+      <c r="C97" t="s">
+        <v>302</v>
       </c>
       <c r="D97" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>14</v>
+        <v>201</v>
+      </c>
+      <c r="G97" t="s">
+        <v>314</v>
       </c>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="I97" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>179</v>
+      <c r="C98" t="s">
+        <v>234</v>
       </c>
       <c r="D98" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="E98" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I98" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4051,45 +4091,45 @@
         <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="E99" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="H99" t="s">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="I99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C100" t="s">
-        <v>261</v>
+      <c r="C100" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="H100" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="I100" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4097,68 +4137,68 @@
         <v>270</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>65</v>
+        <v>184</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="E101" t="s">
+        <v>203</v>
+      </c>
+      <c r="G101" t="s">
+        <v>240</v>
+      </c>
+      <c r="H101" t="s">
+        <v>241</v>
+      </c>
+      <c r="I101" t="s">
         <v>135</v>
-      </c>
-      <c r="G101" t="s">
-        <v>292</v>
-      </c>
-      <c r="H101" t="s">
-        <v>296</v>
-      </c>
-      <c r="I101" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>14</v>
+      <c r="C102" t="s">
+        <v>269</v>
       </c>
       <c r="D102" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G102" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="H102" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="I102" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>48</v>
+      <c r="C103" t="s">
+        <v>314</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="E103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="H103" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="I103" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4166,22 +4206,22 @@
         <v>184</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" t="s">
-        <v>246</v>
+        <v>137</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c r="I104" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4189,45 +4229,45 @@
         <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E105" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I105" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>269</v>
       </c>
-      <c r="C106" t="s">
-        <v>292</v>
+      <c r="C106" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="E106" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="H106" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="I106" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4235,68 +4275,68 @@
         <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="D107" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="H107" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="I107" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>157</v>
+      <c r="C108" t="s">
+        <v>261</v>
       </c>
       <c r="D108" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="E108" t="s">
-        <v>162</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
+      </c>
+      <c r="G108" t="s">
+        <v>292</v>
       </c>
       <c r="H108" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="I108" t="s">
-        <v>133</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C109" t="s">
-        <v>246</v>
+      <c r="C109" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>202</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>26</v>
+        <v>135</v>
+      </c>
+      <c r="G109" t="s">
+        <v>276</v>
       </c>
       <c r="H109" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="I109" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4304,22 +4344,22 @@
         <v>179</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E110" t="s">
-        <v>142</v>
-      </c>
-      <c r="G110" t="s">
-        <v>250</v>
+        <v>131</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="H110" t="s">
-        <v>251</v>
+        <v>161</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4327,22 +4367,22 @@
         <v>240</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D111" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E111" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H111" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="I111" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4350,22 +4390,22 @@
         <v>261</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D112" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="E112" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H112" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I112" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4373,45 +4413,45 @@
         <v>65</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>186</v>
+        <v>61</v>
       </c>
       <c r="H113" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="I113" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>26</v>
+      <c r="C114" t="s">
+        <v>292</v>
       </c>
       <c r="D114" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="E114" t="s">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="H114" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="I114" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4419,68 +4459,68 @@
         <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="D115" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="E115" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="H115" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="I115" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C116" t="s">
-        <v>264</v>
+      <c r="C116" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D116" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="E116" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="H116" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="I116" t="s">
-        <v>223</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>49</v>
+      <c r="C117" t="s">
+        <v>246</v>
       </c>
       <c r="D117" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="E117" t="s">
-        <v>137</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>52</v>
+        <v>202</v>
+      </c>
+      <c r="G117" t="s">
+        <v>250</v>
       </c>
       <c r="H117" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="I117" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4488,19 +4528,19 @@
         <v>292</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>133</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>180</v>
+        <v>142</v>
+      </c>
+      <c r="G118" t="s">
+        <v>304</v>
       </c>
       <c r="H118" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="I118" t="s">
         <v>201</v>
@@ -4511,22 +4551,22 @@
         <v>276</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D119" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>128</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>199</v>
+        <v>143</v>
+      </c>
+      <c r="G119" t="s">
+        <v>264</v>
       </c>
       <c r="H119" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4534,22 +4574,22 @@
         <v>157</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="E120" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c r="H120" t="s">
-        <v>208</v>
+        <v>122</v>
       </c>
       <c r="I120" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4557,22 +4597,22 @@
         <v>32</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="D121" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H121" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I121" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4580,91 +4620,91 @@
         <v>246</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D122" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>126</v>
-      </c>
-      <c r="G122" t="s">
-        <v>300</v>
+        <v>128</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="H122" t="s">
-        <v>301</v>
+        <v>123</v>
       </c>
       <c r="I122" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>180</v>
+      <c r="C123" t="s">
+        <v>250</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
-      </c>
-      <c r="G123" t="s">
-        <v>302</v>
+        <v>138</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>303</v>
+        <v>124</v>
       </c>
       <c r="I123" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>199</v>
+      <c r="C124" t="s">
+        <v>304</v>
       </c>
       <c r="D124" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="E124" t="s">
-        <v>138</v>
-      </c>
-      <c r="G124" t="s">
-        <v>304</v>
+        <v>201</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="H124" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
       <c r="I124" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>181</v>
+      <c r="C125" t="s">
+        <v>264</v>
       </c>
       <c r="D125" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="E125" t="s">
         <v>201</v>
       </c>
-      <c r="G125" t="s">
-        <v>309</v>
+      <c r="G125" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H125" t="s">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4672,223 +4712,339 @@
         <v>51</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="D126" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
-        <v>217</v>
-      </c>
-      <c r="G126" t="s">
-        <v>310</v>
+        <v>137</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="H126" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="I126" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C127" t="s">
-        <v>300</v>
+      <c r="C127" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D127" t="s">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="E127" t="s">
-        <v>132</v>
-      </c>
-      <c r="G127" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H127" t="s">
+        <v>227</v>
+      </c>
+      <c r="I127" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C128" t="s">
-        <v>302</v>
+      <c r="C128" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>303</v>
+        <v>123</v>
       </c>
       <c r="E128" t="s">
+        <v>128</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H128" t="s">
+        <v>208</v>
+      </c>
+      <c r="I128" t="s">
         <v>201</v>
       </c>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7">
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C129" t="s">
-        <v>304</v>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>305</v>
+        <v>124</v>
       </c>
       <c r="E129" t="s">
-        <v>201</v>
-      </c>
-      <c r="G129" s="1"/>
-    </row>
-    <row r="130" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H129" t="s">
+        <v>216</v>
+      </c>
+      <c r="I129" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C130" t="s">
-        <v>309</v>
+      <c r="C130" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D130" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="E130" t="s">
-        <v>313</v>
-      </c>
-      <c r="G130" s="1"/>
-    </row>
-    <row r="131" spans="1:7">
+        <v>223</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H130" t="s">
+        <v>325</v>
+      </c>
+      <c r="I130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>264</v>
       </c>
-      <c r="C131" t="s">
-        <v>310</v>
+      <c r="C131" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D131" t="s">
-        <v>312</v>
+        <v>125</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
-      </c>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7">
+        <v>126</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H131" t="s">
+        <v>326</v>
+      </c>
+      <c r="I131" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C132" t="s">
-        <v>314</v>
+      <c r="C132" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D132" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="E132" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="C133" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D133" t="s">
+        <v>227</v>
+      </c>
+      <c r="E133" t="s">
+        <v>138</v>
+      </c>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
+      <c r="C134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D134" t="s">
+        <v>208</v>
+      </c>
+      <c r="E134" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="C135" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D135" t="s">
+        <v>216</v>
+      </c>
+      <c r="E135" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="C136" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D136" t="s">
+        <v>325</v>
+      </c>
+      <c r="E136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="138" spans="1:7">
+      <c r="C137" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" t="s">
+        <v>326</v>
+      </c>
+      <c r="E137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>314</v>
       </c>
     </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" s="21"/>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="G9:I127">
-    <sortCondition ref="G9"/>
+  <sortState ref="G10:I129">
+    <sortCondition ref="G129"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4902,10 +5058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M126"/>
+  <dimension ref="B4:M131"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5167,7 +5323,7 @@
         <v>138</v>
       </c>
       <c r="J17" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="11"/>
@@ -5314,14 +5470,14 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="1" t="s">
-        <v>41</v>
+      <c r="B25" t="s">
+        <v>302</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>203</v>
@@ -5335,19 +5491,19 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="C26" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>202</v>
       </c>
       <c r="J26" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="11"/>
@@ -5355,13 +5511,13 @@
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>142</v>
@@ -5374,14 +5530,14 @@
       <c r="M27" s="13"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="1" t="s">
-        <v>42</v>
+      <c r="B28" t="s">
+        <v>261</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>260</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>141</v>
@@ -5394,14 +5550,14 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" t="s">
-        <v>275</v>
+      <c r="B29" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>236</v>
@@ -5415,13 +5571,13 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="1" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>126</v>
@@ -5434,14 +5590,14 @@
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="1" t="s">
-        <v>230</v>
+      <c r="B31" t="s">
+        <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>139</v>
@@ -5455,13 +5611,13 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>131</v>
@@ -5475,10 +5631,10 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c r="D33" t="s">
         <v>138</v>
@@ -5495,10 +5651,10 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
         <v>138</v>
@@ -5515,10 +5671,10 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
@@ -5527,7 +5683,7 @@
         <v>137</v>
       </c>
       <c r="J35" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="11"/>
@@ -5535,10 +5691,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="1" t="s">
-        <v>196</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
         <v>138</v>
@@ -5555,10 +5711,10 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="1" t="s">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
       <c r="D37" t="s">
         <v>138</v>
@@ -5575,10 +5731,10 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D38" t="s">
         <v>138</v>
@@ -5587,7 +5743,7 @@
         <v>228</v>
       </c>
       <c r="J38" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="11"/>
@@ -5595,10 +5751,10 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="1" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
         <v>138</v>
@@ -5610,11 +5766,11 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" t="s">
-        <v>269</v>
+      <c r="B40" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="D40" t="s">
         <v>138</v>
@@ -5624,170 +5780,170 @@
       </c>
       <c r="J40" s="8">
         <f>SUM(J8:J39)</f>
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K40" s="15"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" t="s">
-        <v>250</v>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="1" t="s">
-        <v>199</v>
+      <c r="B42" t="s">
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="1" t="s">
-        <v>157</v>
+      <c r="B43" t="s">
+        <v>250</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C50" t="s">
         <v>263</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D50" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="1" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C51" t="s">
         <v>238</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D51" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
         <v>279</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>289</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D52" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
-      <c r="B50" t="s">
+    <row r="53" spans="2:4">
+      <c r="B53" t="s">
         <v>278</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C53" t="s">
         <v>288</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D53" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
         <v>277</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>287</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
         <v>133</v>
@@ -5795,10 +5951,10 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
         <v>133</v>
@@ -5806,10 +5962,10 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
         <v>133</v>
@@ -5817,10 +5973,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
         <v>133</v>
@@ -5828,10 +5984,10 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
         <v>133</v>
@@ -5839,98 +5995,98 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="D61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" t="s">
-        <v>244</v>
-      </c>
-      <c r="C62" t="s">
-        <v>245</v>
-      </c>
-      <c r="D62" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" t="s">
-        <v>267</v>
-      </c>
-      <c r="C64" t="s">
-        <v>268</v>
-      </c>
-      <c r="D64" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="1" t="s">
-        <v>70</v>
+      <c r="B66" t="s">
+        <v>244</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="1" t="s">
-        <v>192</v>
+      <c r="B68" t="s">
+        <v>267</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="D68" t="s">
         <v>202</v>
@@ -5938,21 +6094,21 @@
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="1" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" t="s">
-        <v>246</v>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
         <v>202</v>
@@ -5960,153 +6116,153 @@
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" t="s">
-        <v>271</v>
+      <c r="B72" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="1" t="s">
-        <v>173</v>
+      <c r="B74" t="s">
+        <v>246</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="1" t="s">
-        <v>193</v>
+      <c r="B75" t="s">
+        <v>320</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="D75" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="1" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="D76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="D77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" t="s">
-        <v>234</v>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="1" t="s">
-        <v>4</v>
+      <c r="B82" t="s">
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="1" t="s">
-        <v>74</v>
+      <c r="B83" t="s">
+        <v>234</v>
       </c>
       <c r="C83" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D84" t="s">
         <v>126</v>
@@ -6114,10 +6270,10 @@
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
         <v>126</v>
@@ -6125,10 +6281,10 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
         <v>126</v>
@@ -6136,188 +6292,188 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="1" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="1" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C93" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D93" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="1" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="D94" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" t="s">
-        <v>290</v>
+      <c r="B95" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C95" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="D95" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" t="s">
-        <v>291</v>
+      <c r="B96" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" t="s">
-        <v>292</v>
+      <c r="B97" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="1" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="C99" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="D99" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="1" t="s">
-        <v>31</v>
+      <c r="B100" t="s">
+        <v>290</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>294</v>
       </c>
       <c r="D100" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="1" t="s">
-        <v>22</v>
+      <c r="B101" t="s">
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>298</v>
       </c>
       <c r="D101" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="1" t="s">
-        <v>50</v>
+      <c r="B102" t="s">
+        <v>292</v>
       </c>
       <c r="C102" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D103" t="s">
         <v>137</v>
@@ -6325,10 +6481,10 @@
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C104" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D104" t="s">
         <v>137</v>
@@ -6336,10 +6492,10 @@
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D105" t="s">
         <v>137</v>
@@ -6347,10 +6503,10 @@
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D106" t="s">
         <v>137</v>
@@ -6358,10 +6514,10 @@
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="1" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C107" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D107" t="s">
         <v>137</v>
@@ -6369,10 +6525,10 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
         <v>137</v>
@@ -6380,142 +6536,142 @@
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C110" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D110" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C111" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="D112" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" t="s">
+        <v>122</v>
+      </c>
+      <c r="D113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" t="s">
+        <v>146</v>
+      </c>
+      <c r="D114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" t="s">
+        <v>79</v>
+      </c>
+      <c r="D115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4">
+      <c r="B116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4">
+      <c r="B118" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C118" t="s">
         <v>213</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D118" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="B114" t="s">
-        <v>273</v>
-      </c>
-      <c r="C114" t="s">
-        <v>283</v>
-      </c>
-      <c r="D114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" t="s">
-        <v>252</v>
-      </c>
-      <c r="C115" t="s">
-        <v>253</v>
-      </c>
-      <c r="D115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4">
-      <c r="B116" t="s">
-        <v>248</v>
-      </c>
-      <c r="C116" t="s">
-        <v>249</v>
-      </c>
-      <c r="D116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4">
-      <c r="B117" t="s">
-        <v>258</v>
-      </c>
-      <c r="C117" t="s">
-        <v>259</v>
-      </c>
-      <c r="D117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4">
-      <c r="B118" t="s">
-        <v>274</v>
-      </c>
-      <c r="C118" t="s">
-        <v>284</v>
-      </c>
-      <c r="D118" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D119" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" s="1" t="s">
-        <v>16</v>
+      <c r="B120" t="s">
+        <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>253</v>
       </c>
       <c r="D120" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="1" t="s">
-        <v>229</v>
+      <c r="B121" t="s">
+        <v>248</v>
       </c>
       <c r="C121" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="D121" t="s">
         <v>132</v>
@@ -6523,10 +6679,10 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="D122" t="s">
         <v>132</v>
@@ -6534,51 +6690,106 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C123" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D123" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="D124" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" t="s">
-        <v>309</v>
+      <c r="B125" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="D125" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="2:4">
-      <c r="B126" t="s">
-        <v>310</v>
+      <c r="B126" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="D126" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="127" spans="2:4">
+      <c r="B127" t="s">
+        <v>300</v>
+      </c>
+      <c r="C127" t="s">
+        <v>301</v>
+      </c>
+      <c r="D127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4">
+      <c r="B128" t="s">
+        <v>310</v>
+      </c>
+      <c r="C128" t="s">
+        <v>312</v>
+      </c>
+      <c r="D128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" t="s">
+        <v>319</v>
+      </c>
+      <c r="D129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C130" t="s">
+        <v>325</v>
+      </c>
+      <c r="D130" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C131" t="s">
+        <v>326</v>
+      </c>
+      <c r="D131" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B4:D122">
-    <sortCondition ref="D4"/>
+  <sortState ref="B4:D129">
+    <sortCondition ref="D4:D129"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="360" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="360" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="327">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -1896,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K159"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5040,6 +5040,16 @@
     <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="334">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -1001,19 +1001,39 @@
   </si>
   <si>
     <t>Johan Winnubst</t>
+  </si>
+  <si>
+    <t>collinsa</t>
+  </si>
+  <si>
+    <t>frechters</t>
+  </si>
+  <si>
+    <t>Shahar Frechter</t>
+  </si>
+  <si>
+    <t>Amanda Collins</t>
+  </si>
+  <si>
+    <t>goinac</t>
+  </si>
+  <si>
+    <t>ohashi</t>
+  </si>
+  <si>
+    <t>Takako Ohashi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1043,6 +1063,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1108,7 +1135,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="212">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1321,8 +1348,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1354,8 +1384,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="212">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1471,6 +1505,9 @@
     <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1896,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1918,7 +1955,7 @@
         <v>152</v>
       </c>
       <c r="B1" s="4">
-        <v>40765</v>
+        <v>40806</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
@@ -4858,7 +4895,15 @@
       <c r="E132" t="s">
         <v>201</v>
       </c>
-      <c r="G132" s="1"/>
+      <c r="G132" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H132" t="s">
+        <v>330</v>
+      </c>
+      <c r="I132" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1" t="s">
@@ -4873,7 +4918,15 @@
       <c r="E133" t="s">
         <v>138</v>
       </c>
-      <c r="G133" s="1"/>
+      <c r="G133" t="s">
+        <v>328</v>
+      </c>
+      <c r="H133" t="s">
+        <v>329</v>
+      </c>
+      <c r="I133" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1" t="s">
@@ -4888,6 +4941,15 @@
       <c r="E134" t="s">
         <v>201</v>
       </c>
+      <c r="G134" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H134" t="s">
+        <v>333</v>
+      </c>
+      <c r="I134" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
@@ -4935,16 +4997,43 @@
       <c r="A138" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C138" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D138" t="s">
+        <v>330</v>
+      </c>
+      <c r="E138" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="C139" t="s">
+        <v>328</v>
+      </c>
+      <c r="D139" t="s">
+        <v>329</v>
+      </c>
+      <c r="E139" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C140" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D140" t="s">
+        <v>333</v>
+      </c>
+      <c r="E140" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
@@ -5050,6 +5139,26 @@
     <row r="161" spans="1:1">
       <c r="A161" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5068,11 +5177,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M131"/>
+  <dimension ref="B4:M132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5513,7 +5620,7 @@
         <v>202</v>
       </c>
       <c r="J26" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="11"/>
@@ -5790,7 +5897,7 @@
       </c>
       <c r="J40" s="8">
         <f>SUM(J8:J39)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K40" s="15"/>
     </row>
@@ -6180,33 +6287,33 @@
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>243</v>
-      </c>
-      <c r="D76" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" t="s">
-        <v>271</v>
-      </c>
-      <c r="C77" t="s">
-        <v>142</v>
       </c>
       <c r="D77" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="1" t="s">
-        <v>19</v>
+      <c r="B78" t="s">
+        <v>271</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D78" t="s">
         <v>142</v>
@@ -6214,21 +6321,21 @@
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="1" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
         <v>141</v>
@@ -6236,21 +6343,21 @@
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="1" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="D81" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" t="s">
-        <v>276</v>
+      <c r="B82" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
         <v>141</v>
@@ -6258,32 +6365,32 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
         <v>234</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>235</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>145</v>
-      </c>
-      <c r="D84" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="1" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="D85" t="s">
         <v>126</v>
@@ -6291,10 +6398,10 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
         <v>126</v>
@@ -6302,10 +6409,10 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D87" t="s">
         <v>126</v>
@@ -6314,10 +6421,10 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
         <v>126</v>
@@ -6326,10 +6433,10 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
         <v>126</v>
@@ -6337,10 +6444,10 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
         <v>126</v>
@@ -6348,10 +6455,10 @@
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D91" t="s">
         <v>126</v>
@@ -6359,32 +6466,32 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="1" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="D94" t="s">
         <v>131</v>
@@ -6392,10 +6499,10 @@
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="D95" t="s">
         <v>131</v>
@@ -6403,10 +6510,10 @@
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="1" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D96" t="s">
         <v>131</v>
@@ -6414,7 +6521,7 @@
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
         <v>118</v>
@@ -6425,43 +6532,43 @@
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="1" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" t="s">
-        <v>290</v>
+      <c r="B100" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C100" t="s">
-        <v>294</v>
+        <v>159</v>
       </c>
       <c r="D100" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C101" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D101" t="s">
         <v>295</v>
@@ -6469,32 +6576,32 @@
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C102" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D102" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="1" t="s">
-        <v>58</v>
+      <c r="B103" t="s">
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="D104" t="s">
         <v>137</v>
@@ -6502,10 +6609,10 @@
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D105" t="s">
         <v>137</v>
@@ -6513,7 +6620,7 @@
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>101</v>
@@ -6524,10 +6631,10 @@
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
         <v>137</v>
@@ -6535,10 +6642,10 @@
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D108" t="s">
         <v>137</v>
@@ -6546,10 +6653,10 @@
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
         <v>137</v>
@@ -6557,10 +6664,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D110" t="s">
         <v>137</v>
@@ -6568,10 +6675,10 @@
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D111" t="s">
         <v>137</v>
@@ -6579,10 +6686,10 @@
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D112" t="s">
         <v>137</v>
@@ -6590,10 +6697,10 @@
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D113" t="s">
         <v>137</v>
@@ -6601,32 +6708,32 @@
     </row>
     <row r="114" spans="2:4">
       <c r="B114" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C115" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C116" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D116" t="s">
         <v>130</v>
@@ -6634,10 +6741,10 @@
     </row>
     <row r="117" spans="2:4">
       <c r="B117" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C117" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D117" t="s">
         <v>130</v>
@@ -6645,32 +6752,32 @@
     </row>
     <row r="118" spans="2:4">
       <c r="B118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4">
+      <c r="B119" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C119" t="s">
         <v>213</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4">
-      <c r="B119" t="s">
-        <v>273</v>
-      </c>
-      <c r="C119" t="s">
-        <v>283</v>
-      </c>
-      <c r="D119" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="D120" t="s">
         <v>132</v>
@@ -6678,10 +6785,10 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D121" t="s">
         <v>132</v>
@@ -6689,10 +6796,10 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C122" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D122" t="s">
         <v>132</v>
@@ -6700,10 +6807,10 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="D123" t="s">
         <v>132</v>
@@ -6711,21 +6818,21 @@
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D124" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" s="1" t="s">
-        <v>16</v>
+      <c r="B125" t="s">
+        <v>272</v>
       </c>
       <c r="C125" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="D125" t="s">
         <v>132</v>
@@ -6733,21 +6840,21 @@
     </row>
     <row r="126" spans="2:4">
       <c r="B126" s="1" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="D126" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="127" spans="2:4">
-      <c r="B127" t="s">
-        <v>300</v>
+      <c r="B127" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C127" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="D127" t="s">
         <v>132</v>
@@ -6755,10 +6862,10 @@
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C128" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D128" t="s">
         <v>132</v>
@@ -6766,34 +6873,45 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C129" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D129" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" s="1" t="s">
-        <v>322</v>
+      <c r="B130" t="s">
+        <v>314</v>
       </c>
       <c r="C130" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D130" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="131" spans="2:4">
       <c r="B131" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" t="s">
+        <v>325</v>
+      </c>
+      <c r="D131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4">
+      <c r="B132" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>326</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>202</v>
       </c>
     </row>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="337">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -1022,6 +1022,15 @@
   </si>
   <si>
     <t>Takako Ohashi</t>
+  </si>
+  <si>
+    <t>fischerc</t>
+  </si>
+  <si>
+    <t>fisherc</t>
+  </si>
+  <si>
+    <t>Corey Fischer</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1144,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1341,6 +1350,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1389,7 +1400,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="217">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1508,6 +1519,8 @@
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1933,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4964,6 +4977,15 @@
       <c r="E135" t="s">
         <v>217</v>
       </c>
+      <c r="G135" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H135" t="s">
+        <v>336</v>
+      </c>
+      <c r="I135" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1" t="s">
@@ -5039,6 +5061,15 @@
       <c r="A141" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="C141" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D141" t="s">
+        <v>336</v>
+      </c>
+      <c r="E141" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
@@ -5159,6 +5190,11 @@
     <row r="165" spans="1:1">
       <c r="A165" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5177,9 +5213,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M132"/>
+  <dimension ref="B4:M133"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5280,7 +5318,7 @@
         <v>217</v>
       </c>
       <c r="J9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="11"/>
@@ -5897,7 +5935,7 @@
       </c>
       <c r="J40" s="8">
         <f>SUM(J8:J39)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K40" s="15"/>
     </row>
@@ -6913,6 +6951,17 @@
       </c>
       <c r="D132" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4">
+      <c r="B133" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="360" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="140" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="347">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -1031,6 +1031,36 @@
   </si>
   <si>
     <t>Corey Fischer</t>
+  </si>
+  <si>
+    <t>sheridana</t>
+  </si>
+  <si>
+    <t>Arlo Sheridan</t>
+  </si>
+  <si>
+    <t>laughreyl</t>
+  </si>
+  <si>
+    <t>Lori Laughrey</t>
+  </si>
+  <si>
+    <t>saalfelds</t>
+  </si>
+  <si>
+    <t>Stephan Saalfeld</t>
+  </si>
+  <si>
+    <t>Sallfeld</t>
+  </si>
+  <si>
+    <t>novaka</t>
+  </si>
+  <si>
+    <t>Alexandra Novak</t>
+  </si>
+  <si>
+    <t>Saalfeld</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1174,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="217">
+  <cellStyleXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1350,6 +1380,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1400,7 +1438,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="217">
+  <cellStyles count="225">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1521,6 +1559,14 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1946,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K166"/>
+  <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1968,7 +2014,7 @@
         <v>152</v>
       </c>
       <c r="B1" s="4">
-        <v>40806</v>
+        <v>40887</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="5" t="s">
@@ -2017,13 +2063,13 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
+      <c r="A6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
+      <c r="A7" t="s">
+        <v>306</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>165</v>
@@ -2034,7 +2080,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>149</v>
@@ -2056,8 +2102,8 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>267</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>273</v>
@@ -2079,8 +2125,8 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>254</v>
+      <c r="A10" t="s">
+        <v>320</v>
       </c>
       <c r="C10" t="s">
         <v>293</v>
@@ -2102,8 +2148,8 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
+      <c r="A11" t="s">
+        <v>323</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -2127,7 +2173,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
@@ -2150,8 +2196,8 @@
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
+      <c r="A13" t="s">
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>320</v>
@@ -2175,7 +2221,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>176</v>
@@ -2198,8 +2244,8 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
+      <c r="A15" t="s">
+        <v>309</v>
       </c>
       <c r="C15" t="s">
         <v>300</v>
@@ -2222,8 +2268,8 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
+      <c r="A16" t="s">
+        <v>267</v>
       </c>
       <c r="C16" t="s">
         <v>309</v>
@@ -2247,7 +2293,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="C17" t="s">
         <v>267</v>
@@ -2271,7 +2317,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>254</v>
@@ -2295,7 +2341,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -2319,7 +2365,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>290</v>
@@ -2342,8 +2388,8 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
+      <c r="A21" t="s">
+        <v>290</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -2367,7 +2413,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -2390,7 +2436,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>71</v>
@@ -2413,7 +2459,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>191</v>
@@ -2436,7 +2482,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>58</v>
@@ -2459,7 +2505,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>63</v>
@@ -2482,7 +2528,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>242</v>
@@ -2505,7 +2551,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>47</v>
@@ -2528,7 +2574,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>242</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>70</v>
@@ -2540,76 +2586,76 @@
         <v>202</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H29" t="s">
+        <v>330</v>
+      </c>
+      <c r="I29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>211</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>291</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>82</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="H31" t="s">
-        <v>200</v>
-      </c>
-      <c r="I31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="H32" t="s">
         <v>200</v>
@@ -2620,33 +2666,33 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" t="s">
         <v>200</v>
       </c>
-      <c r="E33" t="s">
+      <c r="I33" t="s">
         <v>201</v>
-      </c>
-      <c r="G33" t="s">
-        <v>291</v>
-      </c>
-      <c r="H33" t="s">
-        <v>298</v>
-      </c>
-      <c r="I33" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
         <v>200</v>
@@ -2654,57 +2700,57 @@
       <c r="E34" t="s">
         <v>201</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>73</v>
+      <c r="G34" t="s">
+        <v>291</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="I34" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" t="s">
-        <v>291</v>
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s">
-        <v>295</v>
-      </c>
-      <c r="G35" t="s">
-        <v>252</v>
+        <v>201</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>177</v>
+      </c>
+      <c r="C36" t="s">
+        <v>291</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H36" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="I36" t="s">
         <v>132</v>
@@ -2712,2207 +2758,2207 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" t="s">
+        <v>248</v>
+      </c>
+      <c r="H37" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" t="s">
         <v>252</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>253</v>
-      </c>
-      <c r="E37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H37" t="s">
-        <v>215</v>
-      </c>
-      <c r="I37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" t="s">
-        <v>249</v>
       </c>
       <c r="E38" t="s">
         <v>132</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>215</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>202</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>279</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="H40" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="I40" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D41" t="s">
+      <c r="H41" t="s">
         <v>86</v>
       </c>
-      <c r="E41" t="s">
+      <c r="I41" t="s">
         <v>133</v>
-      </c>
-      <c r="G41" t="s">
-        <v>279</v>
-      </c>
-      <c r="H41" t="s">
-        <v>289</v>
-      </c>
-      <c r="I41" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>192</v>
+        <v>335</v>
       </c>
       <c r="D42" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>173</v>
+        <v>217</v>
+      </c>
+      <c r="G42" t="s">
+        <v>328</v>
       </c>
       <c r="H42" t="s">
-        <v>174</v>
+        <v>329</v>
       </c>
       <c r="I42" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>279</v>
+        <v>188</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>289</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>328</v>
+      </c>
+      <c r="D44" t="s">
+        <v>329</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" t="s">
+        <v>279</v>
+      </c>
+      <c r="H44" t="s">
+        <v>289</v>
+      </c>
+      <c r="I44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>334</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D44" t="s">
+      <c r="H45" t="s">
         <v>174</v>
       </c>
-      <c r="E44" t="s">
+      <c r="I45" t="s">
         <v>141</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H44" t="s">
-        <v>221</v>
-      </c>
-      <c r="I44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" t="s">
-        <v>89</v>
-      </c>
-      <c r="I45" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>279</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>289</v>
       </c>
       <c r="E46" t="s">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D47" t="s">
+      <c r="H47" t="s">
         <v>221</v>
       </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" t="s">
-        <v>90</v>
-      </c>
-      <c r="I47" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="1" t="s">
-        <v>64</v>
+      <c r="A48" t="s">
+        <v>328</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D48" t="s">
+      <c r="H48" t="s">
         <v>89</v>
       </c>
-      <c r="E48" t="s">
+      <c r="I48" t="s">
         <v>202</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H48" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D49" t="s">
+      <c r="H49" t="s">
         <v>263</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
         <v>266</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H49" t="s">
-        <v>238</v>
-      </c>
-      <c r="I49" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>279</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H50" t="s">
-        <v>231</v>
-      </c>
-      <c r="I50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" t="s">
-        <v>278</v>
-      </c>
       <c r="H51" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" t="s">
-        <v>277</v>
-      </c>
-      <c r="H52" t="s">
-        <v>287</v>
-      </c>
-      <c r="I52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>278</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D53" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H53" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="I53" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>277</v>
+      <c r="A54" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>34</v>
+        <v>136</v>
+      </c>
+      <c r="G54" t="s">
+        <v>278</v>
       </c>
       <c r="H54" t="s">
-        <v>94</v>
+        <v>288</v>
       </c>
       <c r="I54" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" t="s">
-        <v>278</v>
+        <v>45</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" t="s">
+        <v>277</v>
+      </c>
+      <c r="H55" t="s">
+        <v>287</v>
+      </c>
+      <c r="I55" t="s">
         <v>299</v>
-      </c>
-      <c r="G55" t="s">
-        <v>258</v>
-      </c>
-      <c r="H55" t="s">
-        <v>259</v>
-      </c>
-      <c r="I55" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>277</v>
+        <v>194</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="H56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I56" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="E57" t="s">
         <v>138</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" t="s">
+        <v>288</v>
+      </c>
+      <c r="E58" t="s">
+        <v>299</v>
+      </c>
+      <c r="G58" t="s">
         <v>258</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H58" t="s">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="I58" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
-        <v>258</v>
-      </c>
-      <c r="D59" t="s">
-        <v>259</v>
-      </c>
-      <c r="E59" t="s">
-        <v>132</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H59" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I59" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-      <c r="G60" t="s">
-        <v>274</v>
-      </c>
       <c r="H60" t="s">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" t="s">
         <v>138</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H61" t="s">
-        <v>209</v>
-      </c>
-      <c r="I61" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="H62" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" t="s">
+        <v>274</v>
+      </c>
+      <c r="H63" t="s">
+        <v>284</v>
+      </c>
+      <c r="I63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D65" t="s">
         <v>97</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E65" t="s">
         <v>138</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H65" t="s">
         <v>99</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I65" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>274</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" t="s">
-        <v>138</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H63" t="s">
-        <v>158</v>
-      </c>
-      <c r="I63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C64" t="s">
-        <v>274</v>
-      </c>
-      <c r="D64" t="s">
-        <v>284</v>
-      </c>
-      <c r="E64" t="s">
-        <v>132</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" t="s">
-        <v>100</v>
-      </c>
-      <c r="I64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" t="s">
-        <v>315</v>
-      </c>
-      <c r="D65" t="s">
-        <v>318</v>
-      </c>
-      <c r="E65" t="s">
-        <v>136</v>
-      </c>
-      <c r="G65" t="s">
-        <v>272</v>
-      </c>
-      <c r="H65" t="s">
-        <v>282</v>
-      </c>
-      <c r="I65" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" t="s">
+        <v>138</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66" t="s">
-        <v>203</v>
-      </c>
-      <c r="G66" t="s">
-        <v>255</v>
-      </c>
       <c r="H66" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="I66" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" t="s">
+        <v>284</v>
+      </c>
+      <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" t="s">
-        <v>133</v>
-      </c>
-      <c r="G67" t="s">
-        <v>316</v>
-      </c>
       <c r="H67" t="s">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>315</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>31</v>
+        <v>136</v>
+      </c>
+      <c r="G68" t="s">
+        <v>272</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="I68" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>139</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>22</v>
+        <v>203</v>
+      </c>
+      <c r="G69" t="s">
+        <v>339</v>
       </c>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="I69" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" t="s">
         <v>255</v>
       </c>
-      <c r="C70" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" t="s">
-        <v>282</v>
-      </c>
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" t="s">
-        <v>255</v>
+        <v>59</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="G71" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="H71" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="I71" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" t="s">
-        <v>316</v>
+        <v>55</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="H72" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="I72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" t="s">
+        <v>282</v>
+      </c>
+      <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" t="s">
+        <v>339</v>
+      </c>
+      <c r="D74" t="s">
+        <v>340</v>
+      </c>
+      <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" t="s">
-        <v>101</v>
-      </c>
-      <c r="E73" t="s">
-        <v>137</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H73" t="s">
-        <v>205</v>
-      </c>
-      <c r="I73" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D74" t="s">
-        <v>101</v>
-      </c>
-      <c r="E74" t="s">
-        <v>137</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>50</v>
+      <c r="A75" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" t="s">
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>18</v>
+        <v>217</v>
+      </c>
+      <c r="G75" t="s">
+        <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="I75" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>57</v>
+        <v>196</v>
       </c>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="I76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H77" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="E78" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I78" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" t="s">
-        <v>275</v>
-      </c>
-      <c r="C79" t="s">
-        <v>275</v>
+      <c r="A79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D79" t="s">
-        <v>285</v>
+        <v>102</v>
       </c>
       <c r="E79" t="s">
-        <v>136</v>
-      </c>
-      <c r="G79" t="s">
-        <v>310</v>
+        <v>137</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="I79" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>56</v>
+        <v>154</v>
+      </c>
+      <c r="C80" t="s">
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="E80" t="s">
+        <v>203</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s">
         <v>137</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H80" t="s">
-        <v>220</v>
-      </c>
-      <c r="I80" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
-        <v>18</v>
+      <c r="A81" t="s">
+        <v>272</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>224</v>
       </c>
       <c r="E81" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I81" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
-        <v>57</v>
+      <c r="A82" t="s">
+        <v>339</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="E82" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>198</v>
+        <v>255</v>
+      </c>
+      <c r="C83" t="s">
+        <v>275</v>
       </c>
       <c r="D83" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
       <c r="E83" t="s">
-        <v>138</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>66</v>
+        <v>136</v>
+      </c>
+      <c r="G83" t="s">
+        <v>310</v>
       </c>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="I83" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
-        <v>43</v>
+      <c r="A84" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>4</v>
+        <v>322</v>
       </c>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="I84" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>137</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C85" t="s">
-        <v>310</v>
-      </c>
-      <c r="D85" t="s">
-        <v>312</v>
-      </c>
-      <c r="E85" t="s">
-        <v>132</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="I85" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" t="s">
+        <v>137</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" t="s">
-        <v>220</v>
-      </c>
-      <c r="E86" t="s">
-        <v>141</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="H86" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="I86" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E87" t="s">
         <v>138</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I87" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
-        <v>138</v>
-      </c>
-      <c r="G88" t="s">
-        <v>271</v>
+        <v>140</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="H88" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="I88" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>66</v>
+        <v>196</v>
+      </c>
+      <c r="C89" t="s">
+        <v>310</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="E89" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I89" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>4</v>
+        <v>322</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>325</v>
       </c>
       <c r="E90" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s">
+        <v>110</v>
+      </c>
+      <c r="I90" t="s">
         <v>126</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" t="s">
-        <v>113</v>
-      </c>
-      <c r="I90" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G91" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="H91" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="I91" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D92" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" t="s">
+        <v>138</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H92" t="s">
+        <v>333</v>
+      </c>
+      <c r="I92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" t="s">
+        <v>138</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D92" t="s">
+      <c r="H93" t="s">
         <v>169</v>
       </c>
-      <c r="E92" t="s">
+      <c r="I93" t="s">
         <v>128</v>
-      </c>
-      <c r="G92" t="s">
-        <v>234</v>
-      </c>
-      <c r="H92" t="s">
-        <v>235</v>
-      </c>
-      <c r="I92" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" t="s">
-        <v>132</v>
-      </c>
-      <c r="G93" t="s">
-        <v>270</v>
-      </c>
-      <c r="H93" t="s">
-        <v>281</v>
-      </c>
-      <c r="I93" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C94" t="s">
-        <v>271</v>
+        <v>56</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I94" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>184</v>
+        <v>126</v>
+      </c>
+      <c r="G95" t="s">
+        <v>271</v>
       </c>
       <c r="H95" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="I95" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" t="s">
+        <v>112</v>
+      </c>
+      <c r="I96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>344</v>
+      </c>
+      <c r="D97" t="s">
+        <v>345</v>
+      </c>
+      <c r="E97" t="s">
+        <v>138</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D96" t="s">
+      <c r="H97" t="s">
         <v>113</v>
       </c>
-      <c r="E96" t="s">
+      <c r="I97" t="s">
         <v>137</v>
-      </c>
-      <c r="G96" t="s">
-        <v>269</v>
-      </c>
-      <c r="H96" t="s">
-        <v>280</v>
-      </c>
-      <c r="I96" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" t="s">
-        <v>271</v>
-      </c>
-      <c r="C97" t="s">
-        <v>302</v>
-      </c>
-      <c r="D97" t="s">
-        <v>303</v>
-      </c>
-      <c r="E97" t="s">
-        <v>201</v>
-      </c>
-      <c r="G97" t="s">
-        <v>314</v>
-      </c>
-      <c r="H97" t="s">
-        <v>319</v>
-      </c>
-      <c r="I97" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D98" t="s">
+        <v>333</v>
+      </c>
+      <c r="E98" t="s">
+        <v>202</v>
+      </c>
+      <c r="G98" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98" t="s">
+        <v>303</v>
+      </c>
+      <c r="I98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" t="s">
+        <v>169</v>
+      </c>
+      <c r="E99" t="s">
+        <v>128</v>
+      </c>
+      <c r="G99" t="s">
         <v>234</v>
       </c>
-      <c r="D98" t="s">
+      <c r="H99" t="s">
         <v>235</v>
       </c>
-      <c r="E98" t="s">
+      <c r="I99" t="s">
         <v>236</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" t="s">
-        <v>115</v>
-      </c>
-      <c r="I98" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" t="s">
+        <v>132</v>
+      </c>
+      <c r="G100" t="s">
         <v>270</v>
       </c>
-      <c r="D99" t="s">
+      <c r="H100" t="s">
         <v>281</v>
       </c>
-      <c r="E99" t="s">
+      <c r="I100" t="s">
         <v>127</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H99" t="s">
-        <v>116</v>
-      </c>
-      <c r="I99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" t="s">
+        <v>142</v>
+      </c>
+      <c r="G101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D100" t="s">
+      <c r="H101" t="s">
         <v>114</v>
       </c>
-      <c r="E100" t="s">
+      <c r="I101" t="s">
         <v>126</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H100" t="s">
-        <v>206</v>
-      </c>
-      <c r="I100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>270</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D101" t="s">
-        <v>210</v>
-      </c>
-      <c r="E101" t="s">
-        <v>203</v>
-      </c>
-      <c r="G101" t="s">
-        <v>240</v>
-      </c>
-      <c r="H101" t="s">
-        <v>241</v>
-      </c>
-      <c r="I101" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>269</v>
+        <v>197</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c r="E102" t="s">
-        <v>138</v>
-      </c>
-      <c r="G102" t="s">
-        <v>261</v>
+        <v>141</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="H102" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="I102" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" t="s">
-        <v>314</v>
+        <v>13</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D103" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>65</v>
+        <v>137</v>
+      </c>
+      <c r="G103" t="s">
+        <v>341</v>
       </c>
       <c r="H103" t="s">
-        <v>117</v>
+        <v>342</v>
       </c>
       <c r="I103" t="s">
-        <v>135</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>302</v>
       </c>
       <c r="D104" t="s">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="E104" t="s">
-        <v>137</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>14</v>
+        <v>201</v>
+      </c>
+      <c r="G104" t="s">
+        <v>269</v>
       </c>
       <c r="H104" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="I104" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="C105" t="s">
+        <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>48</v>
+        <v>236</v>
+      </c>
+      <c r="G105" t="s">
+        <v>314</v>
       </c>
       <c r="H105" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="I105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" t="s">
-        <v>269</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>179</v>
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>270</v>
       </c>
       <c r="D106" t="s">
-        <v>206</v>
+        <v>281</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>127</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="H106" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="I106" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" t="s">
+        <v>126</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H107" t="s">
+        <v>116</v>
+      </c>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>344</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D108" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" t="s">
+        <v>203</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H108" t="s">
+        <v>206</v>
+      </c>
+      <c r="I108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>332</v>
+      </c>
+      <c r="C109" t="s">
+        <v>341</v>
+      </c>
+      <c r="D109" t="s">
+        <v>342</v>
+      </c>
+      <c r="E109" t="s">
+        <v>343</v>
+      </c>
+      <c r="G109" t="s">
         <v>240</v>
       </c>
-      <c r="D107" t="s">
+      <c r="H109" t="s">
         <v>241</v>
       </c>
-      <c r="E107" t="s">
+      <c r="I109" t="s">
         <v>135</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H107" t="s">
-        <v>159</v>
-      </c>
-      <c r="I107" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" t="s">
-        <v>261</v>
-      </c>
-      <c r="D108" t="s">
-        <v>260</v>
-      </c>
-      <c r="E108" t="s">
-        <v>143</v>
-      </c>
-      <c r="G108" t="s">
-        <v>292</v>
-      </c>
-      <c r="H108" t="s">
-        <v>296</v>
-      </c>
-      <c r="I108" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" t="s">
-        <v>135</v>
-      </c>
-      <c r="G109" t="s">
-        <v>276</v>
-      </c>
-      <c r="H109" t="s">
-        <v>286</v>
-      </c>
-      <c r="I109" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="C110" t="s">
+        <v>269</v>
       </c>
       <c r="D110" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="E110" t="s">
-        <v>131</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
+      </c>
+      <c r="G110" t="s">
+        <v>337</v>
       </c>
       <c r="H110" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="I110" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>240</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>48</v>
+        <v>307</v>
+      </c>
+      <c r="C111" t="s">
+        <v>314</v>
       </c>
       <c r="D111" t="s">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G111" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="H111" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="I111" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" t="s">
-        <v>261</v>
+      <c r="A112" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="D112" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="H112" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I112" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I113" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C114" t="s">
-        <v>292</v>
+        <v>16</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D114" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="E114" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="H114" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="I114" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="D115" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="E115" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="H115" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="I115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" t="s">
+        <v>337</v>
+      </c>
+      <c r="D116" t="s">
+        <v>338</v>
+      </c>
+      <c r="E116" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D116" t="s">
-        <v>161</v>
-      </c>
-      <c r="E116" t="s">
-        <v>162</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="H116" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="I116" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D117" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="G117" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="H117" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="I117" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" t="s">
-        <v>292</v>
+      <c r="A118" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D118" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G118" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="H118" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="I118" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>143</v>
-      </c>
-      <c r="G119" t="s">
-        <v>264</v>
+        <v>131</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="H119" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="I119" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="D120" t="s">
-        <v>213</v>
+        <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>214</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
+      </c>
+      <c r="G120" t="s">
+        <v>246</v>
       </c>
       <c r="H120" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="I120" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="1" t="s">
-        <v>32</v>
+      <c r="A121" t="s">
+        <v>270</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="E121" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="H121" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="I121" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" t="s">
-        <v>246</v>
+      <c r="A122" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D122" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="E122" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I122" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="D123" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="E123" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="H123" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="I123" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="C124" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="D124" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E124" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="H124" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="I124" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C125" t="s">
-        <v>264</v>
+      <c r="A125" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D125" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="E125" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I125" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
       </c>
       <c r="D126" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="E126" t="s">
-        <v>137</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
+      </c>
+      <c r="G126" t="s">
+        <v>250</v>
       </c>
       <c r="H126" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="I126" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>269</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" t="s">
+        <v>142</v>
+      </c>
+      <c r="G127" t="s">
+        <v>304</v>
+      </c>
+      <c r="H127" t="s">
+        <v>305</v>
+      </c>
+      <c r="I127" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" t="s">
-        <v>212</v>
-      </c>
-      <c r="E127" t="s">
-        <v>133</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H127" t="s">
-        <v>227</v>
-      </c>
-      <c r="I127" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D128" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E128" t="s">
-        <v>128</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>181</v>
+        <v>143</v>
+      </c>
+      <c r="G128" t="s">
+        <v>264</v>
       </c>
       <c r="H128" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="I128" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
+        <v>314</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D129" t="s">
+        <v>213</v>
+      </c>
+      <c r="E129" t="s">
+        <v>214</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H129" t="s">
+        <v>122</v>
+      </c>
+      <c r="I129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" t="s">
+        <v>133</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H130" t="s">
+        <v>212</v>
+      </c>
+      <c r="I130" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" t="s">
-        <v>124</v>
-      </c>
-      <c r="E129" t="s">
-        <v>126</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H129" t="s">
-        <v>216</v>
-      </c>
-      <c r="I129" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D130" t="s">
-        <v>222</v>
-      </c>
-      <c r="E130" t="s">
-        <v>223</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="H130" t="s">
-        <v>325</v>
-      </c>
-      <c r="I130" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" t="s">
-        <v>264</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D131" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E131" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="H131" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="I131" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>180</v>
+        <v>40</v>
+      </c>
+      <c r="C132" t="s">
+        <v>250</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="E132" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H132" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I132" t="s">
         <v>202</v>
@@ -4920,286 +4966,378 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>304</v>
       </c>
       <c r="D133" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="E133" t="s">
-        <v>138</v>
-      </c>
-      <c r="G133" t="s">
-        <v>328</v>
+        <v>201</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="I133" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>181</v>
+      <c r="A134" t="s">
+        <v>240</v>
+      </c>
+      <c r="C134" t="s">
+        <v>264</v>
       </c>
       <c r="D134" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="E134" t="s">
         <v>201</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>332</v>
+        <v>195</v>
       </c>
       <c r="H134" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="I134" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="1" t="s">
-        <v>25</v>
+      <c r="A135" t="s">
+        <v>337</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="D135" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="E135" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="H135" t="s">
-        <v>336</v>
+        <v>125</v>
       </c>
       <c r="I135" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="1" t="s">
-        <v>3</v>
+      <c r="A136" t="s">
+        <v>261</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="D136" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="E136" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H136" t="s">
+        <v>207</v>
+      </c>
+      <c r="I136" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="D137" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="E137" t="s">
-        <v>202</v>
+        <v>128</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H137" t="s">
+        <v>227</v>
+      </c>
+      <c r="I137" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D138" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E138" t="s">
         <v>202</v>
       </c>
+      <c r="G138" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H138" t="s">
+        <v>208</v>
+      </c>
+      <c r="I138" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C139" t="s">
-        <v>328</v>
+        <v>48</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="E139" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H139" t="s">
+        <v>216</v>
+      </c>
+      <c r="I139" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>332</v>
+        <v>195</v>
       </c>
       <c r="D140" t="s">
-        <v>333</v>
+        <v>222</v>
       </c>
       <c r="E140" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" t="s">
+        <v>125</v>
+      </c>
+      <c r="E141" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D142" t="s">
+        <v>207</v>
+      </c>
+      <c r="E142" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>276</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D141" t="s">
-        <v>336</v>
-      </c>
-      <c r="E141" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1" t="s">
-        <v>181</v>
+      <c r="D143" t="s">
+        <v>227</v>
+      </c>
+      <c r="E143" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D144" t="s">
+        <v>208</v>
+      </c>
+      <c r="E144" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="D145" t="s">
+        <v>216</v>
+      </c>
+      <c r="E145" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="22" t="s">
-        <v>316</v>
-      </c>
       <c r="B155" s="21"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>306</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>327</v>
+      <c r="A162" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>328</v>
+      <c r="A163" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>331</v>
+      <c r="A164" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>332</v>
+      <c r="A165" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>334</v>
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="G10:I129">
-    <sortCondition ref="G129"/>
+  <sortState ref="A4:A170">
+    <sortCondition ref="A170"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5213,10 +5351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M133"/>
+  <dimension ref="B4:M144"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:J38"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5232,46 +5370,46 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13">
-      <c r="B4" s="1" t="s">
-        <v>43</v>
+      <c r="B4" t="s">
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>255</v>
+      <c r="B6" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>217</v>
       </c>
       <c r="I7" s="17" t="s">
@@ -5298,7 +5436,7 @@
         <v>140</v>
       </c>
       <c r="J8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="11"/>
@@ -5478,7 +5616,7 @@
         <v>138</v>
       </c>
       <c r="J17" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="11"/>
@@ -5598,7 +5736,7 @@
         <v>133</v>
       </c>
       <c r="J23" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="11"/>
@@ -5658,7 +5796,7 @@
         <v>202</v>
       </c>
       <c r="J26" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="11"/>
@@ -5678,7 +5816,7 @@
         <v>142</v>
       </c>
       <c r="J27" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="11"/>
@@ -5755,7 +5893,7 @@
         <v>136</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>139</v>
+        <v>346</v>
       </c>
       <c r="J31" s="8">
         <v>1</v>
@@ -5775,10 +5913,10 @@
         <v>223</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J32" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K32" s="15"/>
       <c r="L32" s="11"/>
@@ -5786,19 +5924,19 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="1" t="s">
-        <v>230</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
         <v>138</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J33" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="11"/>
@@ -5806,19 +5944,19 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
         <v>138</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="J34" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="11"/>
@@ -5826,19 +5964,19 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="J35" s="8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="11"/>
@@ -5846,39 +5984,39 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
         <v>138</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="9">
-        <v>3</v>
-      </c>
-      <c r="K36" s="16"/>
+      <c r="I36" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="8">
+        <v>13</v>
+      </c>
+      <c r="K36" s="15"/>
       <c r="L36" s="11"/>
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
         <v>138</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J37" s="11">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="J37" s="9">
+        <v>3</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="11"/>
@@ -5886,19 +6024,19 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
         <v>138</v>
       </c>
-      <c r="I38" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="J38" s="9">
-        <v>11</v>
+      <c r="I38" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1</v>
       </c>
       <c r="K38" s="16"/>
       <c r="L38" s="11"/>
@@ -5906,56 +6044,63 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D39" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="11"/>
+      <c r="I39" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="9">
+        <v>12</v>
+      </c>
       <c r="K39" s="16"/>
       <c r="L39" s="11"/>
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D40" t="s">
         <v>138</v>
       </c>
-      <c r="I40" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J40" s="8">
-        <f>SUM(J8:J39)</f>
-        <v>130</v>
-      </c>
-      <c r="K40" s="15"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="16"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="D41" t="s">
         <v>138</v>
       </c>
+      <c r="I41" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="8">
+        <f>SUM(J8:J40)</f>
+        <v>136</v>
+      </c>
+      <c r="K41" s="15"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" t="s">
-        <v>269</v>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
         <v>138</v>
@@ -5963,164 +6108,164 @@
     </row>
     <row r="43" spans="2:13">
       <c r="B43" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="D43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="1" t="s">
-        <v>199</v>
+      <c r="B44" t="s">
+        <v>250</v>
       </c>
       <c r="C44" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="D44" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" t="s">
-        <v>316</v>
+      <c r="B45" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="D45" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
+        <v>316</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>161</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D48" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="1" t="s">
-        <v>262</v>
+      <c r="B50" t="s">
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>238</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" t="s">
-        <v>279</v>
-      </c>
-      <c r="C52" t="s">
-        <v>289</v>
-      </c>
-      <c r="D52" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" t="s">
-        <v>278</v>
-      </c>
-      <c r="C53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D53" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D54" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="1" t="s">
-        <v>35</v>
+      <c r="B55" t="s">
+        <v>278</v>
       </c>
       <c r="C55" t="s">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="1" t="s">
-        <v>72</v>
+      <c r="B56" t="s">
+        <v>277</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
         <v>133</v>
@@ -6128,10 +6273,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
         <v>133</v>
@@ -6139,10 +6284,10 @@
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
         <v>133</v>
@@ -6150,10 +6295,10 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D60" t="s">
         <v>133</v>
@@ -6161,10 +6306,10 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="D61" t="s">
         <v>133</v>
@@ -6172,109 +6317,109 @@
     </row>
     <row r="62" spans="2:4">
       <c r="B62" s="1" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" t="s">
-        <v>309</v>
+      <c r="B63" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>313</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" t="s">
-        <v>209</v>
-      </c>
-      <c r="D65" t="s">
-        <v>203</v>
+      <c r="B65" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="D66" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D67" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" t="s">
-        <v>267</v>
+      <c r="B68" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="D68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="1" t="s">
-        <v>191</v>
+      <c r="B69" t="s">
+        <v>244</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="1" t="s">
-        <v>188</v>
+      <c r="B71" t="s">
+        <v>267</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="D71" t="s">
         <v>202</v>
@@ -6282,10 +6427,10 @@
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
         <v>202</v>
@@ -6293,210 +6438,210 @@
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D73" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" t="s">
-        <v>246</v>
+      <c r="B74" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="D74" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" t="s">
-        <v>320</v>
+      <c r="B75" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C75" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="D75" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D76" s="24" t="s">
+      <c r="B76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="1" t="s">
-        <v>242</v>
+      <c r="B77" t="s">
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D77" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="C78" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
       <c r="D78" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
-      <c r="D79" t="s">
-        <v>142</v>
+      <c r="B79" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C81" t="s">
-        <v>220</v>
-      </c>
-      <c r="D81" t="s">
-        <v>141</v>
+      <c r="B81" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" t="s">
-        <v>234</v>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>145</v>
-      </c>
-      <c r="D85" t="s">
-        <v>126</v>
+      <c r="B85" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="1" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="1" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="D87" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="1" t="s">
-        <v>74</v>
+      <c r="B89" t="s">
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>286</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="1" t="s">
-        <v>15</v>
+      <c r="B90" t="s">
+        <v>234</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D91" t="s">
         <v>126</v>
@@ -6504,10 +6649,10 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D92" t="s">
         <v>126</v>
@@ -6515,208 +6660,208 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="1" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="1" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D99" t="s">
-        <v>129</v>
+      <c r="B99" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="1" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" t="s">
-        <v>290</v>
+      <c r="B101" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" t="s">
-        <v>291</v>
+      <c r="B102" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="D102" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" t="s">
-        <v>292</v>
+      <c r="B103" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="D103" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="1" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D106" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="1" t="s">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="1" t="s">
-        <v>50</v>
+      <c r="B108" t="s">
+        <v>290</v>
       </c>
       <c r="C108" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" s="1" t="s">
-        <v>56</v>
+      <c r="B109" t="s">
+        <v>291</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="D109" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="1" t="s">
-        <v>18</v>
+      <c r="B110" t="s">
+        <v>292</v>
       </c>
       <c r="C110" t="s">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="D110" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="D111" t="s">
         <v>137</v>
@@ -6724,10 +6869,10 @@
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="D112" t="s">
         <v>137</v>
@@ -6735,10 +6880,10 @@
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D113" t="s">
         <v>137</v>
@@ -6746,10 +6891,10 @@
     </row>
     <row r="114" spans="2:4">
       <c r="B114" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D114" t="s">
         <v>137</v>
@@ -6757,153 +6902,153 @@
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D115" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C116" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C118" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" s="1" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="2:4">
-      <c r="B120" t="s">
-        <v>273</v>
+      <c r="B120" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C120" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="D120" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" t="s">
-        <v>252</v>
+      <c r="B121" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C121" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="D121" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" t="s">
-        <v>248</v>
+      <c r="B122" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="D122" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="2:4">
-      <c r="B123" t="s">
-        <v>258</v>
+      <c r="B123" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="D123" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="2:4">
-      <c r="B124" t="s">
-        <v>274</v>
+      <c r="B124" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C124" t="s">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="D124" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="2:4">
-      <c r="B125" t="s">
-        <v>272</v>
+      <c r="B125" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D125" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="2:4">
       <c r="B126" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C126" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D126" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" s="1" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="C127" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C128" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D128" t="s">
         <v>132</v>
@@ -6911,10 +7056,10 @@
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="C129" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="D129" t="s">
         <v>132</v>
@@ -6922,51 +7067,137 @@
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="C130" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="D130" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="1" t="s">
-        <v>322</v>
+      <c r="B131" t="s">
+        <v>258</v>
       </c>
       <c r="C131" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="D131" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="1" t="s">
-        <v>324</v>
+      <c r="B132" t="s">
+        <v>274</v>
       </c>
       <c r="C132" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>217</v>
-      </c>
+      <c r="B133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" t="s">
+        <v>282</v>
+      </c>
+      <c r="D133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4">
+      <c r="B134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>111</v>
+      </c>
+      <c r="D134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4">
+      <c r="B135" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C135" t="s">
+        <v>232</v>
+      </c>
+      <c r="D135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4">
+      <c r="B136" t="s">
+        <v>300</v>
+      </c>
+      <c r="C136" t="s">
+        <v>301</v>
+      </c>
+      <c r="D136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4">
+      <c r="B137" t="s">
+        <v>310</v>
+      </c>
+      <c r="C137" t="s">
+        <v>312</v>
+      </c>
+      <c r="D137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4">
+      <c r="B138" t="s">
+        <v>314</v>
+      </c>
+      <c r="C138" t="s">
+        <v>319</v>
+      </c>
+      <c r="D138" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4">
+      <c r="B139" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" s="23"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="23"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="23"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="23"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
     </row>
   </sheetData>
-  <sortState ref="B4:D129">
-    <sortCondition ref="D4:D129"/>
+  <sortState ref="B4:D139">
+    <sortCondition ref="D4:D139"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="363">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -1061,6 +1061,54 @@
   </si>
   <si>
     <t>Saalfeld</t>
+  </si>
+  <si>
+    <t>cavallaroa</t>
+  </si>
+  <si>
+    <t>sharpb</t>
+  </si>
+  <si>
+    <t>gonzalezg</t>
+  </si>
+  <si>
+    <t>coffmans</t>
+  </si>
+  <si>
+    <t>mercerm</t>
+  </si>
+  <si>
+    <t>zhengg</t>
+  </si>
+  <si>
+    <t>dangt</t>
+  </si>
+  <si>
+    <t>lavertyt</t>
+  </si>
+  <si>
+    <t>Amanda Cavallaro</t>
+  </si>
+  <si>
+    <t>Brandi Sharp</t>
+  </si>
+  <si>
+    <t>Guillermo Gonzales</t>
+  </si>
+  <si>
+    <t>Scarlett Coffman</t>
+  </si>
+  <si>
+    <t>Monti Mercer</t>
+  </si>
+  <si>
+    <t>Grace Zheng</t>
+  </si>
+  <si>
+    <t>Tam Dang</t>
+  </si>
+  <si>
+    <t>Todd Laverty</t>
   </si>
 </sst>
 </file>
@@ -1073,6 +1121,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1174,7 +1223,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="225">
+  <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1380,6 +1429,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1438,7 +1508,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="225">
+  <cellStyles count="246">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1567,6 +1637,27 @@
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -1992,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K170"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146:C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5213,41 +5304,113 @@
       <c r="A146" t="s">
         <v>246</v>
       </c>
+      <c r="C146" t="s">
+        <v>347</v>
+      </c>
+      <c r="D146" t="s">
+        <v>355</v>
+      </c>
+      <c r="E146" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C147" t="s">
+        <v>348</v>
+      </c>
+      <c r="D147" t="s">
+        <v>356</v>
+      </c>
+      <c r="E147" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C148" t="s">
+        <v>349</v>
+      </c>
+      <c r="D148" t="s">
+        <v>357</v>
+      </c>
+      <c r="E148" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="C149" t="s">
+        <v>350</v>
+      </c>
+      <c r="D149" t="s">
+        <v>358</v>
+      </c>
+      <c r="E149" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C150" t="s">
+        <v>351</v>
+      </c>
+      <c r="D150" t="s">
+        <v>359</v>
+      </c>
+      <c r="E150" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="1" t="s">
         <v>156</v>
       </c>
+      <c r="C151" t="s">
+        <v>352</v>
+      </c>
+      <c r="D151" t="s">
+        <v>360</v>
+      </c>
+      <c r="E151" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C152" t="s">
+        <v>353</v>
+      </c>
+      <c r="D152" t="s">
+        <v>361</v>
+      </c>
+      <c r="E152" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C153" t="s">
+        <v>354</v>
+      </c>
+      <c r="D153" t="s">
+        <v>362</v>
+      </c>
+      <c r="E153" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="1" t="s">
@@ -5333,6 +5496,46 @@
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5351,10 +5554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M144"/>
+  <dimension ref="B4:M147"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5903,14 +6106,14 @@
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="1" t="s">
-        <v>195</v>
+      <c r="B32" t="s">
+        <v>347</v>
       </c>
       <c r="C32" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="D32" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>139</v>
@@ -5923,14 +6126,14 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="1" t="s">
-        <v>43</v>
+      <c r="B33" t="s">
+        <v>348</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>131</v>
@@ -5943,14 +6146,14 @@
       <c r="M33" s="13"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="1" t="s">
-        <v>230</v>
+      <c r="B34" t="s">
+        <v>349</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>129</v>
@@ -5963,14 +6166,14 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="1" t="s">
-        <v>44</v>
+      <c r="B35" t="s">
+        <v>350</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>358</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>295</v>
@@ -5983,14 +6186,14 @@
       <c r="M35" s="13"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="1" t="s">
-        <v>59</v>
+      <c r="B36" t="s">
+        <v>351</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>359</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>137</v>
@@ -6003,14 +6206,14 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="1" t="s">
-        <v>55</v>
+      <c r="B37" t="s">
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>360</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>130</v>
@@ -6023,14 +6226,14 @@
       <c r="M37" s="13"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="1" t="s">
-        <v>68</v>
+      <c r="B38" t="s">
+        <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>361</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>214</v>
@@ -6043,14 +6246,14 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="1" t="s">
-        <v>196</v>
+      <c r="B39" t="s">
+        <v>354</v>
       </c>
       <c r="C39" t="s">
-        <v>224</v>
+        <v>362</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I39" s="19" t="s">
         <v>228</v>
@@ -6064,13 +6267,13 @@
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="11"/>
@@ -6078,10 +6281,10 @@
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="1" t="s">
-        <v>197</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
         <v>138</v>
@@ -6097,32 +6300,32 @@
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="1" t="s">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" t="s">
-        <v>269</v>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" t="s">
-        <v>250</v>
+      <c r="B44" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>251</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
         <v>138</v>
@@ -6130,826 +6333,826 @@
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="1" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" t="s">
-        <v>316</v>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D47" s="24" t="s">
+      <c r="B47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" t="s">
-        <v>240</v>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="1" t="s">
-        <v>65</v>
+      <c r="B51" t="s">
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="1" t="s">
-        <v>262</v>
+      <c r="B52" t="s">
+        <v>250</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="C53" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C54" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D54" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" t="s">
-        <v>278</v>
-      </c>
-      <c r="C55" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" t="s">
-        <v>299</v>
+      <c r="B55" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" t="s">
-        <v>277</v>
+      <c r="B56" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
-        <v>299</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="1" t="s">
-        <v>72</v>
+      <c r="B58" t="s">
+        <v>240</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="1" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="D60" t="s">
-        <v>133</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="D61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>279</v>
+      </c>
+      <c r="C62" t="s">
+        <v>289</v>
+      </c>
+      <c r="D62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" t="s">
+        <v>288</v>
+      </c>
+      <c r="D63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" t="s">
+    <row r="66" spans="2:4">
+      <c r="B66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" t="s">
-        <v>309</v>
-      </c>
-      <c r="C66" t="s">
-        <v>308</v>
-      </c>
-      <c r="D66" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
       <c r="D67" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="1" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" t="s">
-        <v>244</v>
+      <c r="B69" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C69" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="1" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" t="s">
-        <v>267</v>
+      <c r="B71" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D73" t="s">
-        <v>202</v>
+      <c r="B73" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="1" t="s">
-        <v>188</v>
+      <c r="B74" t="s">
+        <v>309</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="D74" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" t="s">
-        <v>320</v>
+      <c r="B78" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C78" t="s">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D79" s="24" t="s">
+      <c r="B79" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" t="s">
+        <v>268</v>
+      </c>
+      <c r="D79" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="1" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="D80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D81" s="24" t="s">
+      <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" t="s">
-        <v>271</v>
+      <c r="B83" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C83" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="D83" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>142</v>
+      <c r="B85" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="1" t="s">
-        <v>173</v>
+      <c r="B86" t="s">
+        <v>320</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" t="s">
-        <v>220</v>
-      </c>
-      <c r="D87" t="s">
-        <v>141</v>
+      <c r="B87" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="1" t="s">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>326</v>
       </c>
       <c r="D88" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" t="s">
-        <v>276</v>
-      </c>
-      <c r="C89" t="s">
-        <v>286</v>
-      </c>
-      <c r="D89" t="s">
-        <v>141</v>
+      <c r="B89" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" t="s">
-        <v>234</v>
+      <c r="B90" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C90" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D90" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="1" t="s">
-        <v>7</v>
+      <c r="B91" t="s">
+        <v>271</v>
       </c>
       <c r="C91" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" t="s">
-        <v>126</v>
+      <c r="B93" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="1" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="2:7">
       <c r="B95" s="1" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" t="s">
+        <v>276</v>
+      </c>
+      <c r="C97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" t="s">
+        <v>235</v>
+      </c>
+      <c r="D98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D100" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="1" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" s="1" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="D103" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C107" t="s">
-        <v>159</v>
-      </c>
-      <c r="D107" t="s">
-        <v>129</v>
+      <c r="B107" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" t="s">
-        <v>290</v>
+      <c r="B108" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C108" t="s">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="2:4">
-      <c r="B109" t="s">
-        <v>291</v>
+      <c r="B109" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C109" t="s">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="D109" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" t="s">
-        <v>292</v>
+      <c r="B110" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="D110" t="s">
-        <v>295</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" s="1" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D111" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D113" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D114" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="1" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C115" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="D115" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" s="1" t="s">
-        <v>56</v>
+      <c r="B116" t="s">
+        <v>290</v>
       </c>
       <c r="C116" t="s">
-        <v>103</v>
+        <v>294</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" s="1" t="s">
-        <v>18</v>
+      <c r="B117" t="s">
+        <v>291</v>
       </c>
       <c r="C117" t="s">
-        <v>104</v>
+        <v>298</v>
       </c>
       <c r="D117" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" s="1" t="s">
-        <v>57</v>
+      <c r="B118" t="s">
+        <v>292</v>
       </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>296</v>
       </c>
       <c r="D118" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D119" t="s">
         <v>137</v>
@@ -6957,10 +7160,10 @@
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C120" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D120" t="s">
         <v>137</v>
@@ -6968,10 +7171,10 @@
     </row>
     <row r="121" spans="2:4">
       <c r="B121" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D121" t="s">
         <v>137</v>
@@ -6979,10 +7182,10 @@
     </row>
     <row r="122" spans="2:4">
       <c r="B122" s="1" t="s">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>325</v>
+        <v>101</v>
       </c>
       <c r="D122" t="s">
         <v>137</v>
@@ -6990,153 +7193,153 @@
     </row>
     <row r="123" spans="2:4">
       <c r="B123" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C123" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="D123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="B124" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C124" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D124" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="2:4">
       <c r="B125" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="2:4">
       <c r="B126" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C126" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D126" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" s="1" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="D127" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="2:4">
-      <c r="B128" t="s">
-        <v>273</v>
+      <c r="B128" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C128" t="s">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="D128" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="2:4">
-      <c r="B129" t="s">
-        <v>252</v>
+      <c r="B129" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C129" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="2:4">
-      <c r="B130" t="s">
-        <v>248</v>
+      <c r="B130" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" t="s">
-        <v>258</v>
+      <c r="B131" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C131" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" t="s">
-        <v>274</v>
+      <c r="B132" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C132" t="s">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" t="s">
-        <v>272</v>
+      <c r="B133" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C133" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C134" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" s="1" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="2:4">
       <c r="B136" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D136" t="s">
         <v>132</v>
@@ -7144,10 +7347,10 @@
     </row>
     <row r="137" spans="2:4">
       <c r="B137" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="C137" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="D137" t="s">
         <v>132</v>
@@ -7155,49 +7358,117 @@
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="D138" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" s="24" t="s">
+      <c r="B139" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" t="s">
+        <v>259</v>
+      </c>
+      <c r="D139" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4">
+      <c r="B140" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" t="s">
+        <v>284</v>
+      </c>
+      <c r="D140" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4">
+      <c r="B141" t="s">
+        <v>272</v>
+      </c>
+      <c r="C141" t="s">
+        <v>282</v>
+      </c>
+      <c r="D141" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4">
+      <c r="B142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>111</v>
+      </c>
+      <c r="D142" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4">
+      <c r="B143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C143" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" t="s">
+        <v>300</v>
+      </c>
+      <c r="C144" t="s">
+        <v>301</v>
+      </c>
+      <c r="D144" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" t="s">
+        <v>312</v>
+      </c>
+      <c r="D145" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>314</v>
+      </c>
+      <c r="C146" t="s">
+        <v>319</v>
+      </c>
+      <c r="D146" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="C147" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="D139" s="24" t="s">
+      <c r="D147" s="24" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="2:4">
-      <c r="B141" s="23"/>
-      <c r="C141" s="24"/>
-      <c r="D141" s="24"/>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" s="23"/>
-      <c r="C142" s="24"/>
-      <c r="D142" s="24"/>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="B143" s="23"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="24"/>
-    </row>
-    <row r="144" spans="2:4">
-      <c r="B144" s="23"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="24"/>
-    </row>
   </sheetData>
-  <sortState ref="B4:D139">
-    <sortCondition ref="D4:D139"/>
+  <sortState ref="B4:D147">
+    <sortCondition ref="D4:D147"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="140" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="365">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -1109,6 +1109,12 @@
   </si>
   <si>
     <t>Todd Laverty</t>
+  </si>
+  <si>
+    <t>ehrhardte</t>
+  </si>
+  <si>
+    <t>Erica Ehrhardt</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1127,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1223,7 +1228,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="246">
+  <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1429,6 +1434,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1508,7 +1514,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="246">
+  <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1658,6 +1664,7 @@
     <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -2083,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K178"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146:C153"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2907,13 +2914,13 @@
         <v>132</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="I39" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2930,36 +2937,36 @@
         <v>202</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
-        <v>217</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" t="s">
-        <v>134</v>
+      <c r="C41" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
+        <v>336</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2967,22 +2974,22 @@
         <v>248</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>335</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
-      </c>
-      <c r="G42" t="s">
-        <v>328</v>
+        <v>134</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>329</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2990,114 +2997,114 @@
         <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>336</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>192</v>
+        <v>217</v>
+      </c>
+      <c r="G43" t="s">
+        <v>328</v>
       </c>
       <c r="H43" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="I43" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C44" t="s">
-        <v>328</v>
+      <c r="C44" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D44" t="s">
-        <v>329</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" t="s">
-        <v>279</v>
+        <v>133</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="H44" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="I44" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>334</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>192</v>
+      <c r="C45" t="s">
+        <v>328</v>
       </c>
       <c r="D45" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>173</v>
+        <v>132</v>
+      </c>
+      <c r="G45" t="s">
+        <v>279</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C46" t="s">
-        <v>279</v>
+      <c r="C46" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>173</v>
+      <c r="C47" t="s">
+        <v>279</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3105,22 +3112,22 @@
         <v>328</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="H48" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="I48" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3128,22 +3135,22 @@
         <v>192</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3151,22 +3158,22 @@
         <v>331</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>221</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="I50" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3174,22 +3181,22 @@
         <v>279</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3197,22 +3204,22 @@
         <v>38</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>266</v>
+        <v>202</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="H52" t="s">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3220,22 +3227,22 @@
         <v>173</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>64</v>
+        <v>262</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="I53" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3243,22 +3250,22 @@
         <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" t="s">
-        <v>278</v>
+        <v>135</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="I54" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3266,19 +3273,19 @@
         <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H55" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I55" t="s">
         <v>299</v>
@@ -3289,22 +3296,22 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>238</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
+      </c>
+      <c r="G56" t="s">
+        <v>277</v>
       </c>
       <c r="H56" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="I56" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3312,45 +3319,45 @@
         <v>75</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="E57" t="s">
+        <v>239</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" t="s">
         <v>138</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" t="s">
-        <v>94</v>
-      </c>
-      <c r="I57" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C58" t="s">
-        <v>278</v>
+      <c r="C58" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="E58" t="s">
-        <v>299</v>
-      </c>
-      <c r="G58" t="s">
-        <v>258</v>
+        <v>138</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3358,45 +3365,45 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D59" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
         <v>299</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>5</v>
+      <c r="G59" t="s">
+        <v>258</v>
       </c>
       <c r="H59" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="I59" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>44</v>
+      <c r="C60" t="s">
+        <v>277</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>287</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I60" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3404,19 +3411,19 @@
         <v>54</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I61" t="s">
         <v>138</v>
@@ -3426,20 +3433,20 @@
       <c r="A62" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C62" t="s">
-        <v>258</v>
+      <c r="C62" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I62" t="s">
         <v>138</v>
@@ -3449,23 +3456,23 @@
       <c r="A63" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>5</v>
+      <c r="C63" t="s">
+        <v>258</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" t="s">
-        <v>274</v>
+        <v>132</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H63" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="I63" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3473,22 +3480,22 @@
         <v>278</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>183</v>
+        <v>126</v>
+      </c>
+      <c r="G64" t="s">
+        <v>274</v>
       </c>
       <c r="H64" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="I64" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3496,22 +3503,22 @@
         <v>277</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
         <v>138</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="H65" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="I65" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3519,45 +3526,45 @@
         <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
         <v>138</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="I66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C67" t="s">
-        <v>274</v>
+      <c r="C67" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="I67" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3565,45 +3572,45 @@
         <v>34</v>
       </c>
       <c r="C68" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="D68" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="E68" t="s">
-        <v>136</v>
-      </c>
-      <c r="G68" t="s">
-        <v>272</v>
+        <v>132</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>258</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>183</v>
+      <c r="C69" t="s">
+        <v>315</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="G69" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="H69" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="I69" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3611,22 +3618,22 @@
         <v>5</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>209</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="G70" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="H70" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="I70" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3634,22 +3641,22 @@
         <v>59</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G71" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="H71" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3657,39 +3664,39 @@
         <v>55</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>31</v>
+        <v>131</v>
+      </c>
+      <c r="G72" t="s">
+        <v>316</v>
       </c>
       <c r="H72" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="I72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C73" t="s">
-        <v>272</v>
+      <c r="C73" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H73" t="s">
         <v>101</v>
@@ -3703,19 +3710,19 @@
         <v>274</v>
       </c>
       <c r="C74" t="s">
-        <v>339</v>
+        <v>272</v>
       </c>
       <c r="D74" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I74" t="s">
         <v>137</v>
@@ -3726,22 +3733,22 @@
         <v>315</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>340</v>
       </c>
       <c r="E75" t="s">
-        <v>217</v>
-      </c>
-      <c r="G75" t="s">
-        <v>244</v>
+        <v>142</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3749,45 +3756,45 @@
         <v>183</v>
       </c>
       <c r="C76" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="D76" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="E76" t="s">
-        <v>138</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>196</v>
+        <v>217</v>
+      </c>
+      <c r="G76" t="s">
+        <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="I76" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>31</v>
+      <c r="C77" t="s">
+        <v>316</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H77" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="I77" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3795,7 +3802,7 @@
         <v>153</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
         <v>101</v>
@@ -3804,13 +3811,13 @@
         <v>137</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="I78" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3818,19 +3825,19 @@
         <v>27</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E79" t="s">
         <v>137</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I79" t="s">
         <v>137</v>
@@ -3840,20 +3847,20 @@
       <c r="A80" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C80" t="s">
-        <v>244</v>
+      <c r="C80" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="E80" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I80" t="s">
         <v>137</v>
@@ -3863,23 +3870,23 @@
       <c r="A81" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>196</v>
+      <c r="C81" t="s">
+        <v>244</v>
       </c>
       <c r="D81" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="I81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3887,68 +3894,68 @@
         <v>339</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D82" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="I82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C83" t="s">
-        <v>275</v>
+      <c r="C83" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="E83" t="s">
-        <v>136</v>
-      </c>
-      <c r="G83" t="s">
-        <v>310</v>
+        <v>201</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H83" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="I83" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>56</v>
+      <c r="C84" t="s">
+        <v>275</v>
       </c>
       <c r="D84" t="s">
-        <v>103</v>
+        <v>285</v>
       </c>
       <c r="E84" t="s">
-        <v>137</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>322</v>
+        <v>136</v>
+      </c>
+      <c r="G84" t="s">
+        <v>310</v>
       </c>
       <c r="H84" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="I84" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3956,22 +3963,22 @@
         <v>31</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E85" t="s">
         <v>137</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="H85" t="s">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="I85" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3979,22 +3986,22 @@
         <v>22</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" t="s">
         <v>137</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H86" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I86" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4002,19 +4009,19 @@
         <v>50</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="D87" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="E87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="I87" t="s">
         <v>138</v>
@@ -4025,65 +4032,65 @@
         <v>244</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="E88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I88" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C89" t="s">
-        <v>310</v>
+      <c r="C89" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>322</v>
+      <c r="C90" t="s">
+        <v>310</v>
       </c>
       <c r="D90" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E90" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I90" t="s">
         <v>126</v>
@@ -4094,22 +4101,22 @@
         <v>53</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="D91" t="s">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
-      </c>
-      <c r="G91" t="s">
-        <v>344</v>
+        <v>137</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H91" t="s">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="I91" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4117,22 +4124,22 @@
         <v>17</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D92" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E92" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" t="s">
+        <v>344</v>
+      </c>
+      <c r="H92" t="s">
+        <v>345</v>
+      </c>
+      <c r="I92" t="s">
         <v>138</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H92" t="s">
-        <v>333</v>
-      </c>
-      <c r="I92" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4140,22 +4147,22 @@
         <v>275</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="E93" t="s">
         <v>138</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="H93" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4163,22 +4170,22 @@
         <v>56</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
+        <v>138</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H94" t="s">
+        <v>169</v>
+      </c>
+      <c r="I94" t="s">
         <v>128</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" t="s">
-        <v>111</v>
-      </c>
-      <c r="I94" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4186,22 +4193,22 @@
         <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E95" t="s">
-        <v>126</v>
-      </c>
-      <c r="G95" t="s">
-        <v>271</v>
+        <v>128</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H95" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="I95" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4209,68 +4216,68 @@
         <v>57</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E96" t="s">
         <v>126</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>36</v>
+      <c r="G96" t="s">
+        <v>271</v>
       </c>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C97" t="s">
-        <v>344</v>
+      <c r="C97" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D97" t="s">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I97" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>332</v>
+      <c r="C98" t="s">
+        <v>344</v>
       </c>
       <c r="D98" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E98" t="s">
-        <v>202</v>
-      </c>
-      <c r="G98" t="s">
-        <v>302</v>
+        <v>138</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H98" t="s">
-        <v>303</v>
+        <v>113</v>
       </c>
       <c r="I98" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4278,22 +4285,22 @@
         <v>310</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="D99" t="s">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="G99" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="H99" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="I99" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4301,68 +4308,68 @@
         <v>322</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="D100" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G100" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="H100" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="I100" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C101" t="s">
-        <v>271</v>
+      <c r="C101" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E101" t="s">
-        <v>142</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="G101" t="s">
+        <v>270</v>
       </c>
       <c r="H101" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="I101" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>36</v>
+      <c r="C102" t="s">
+        <v>271</v>
       </c>
       <c r="D102" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="H102" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="I102" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4370,45 +4377,45 @@
         <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E103" t="s">
-        <v>137</v>
-      </c>
-      <c r="G103" t="s">
-        <v>341</v>
+        <v>141</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="H103" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="I103" t="s">
-        <v>343</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C104" t="s">
-        <v>302</v>
+      <c r="C104" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D104" t="s">
-        <v>303</v>
+        <v>113</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="G104" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="H104" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4416,22 +4423,22 @@
         <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="D105" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="E105" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="G105" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="H105" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="I105" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4439,45 +4446,45 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="D106" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="E106" t="s">
-        <v>127</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>23</v>
+        <v>236</v>
+      </c>
+      <c r="G106" t="s">
+        <v>314</v>
       </c>
       <c r="H106" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
       <c r="I106" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>15</v>
+      <c r="C107" t="s">
+        <v>270</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>281</v>
       </c>
       <c r="E107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I107" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4485,45 +4492,45 @@
         <v>344</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="H108" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="I108" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>332</v>
       </c>
-      <c r="C109" t="s">
-        <v>341</v>
+      <c r="C109" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="D109" t="s">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="E109" t="s">
-        <v>343</v>
-      </c>
-      <c r="G109" t="s">
-        <v>240</v>
+        <v>203</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="H109" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="I109" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4531,22 +4538,22 @@
         <v>69</v>
       </c>
       <c r="C110" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="E110" t="s">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c r="G110" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="H110" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="I110" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4554,45 +4561,45 @@
         <v>307</v>
       </c>
       <c r="C111" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="D111" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="E111" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G111" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="H111" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="I111" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>23</v>
+      <c r="C112" t="s">
+        <v>314</v>
       </c>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>319</v>
       </c>
       <c r="E112" t="s">
-        <v>137</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>65</v>
+        <v>132</v>
+      </c>
+      <c r="G112" t="s">
+        <v>261</v>
       </c>
       <c r="H112" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="I112" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4600,22 +4607,22 @@
         <v>168</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I113" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4623,16 +4630,16 @@
         <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="D114" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
         <v>118</v>
@@ -4645,23 +4652,23 @@
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C115" t="s">
-        <v>240</v>
+      <c r="C115" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D115" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="E115" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="H115" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="I115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4669,22 +4676,22 @@
         <v>271</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="D116" t="s">
-        <v>338</v>
+        <v>241</v>
       </c>
       <c r="E116" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="H116" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="I116" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4692,45 +4699,45 @@
         <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="D117" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="E117" t="s">
-        <v>143</v>
-      </c>
-      <c r="G117" t="s">
-        <v>292</v>
+        <v>133</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="H117" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="I117" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>65</v>
+      <c r="C118" t="s">
+        <v>261</v>
       </c>
       <c r="D118" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="E118" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G118" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="H118" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="I118" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4738,22 +4745,22 @@
         <v>302</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
+      </c>
+      <c r="G119" t="s">
+        <v>276</v>
       </c>
       <c r="H119" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="I119" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4761,7 +4768,7 @@
         <v>234</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
         <v>118</v>
@@ -4769,14 +4776,14 @@
       <c r="E120" t="s">
         <v>131</v>
       </c>
-      <c r="G120" t="s">
-        <v>246</v>
+      <c r="G120" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="H120" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="I120" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4784,22 +4791,22 @@
         <v>270</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>229</v>
+        <v>48</v>
       </c>
       <c r="D121" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>19</v>
+        <v>131</v>
+      </c>
+      <c r="G121" t="s">
+        <v>246</v>
       </c>
       <c r="H121" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="I121" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4807,45 +4814,45 @@
         <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="D122" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="E122" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C123" t="s">
-        <v>292</v>
+      <c r="C123" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D123" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="E123" t="s">
-        <v>295</v>
+        <v>129</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="H123" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="I123" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4853,91 +4860,91 @@
         <v>184</v>
       </c>
       <c r="C124" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="D124" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E124" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="I124" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>341</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>157</v>
+      <c r="C125" t="s">
+        <v>276</v>
       </c>
       <c r="D125" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="E125" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="H125" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="I125" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C126" t="s">
-        <v>246</v>
+      <c r="C126" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D126" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="E126" t="s">
-        <v>202</v>
-      </c>
-      <c r="G126" t="s">
-        <v>250</v>
+        <v>162</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="H126" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="I126" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>269</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>19</v>
+      <c r="C127" t="s">
+        <v>246</v>
       </c>
       <c r="D127" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="E127" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="G127" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="H127" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="I127" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4945,19 +4952,19 @@
         <v>67</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E128" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G128" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="H128" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="I128" t="s">
         <v>201</v>
@@ -4968,22 +4975,22 @@
         <v>314</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="D129" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="E129" t="s">
-        <v>214</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>49</v>
+        <v>143</v>
+      </c>
+      <c r="G129" t="s">
+        <v>264</v>
       </c>
       <c r="H129" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="I129" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4991,22 +4998,22 @@
         <v>311</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="D130" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="E130" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="H130" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="I130" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5014,45 +5021,45 @@
         <v>23</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E131" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="H131" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="I131" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C132" t="s">
-        <v>250</v>
+      <c r="C132" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D132" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="E132" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="H132" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="I132" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5060,22 +5067,22 @@
         <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D133" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="E133" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>3</v>
+        <v>324</v>
       </c>
       <c r="H133" t="s">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="I133" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5083,45 +5090,45 @@
         <v>240</v>
       </c>
       <c r="C134" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="D134" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="E134" t="s">
         <v>201</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="I134" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>337</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>49</v>
+      <c r="C135" t="s">
+        <v>264</v>
       </c>
       <c r="D135" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="E135" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="H135" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="I135" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5129,22 +5136,22 @@
         <v>261</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="D136" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="E136" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="H136" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="I136" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5152,22 +5159,22 @@
         <v>65</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="D137" t="s">
-        <v>123</v>
+        <v>212</v>
       </c>
       <c r="E137" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H137" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="I137" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5175,22 +5182,22 @@
         <v>14</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>324</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="E138" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="H138" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="I138" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5198,22 +5205,22 @@
         <v>48</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>3</v>
+        <v>324</v>
       </c>
       <c r="D139" t="s">
-        <v>124</v>
+        <v>326</v>
       </c>
       <c r="E139" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H139" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I139" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5221,13 +5228,22 @@
         <v>229</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>195</v>
+        <v>3</v>
       </c>
       <c r="D140" t="s">
-        <v>222</v>
+        <v>124</v>
       </c>
       <c r="E140" t="s">
-        <v>223</v>
+        <v>126</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H140" t="s">
+        <v>216</v>
+      </c>
+      <c r="I140" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5235,13 +5251,13 @@
         <v>155</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="D141" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="E141" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5249,13 +5265,13 @@
         <v>292</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="D142" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="E142" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5263,13 +5279,13 @@
         <v>276</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D143" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E143" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5277,13 +5293,13 @@
         <v>157</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D144" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E144" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5291,27 +5307,27 @@
         <v>32</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D145" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E145" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>246</v>
       </c>
-      <c r="C146" t="s">
-        <v>347</v>
+      <c r="C146" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D146" t="s">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="E146" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5319,10 +5335,10 @@
         <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D147" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E147" t="s">
         <v>136</v>
@@ -5333,10 +5349,10 @@
         <v>61</v>
       </c>
       <c r="C148" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D148" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E148" t="s">
         <v>136</v>
@@ -5347,10 +5363,10 @@
         <v>187</v>
       </c>
       <c r="C149" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D149" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E149" t="s">
         <v>136</v>
@@ -5361,10 +5377,10 @@
         <v>51</v>
       </c>
       <c r="C150" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D150" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E150" t="s">
         <v>136</v>
@@ -5375,10 +5391,10 @@
         <v>156</v>
       </c>
       <c r="C151" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D151" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E151" t="s">
         <v>136</v>
@@ -5389,10 +5405,10 @@
         <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D152" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E152" t="s">
         <v>136</v>
@@ -5403,10 +5419,10 @@
         <v>26</v>
       </c>
       <c r="C153" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E153" t="s">
         <v>136</v>
@@ -5416,6 +5432,15 @@
       <c r="A154" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="C154" t="s">
+        <v>354</v>
+      </c>
+      <c r="D154" t="s">
+        <v>362</v>
+      </c>
+      <c r="E154" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
@@ -5536,6 +5561,11 @@
     <row r="178" spans="1:1">
       <c r="A178" t="s">
         <v>354</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Janelia Workstation User List.xlsx
+++ b/Janelia Workstation User List.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="140" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
+    <workbookView xWindow="460" yWindow="160" windowWidth="35700" windowHeight="22620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw User Data From LDAP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="403">
   <si>
     <t>bukowinskip</t>
   </si>
@@ -1115,6 +1115,120 @@
   </si>
   <si>
     <t>Erica Ehrhardt</t>
+  </si>
+  <si>
+    <t>ranftp</t>
+  </si>
+  <si>
+    <t>Philipp Ranft</t>
+  </si>
+  <si>
+    <t>vannana</t>
+  </si>
+  <si>
+    <t>Allison Vannan</t>
+  </si>
+  <si>
+    <t>dossantosb</t>
+  </si>
+  <si>
+    <t>Bruno Dos Santos</t>
+  </si>
+  <si>
+    <t>dormanz</t>
+  </si>
+  <si>
+    <t>Zachary Dorman</t>
+  </si>
+  <si>
+    <t>ramirezd2</t>
+  </si>
+  <si>
+    <t>Daniel Ramirez</t>
+  </si>
+  <si>
+    <t>mckellarc</t>
+  </si>
+  <si>
+    <t>Claire McKellar</t>
+  </si>
+  <si>
+    <t>brillm</t>
+  </si>
+  <si>
+    <t>Martin Brill</t>
+  </si>
+  <si>
+    <t>wus10</t>
+  </si>
+  <si>
+    <t>Shiuan-Tze Wu</t>
+  </si>
+  <si>
+    <t>daviss11</t>
+  </si>
+  <si>
+    <t>Spencer Davis</t>
+  </si>
+  <si>
+    <t>jayanthiv</t>
+  </si>
+  <si>
+    <t>Vikram Jayanthi</t>
+  </si>
+  <si>
+    <t>lej</t>
+  </si>
+  <si>
+    <t>Jasmine Le</t>
+  </si>
+  <si>
+    <t>rajagopalana</t>
+  </si>
+  <si>
+    <t>Adithya Rajagopalan</t>
+  </si>
+  <si>
+    <t>zacariasr</t>
+  </si>
+  <si>
+    <t>Ricardo Zacarias</t>
+  </si>
+  <si>
+    <t>bakerc10</t>
+  </si>
+  <si>
+    <t>Christa Baker</t>
+  </si>
+  <si>
+    <t>arshadic</t>
+  </si>
+  <si>
+    <t>Cameron Arshadi</t>
+  </si>
+  <si>
+    <t>zafara</t>
+  </si>
+  <si>
+    <t>Amina Zafar</t>
+  </si>
+  <si>
+    <t>baldwinp</t>
+  </si>
+  <si>
+    <t>Perry Baldwin</t>
+  </si>
+  <si>
+    <t>shirangit</t>
+  </si>
+  <si>
+    <t>Troy Shirangi</t>
+  </si>
+  <si>
+    <t>Turner Lab</t>
+  </si>
+  <si>
+    <t>Reiser Lab</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1342,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="247">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1434,6 +1548,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1514,7 +1636,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="247">
+  <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1665,6 +1787,14 @@
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
@@ -2090,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2162,7 +2292,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2224,7 +2354,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="C10" t="s">
         <v>293</v>
@@ -2247,94 +2377,94 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>145</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>145</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>126</v>
-      </c>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I12" t="s">
-        <v>147</v>
       </c>
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" t="s">
-        <v>320</v>
+        <v>147</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="C14" t="s">
+        <v>391</v>
+      </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>392</v>
       </c>
       <c r="E14" t="s">
         <v>201</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>176</v>
+      <c r="G14" t="s">
+        <v>391</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>392</v>
       </c>
       <c r="I14" t="s">
         <v>201</v>
@@ -2343,328 +2473,328 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>397</v>
       </c>
       <c r="H15" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H16" t="s">
+        <v>321</v>
+      </c>
+      <c r="I16" t="s">
+        <v>202</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
         <v>267</v>
       </c>
-      <c r="C16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E16" t="s">
-        <v>313</v>
-      </c>
-      <c r="G16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H16" t="s">
-        <v>308</v>
-      </c>
-      <c r="I16" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" t="s">
-        <v>267</v>
+      <c r="C17" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
-      </c>
-      <c r="G17" t="s">
-        <v>267</v>
+        <v>201</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="H17" t="s">
-        <v>268</v>
+        <v>204</v>
       </c>
       <c r="I17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="D18" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="I18" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" t="s">
+        <v>309</v>
+      </c>
+      <c r="H19" t="s">
+        <v>308</v>
+      </c>
+      <c r="I19" t="s">
+        <v>313</v>
+      </c>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D20" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" t="s">
-        <v>295</v>
-      </c>
-      <c r="G20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I20" t="s">
-        <v>295</v>
-      </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>290</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
+      <c r="C21" t="s">
+        <v>254</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>217</v>
+      </c>
+      <c r="G21" t="s">
+        <v>254</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
+      <c r="A23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="s">
+        <v>377</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>401</v>
+      </c>
+      <c r="G23" t="s">
+        <v>377</v>
       </c>
       <c r="H23" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="I23" t="s">
-        <v>129</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>191</v>
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>290</v>
       </c>
       <c r="D24" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>191</v>
+        <v>295</v>
+      </c>
+      <c r="G24" t="s">
+        <v>290</v>
       </c>
       <c r="H24" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>242</v>
+      <c r="A27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" t="s">
+        <v>347</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>355</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="I28" t="s">
         <v>202</v>
@@ -2672,781 +2802,781 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
         <v>202</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>330</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="H30" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" t="s">
-        <v>211</v>
-      </c>
-      <c r="E31" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>327</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s">
-        <v>130</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="H32" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="H33" t="s">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="I33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" t="s">
-        <v>291</v>
+        <v>202</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H34" t="s">
-        <v>298</v>
+        <v>211</v>
       </c>
       <c r="I34" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
+      <c r="D35" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" t="s">
-        <v>291</v>
+      <c r="A36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="D36" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="E36" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="G36" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
       <c r="H36" t="s">
-        <v>253</v>
+        <v>382</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" t="s">
-        <v>248</v>
-      </c>
-      <c r="H37" t="s">
-        <v>249</v>
-      </c>
-      <c r="I37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>291</v>
-      </c>
-      <c r="C38" t="s">
-        <v>252</v>
-      </c>
-      <c r="D38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="H38" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" t="s">
+        <v>298</v>
+      </c>
+      <c r="I39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" t="s">
+        <v>361</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="H40" t="s">
+        <v>84</v>
+      </c>
+      <c r="I40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C41" t="s">
+        <v>381</v>
+      </c>
+      <c r="D41" t="s">
+        <v>382</v>
+      </c>
+      <c r="E41" t="s">
+        <v>202</v>
+      </c>
+      <c r="G41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H41" t="s">
+        <v>253</v>
+      </c>
+      <c r="I41" t="s">
         <v>132</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="H39" t="s">
-        <v>364</v>
-      </c>
-      <c r="I39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D40" t="s">
-        <v>215</v>
-      </c>
-      <c r="E40" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" t="s">
-        <v>85</v>
-      </c>
-      <c r="I40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="H41" t="s">
-        <v>336</v>
-      </c>
-      <c r="I41" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" t="s">
-        <v>134</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H42" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="I42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>335</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="E43" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G43" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="H43" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>72</v>
+      <c r="A44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" t="s">
+        <v>291</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>192</v>
+        <v>295</v>
+      </c>
+      <c r="G44" t="s">
+        <v>369</v>
       </c>
       <c r="H44" t="s">
-        <v>219</v>
+        <v>370</v>
       </c>
       <c r="I44" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>334</v>
-      </c>
-      <c r="C45" t="s">
-        <v>328</v>
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>329</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
-      </c>
-      <c r="G45" t="s">
-        <v>279</v>
+        <v>126</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="H45" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="I45" t="s">
-        <v>299</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>192</v>
+        <v>252</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>173</v>
+        <v>363</v>
       </c>
       <c r="H46" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="I46" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>299</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>46</v>
+        <v>132</v>
+      </c>
+      <c r="G47" t="s">
+        <v>363</v>
       </c>
       <c r="H47" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>328</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>173</v>
+      <c r="A48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" t="s">
+        <v>371</v>
       </c>
       <c r="D48" t="s">
-        <v>174</v>
+        <v>372</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>46</v>
+      <c r="A49" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" t="s">
+        <v>369</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>370</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="H49" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="I49" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>279</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" t="s">
-        <v>131</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>64</v>
+      <c r="A51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" t="s">
+        <v>328</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
+        <v>329</v>
       </c>
       <c r="I51" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>75</v>
+      <c r="A52" t="s">
+        <v>363</v>
+      </c>
+      <c r="C52" t="s">
+        <v>363</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>364</v>
       </c>
       <c r="E52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" t="s">
         <v>202</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H52" t="s">
-        <v>92</v>
-      </c>
-      <c r="I52" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" t="s">
+        <v>279</v>
+      </c>
+      <c r="H53" t="s">
+        <v>289</v>
+      </c>
+      <c r="I53" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D54" t="s">
+        <v>336</v>
+      </c>
+      <c r="E54" t="s">
+        <v>217</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D53" t="s">
-        <v>263</v>
-      </c>
-      <c r="E53" t="s">
-        <v>266</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H53" t="s">
-        <v>238</v>
-      </c>
-      <c r="I53" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="H54" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="I54" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>136</v>
-      </c>
-      <c r="G55" t="s">
-        <v>278</v>
+        <v>133</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
       <c r="I55" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
+        <v>328</v>
+      </c>
+      <c r="D56" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" t="s">
-        <v>137</v>
-      </c>
-      <c r="G56" t="s">
-        <v>277</v>
-      </c>
       <c r="H56" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="I56" t="s">
-        <v>299</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D57" t="s">
-        <v>238</v>
-      </c>
-      <c r="E57" t="s">
-        <v>239</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H57" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" t="s">
+        <v>279</v>
+      </c>
+      <c r="D58" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" t="s">
+        <v>299</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" t="s">
-        <v>231</v>
-      </c>
-      <c r="E58" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="I58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" t="s">
+        <v>349</v>
+      </c>
+      <c r="D59" t="s">
+        <v>357</v>
+      </c>
+      <c r="E59" t="s">
+        <v>136</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" t="s">
-        <v>288</v>
-      </c>
-      <c r="E59" t="s">
-        <v>299</v>
-      </c>
-      <c r="G59" t="s">
-        <v>258</v>
-      </c>
-      <c r="H59" t="s">
-        <v>259</v>
-      </c>
-      <c r="I59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" t="s">
-        <v>277</v>
-      </c>
-      <c r="D60" t="s">
-        <v>287</v>
-      </c>
-      <c r="E60" t="s">
-        <v>299</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" t="s">
-        <v>138</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="H61" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="I61" t="s">
-        <v>138</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="H62" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="I62" t="s">
         <v>138</v>
@@ -3454,229 +3584,229 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C63" t="s">
-        <v>258</v>
+        <v>173</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
+      </c>
+      <c r="G63" t="s">
+        <v>278</v>
       </c>
       <c r="H63" t="s">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c r="I63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" t="s">
+        <v>202</v>
+      </c>
+      <c r="G64" t="s">
+        <v>277</v>
+      </c>
+      <c r="H64" t="s">
+        <v>287</v>
+      </c>
+      <c r="I64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" t="s">
+        <v>266</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>278</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" t="s">
-        <v>274</v>
-      </c>
-      <c r="H64" t="s">
-        <v>284</v>
-      </c>
-      <c r="I64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>277</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E65" t="s">
-        <v>138</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H65" t="s">
-        <v>209</v>
-      </c>
-      <c r="I65" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>37</v>
+        <v>135</v>
+      </c>
+      <c r="G66" t="s">
+        <v>383</v>
       </c>
       <c r="H66" t="s">
-        <v>99</v>
+        <v>384</v>
       </c>
       <c r="I66" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="I67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" t="s">
-        <v>274</v>
+        <v>262</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D68" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="E68" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" t="s">
+        <v>258</v>
+      </c>
+      <c r="H68" t="s">
+        <v>259</v>
+      </c>
+      <c r="I68" t="s">
         <v>132</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H68" t="s">
-        <v>100</v>
-      </c>
-      <c r="I68" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" t="s">
-        <v>315</v>
+      <c r="A69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D69" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="E69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G69" t="s">
-        <v>272</v>
+        <v>239</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>282</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="D70" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
-      </c>
-      <c r="G70" t="s">
-        <v>339</v>
+        <v>138</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="H70" t="s">
-        <v>340</v>
+        <v>96</v>
       </c>
       <c r="I70" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>278</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
-      </c>
-      <c r="G71" t="s">
-        <v>255</v>
+        <v>299</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="I71" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>153</v>
+        <v>237</v>
+      </c>
+      <c r="C72" t="s">
+        <v>277</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" t="s">
-        <v>316</v>
+        <v>299</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="H72" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="I72" t="s">
         <v>138</v>
@@ -3684,344 +3814,344 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D73" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>31</v>
+        <v>138</v>
+      </c>
+      <c r="G73" t="s">
+        <v>274</v>
       </c>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="I73" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C74" t="s">
-        <v>272</v>
+        <v>383</v>
       </c>
       <c r="D74" t="s">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="I74" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>315</v>
-      </c>
-      <c r="C75" t="s">
-        <v>339</v>
+        <v>277</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>94</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I75" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D76" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
-      </c>
-      <c r="G76" t="s">
-        <v>244</v>
+        <v>132</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="H76" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="I76" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" t="s">
-        <v>316</v>
+        <v>11</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>317</v>
+        <v>95</v>
       </c>
       <c r="E77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" t="s">
         <v>138</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H77" t="s">
-        <v>224</v>
-      </c>
-      <c r="I77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" t="s">
-        <v>101</v>
-      </c>
-      <c r="E78" t="s">
-        <v>137</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>178</v>
+      <c r="G78" t="s">
+        <v>272</v>
       </c>
       <c r="H78" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="I78" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" t="s">
+        <v>138</v>
+      </c>
+      <c r="G79" t="s">
+        <v>339</v>
+      </c>
+      <c r="H79" t="s">
+        <v>340</v>
+      </c>
+      <c r="I79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" t="s">
+        <v>255</v>
+      </c>
+      <c r="H80" t="s">
+        <v>257</v>
+      </c>
+      <c r="I80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" t="s">
+        <v>284</v>
+      </c>
+      <c r="E81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" t="s">
+        <v>316</v>
+      </c>
+      <c r="H81" t="s">
+        <v>317</v>
+      </c>
+      <c r="I81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" t="s">
+        <v>315</v>
+      </c>
+      <c r="D82" t="s">
+        <v>318</v>
+      </c>
+      <c r="E82" t="s">
+        <v>136</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s">
         <v>101</v>
       </c>
-      <c r="E79" t="s">
+      <c r="I82" t="s">
         <v>137</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H79" t="s">
-        <v>103</v>
-      </c>
-      <c r="I79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" t="s">
-        <v>102</v>
-      </c>
-      <c r="E80" t="s">
-        <v>137</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" t="s">
-        <v>104</v>
-      </c>
-      <c r="I80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" t="s">
-        <v>245</v>
-      </c>
-      <c r="E81" t="s">
-        <v>203</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H81" t="s">
-        <v>105</v>
-      </c>
-      <c r="I81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" t="s">
-        <v>339</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D82" t="s">
-        <v>224</v>
-      </c>
-      <c r="E82" t="s">
-        <v>138</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H82" t="s">
-        <v>226</v>
-      </c>
-      <c r="I82" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D83" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="C84" t="s">
-        <v>275</v>
+      <c r="A84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" t="s">
-        <v>310</v>
+        <v>133</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H84" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="I84" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
-        <v>31</v>
+      <c r="A85" t="s">
+        <v>274</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="E85" t="s">
-        <v>137</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>322</v>
+        <v>131</v>
+      </c>
+      <c r="G85" t="s">
+        <v>244</v>
       </c>
       <c r="H85" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="I85" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
-        <v>22</v>
+      <c r="A86" t="s">
+        <v>315</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E86" t="s">
-        <v>137</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>193</v>
+        <v>139</v>
+      </c>
+      <c r="G86" t="s">
+        <v>385</v>
       </c>
       <c r="H86" t="s">
-        <v>220</v>
+        <v>386</v>
       </c>
       <c r="I86" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>57</v>
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>282</v>
       </c>
       <c r="E87" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I87" t="s">
         <v>138</v>
@@ -4029,114 +4159,114 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>198</v>
+        <v>37</v>
+      </c>
+      <c r="C88" t="s">
+        <v>339</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="E88" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="I88" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>43</v>
+        <v>153</v>
+      </c>
+      <c r="C89" t="s">
+        <v>255</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="E89" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H89" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I89" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="D90" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="E90" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I90" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>322</v>
+        <v>154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>316</v>
       </c>
       <c r="D91" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H91" t="s">
+        <v>105</v>
+      </c>
+      <c r="I91" t="s">
         <v>137</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H91" t="s">
-        <v>110</v>
-      </c>
-      <c r="I91" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="1" t="s">
-        <v>17</v>
+      <c r="A92" t="s">
+        <v>272</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="D92" t="s">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="E92" t="s">
-        <v>141</v>
-      </c>
-      <c r="G92" t="s">
-        <v>344</v>
+        <v>137</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="H92" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="I92" t="s">
         <v>138</v>
@@ -4144,114 +4274,114 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>197</v>
+        <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="E93" t="s">
-        <v>138</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>332</v>
+        <v>137</v>
+      </c>
+      <c r="G93" t="s">
+        <v>375</v>
       </c>
       <c r="H93" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="I94" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>66</v>
+      <c r="A95" t="s">
+        <v>354</v>
+      </c>
+      <c r="C95" t="s">
+        <v>244</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>245</v>
       </c>
       <c r="E95" t="s">
-        <v>128</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>16</v>
+        <v>203</v>
+      </c>
+      <c r="G95" t="s">
+        <v>310</v>
       </c>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="I95" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>4</v>
+      <c r="A96" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="C96" t="s">
+        <v>385</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>386</v>
       </c>
       <c r="E96" t="s">
-        <v>126</v>
-      </c>
-      <c r="G96" t="s">
-        <v>271</v>
+        <v>223</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="H96" t="s">
-        <v>142</v>
+        <v>325</v>
       </c>
       <c r="I96" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>224</v>
       </c>
       <c r="E97" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="H97" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="I97" t="s">
         <v>141</v>
@@ -4259,114 +4389,114 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C98" t="s">
-        <v>344</v>
+        <v>22</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>345</v>
+        <v>205</v>
       </c>
       <c r="E98" t="s">
+        <v>201</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H98" t="s">
+        <v>225</v>
+      </c>
+      <c r="I98" t="s">
         <v>138</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-      <c r="I98" t="s">
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>275</v>
+      </c>
+      <c r="D99" t="s">
+        <v>285</v>
+      </c>
+      <c r="E99" t="s">
+        <v>136</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>107</v>
+      </c>
+      <c r="I99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D99" t="s">
-        <v>333</v>
-      </c>
-      <c r="E99" t="s">
-        <v>202</v>
-      </c>
-      <c r="G99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H99" t="s">
-        <v>303</v>
-      </c>
-      <c r="I99" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" t="s">
-        <v>322</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D100" t="s">
-        <v>169</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="G100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" t="s">
+        <v>108</v>
+      </c>
+      <c r="I100" t="s">
         <v>128</v>
       </c>
-      <c r="G100" t="s">
-        <v>234</v>
-      </c>
-      <c r="H100" t="s">
-        <v>235</v>
-      </c>
-      <c r="I100" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
-        <v>193</v>
+      <c r="A101" t="s">
+        <v>385</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G101" t="s">
-        <v>270</v>
+        <v>137</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="I101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" t="s">
-        <v>271</v>
+        <v>196</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D102" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="H102" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I102" t="s">
         <v>126</v>
@@ -4374,91 +4504,91 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="D103" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="E103" t="s">
-        <v>141</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>184</v>
+        <v>138</v>
+      </c>
+      <c r="G103" t="s">
+        <v>344</v>
       </c>
       <c r="H103" t="s">
-        <v>210</v>
+        <v>345</v>
       </c>
       <c r="I103" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="C104" t="s">
+        <v>375</v>
       </c>
       <c r="D104" t="s">
-        <v>113</v>
+        <v>376</v>
       </c>
       <c r="E104" t="s">
-        <v>137</v>
-      </c>
-      <c r="G104" t="s">
-        <v>341</v>
+        <v>201</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="H104" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="I104" t="s">
-        <v>343</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C105" t="s">
-        <v>302</v>
+        <v>17</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
-      </c>
-      <c r="G105" t="s">
-        <v>269</v>
+        <v>140</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="H105" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="I105" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="1" t="s">
-        <v>4</v>
+      <c r="A106" t="s">
+        <v>275</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>351</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>359</v>
       </c>
       <c r="E106" t="s">
-        <v>236</v>
-      </c>
-      <c r="G106" t="s">
-        <v>314</v>
+        <v>136</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H106" t="s">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="I106" t="s">
         <v>132</v>
@@ -4466,1111 +4596,1533 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C107" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D107" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="E107" t="s">
-        <v>127</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>23</v>
+        <v>132</v>
+      </c>
+      <c r="G107" t="s">
+        <v>271</v>
       </c>
       <c r="H107" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D108" t="s">
+        <v>325</v>
+      </c>
+      <c r="E108" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" t="s">
-        <v>344</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>114</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
+        <v>387</v>
+      </c>
+      <c r="H108" t="s">
+        <v>388</v>
+      </c>
+      <c r="I108" t="s">
         <v>126</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s">
-        <v>116</v>
-      </c>
-      <c r="I108" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" t="s">
-        <v>332</v>
+      <c r="A109" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D109" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>179</v>
+        <v>141</v>
+      </c>
+      <c r="G109" t="s">
+        <v>373</v>
       </c>
       <c r="H109" t="s">
-        <v>206</v>
+        <v>374</v>
       </c>
       <c r="I109" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C110" t="s">
-        <v>341</v>
+        <v>198</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>225</v>
       </c>
       <c r="E110" t="s">
-        <v>343</v>
+        <v>138</v>
       </c>
       <c r="G110" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="H110" t="s">
-        <v>241</v>
+        <v>366</v>
       </c>
       <c r="I110" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>307</v>
-      </c>
-      <c r="C111" t="s">
-        <v>269</v>
+        <v>375</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="E111" t="s">
         <v>138</v>
       </c>
-      <c r="G111" t="s">
-        <v>337</v>
+      <c r="G111" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="H111" t="s">
-        <v>338</v>
+        <v>112</v>
       </c>
       <c r="I111" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C112" t="s">
-        <v>314</v>
+        <v>43</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D112" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="E112" t="s">
-        <v>132</v>
-      </c>
-      <c r="G112" t="s">
-        <v>261</v>
+        <v>128</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H112" t="s">
-        <v>260</v>
+        <v>113</v>
       </c>
       <c r="I112" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="1" t="s">
-        <v>168</v>
+      <c r="A113" t="s">
+        <v>351</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>137</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>65</v>
+        <v>126</v>
+      </c>
+      <c r="G113" t="s">
+        <v>302</v>
       </c>
       <c r="H113" t="s">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="I113" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
-        <v>16</v>
+      <c r="A114" t="s">
+        <v>310</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D114" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E114" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>14</v>
+        <v>126</v>
+      </c>
+      <c r="G114" t="s">
+        <v>234</v>
       </c>
       <c r="H114" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="I114" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>179</v>
+      <c r="A115" t="s">
+        <v>322</v>
+      </c>
+      <c r="C115" t="s">
+        <v>344</v>
       </c>
       <c r="D115" t="s">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="E115" t="s">
-        <v>201</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>48</v>
+        <v>138</v>
+      </c>
+      <c r="G115" t="s">
+        <v>270</v>
       </c>
       <c r="H115" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="I115" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" t="s">
-        <v>271</v>
-      </c>
-      <c r="C116" t="s">
-        <v>240</v>
+      <c r="A116" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>333</v>
       </c>
       <c r="E116" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="I116" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C117" t="s">
-        <v>337</v>
+        <v>197</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="D117" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
       <c r="E117" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="H117" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="I117" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C118" t="s">
-        <v>261</v>
+        <v>13</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="E118" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G118" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="H118" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="I118" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>65</v>
+      <c r="A119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>271</v>
       </c>
       <c r="D119" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="E119" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G119" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H119" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I119" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="C120" t="s">
+        <v>387</v>
       </c>
       <c r="D120" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="E120" t="s">
-        <v>131</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
+      </c>
+      <c r="G120" t="s">
+        <v>314</v>
       </c>
       <c r="H120" t="s">
-        <v>161</v>
+        <v>319</v>
       </c>
       <c r="I120" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>270</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>48</v>
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>373</v>
       </c>
       <c r="D121" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="E121" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" t="s">
-        <v>246</v>
+        <v>202</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="I121" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>229</v>
+        <v>74</v>
+      </c>
+      <c r="C122" t="s">
+        <v>365</v>
       </c>
       <c r="D122" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="E122" t="s">
         <v>132</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H122" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I122" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="1" t="s">
-        <v>15</v>
+      <c r="A123" t="s">
+        <v>344</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="E123" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="H123" t="s">
-        <v>120</v>
+        <v>206</v>
       </c>
       <c r="I123" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C124" t="s">
-        <v>292</v>
+      <c r="A124" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D124" t="s">
-        <v>296</v>
+        <v>113</v>
       </c>
       <c r="E124" t="s">
-        <v>295</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>187</v>
+        <v>137</v>
+      </c>
+      <c r="G124" t="s">
+        <v>240</v>
       </c>
       <c r="H124" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="I124" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" t="s">
-        <v>341</v>
+      <c r="A125" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C125" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="D125" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="E125" t="s">
-        <v>141</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>156</v>
+        <v>201</v>
+      </c>
+      <c r="G125" t="s">
+        <v>337</v>
       </c>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="I125" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>157</v>
+      <c r="A126" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" t="s">
+        <v>234</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="E126" t="s">
-        <v>162</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>26</v>
+        <v>236</v>
+      </c>
+      <c r="G126" t="s">
+        <v>261</v>
       </c>
       <c r="H126" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="I126" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" t="s">
-        <v>269</v>
+      <c r="A127" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C127" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="D127" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="E127" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="G127" t="s">
-        <v>250</v>
+        <v>399</v>
       </c>
       <c r="H127" t="s">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="I127" t="s">
-        <v>138</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D128" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E128" t="s">
-        <v>142</v>
-      </c>
-      <c r="G128" t="s">
-        <v>304</v>
+        <v>126</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H128" t="s">
-        <v>305</v>
+        <v>117</v>
       </c>
       <c r="I128" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D129" t="s">
+        <v>210</v>
+      </c>
+      <c r="E129" t="s">
+        <v>203</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>118</v>
+      </c>
+      <c r="I129" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>341</v>
+      </c>
+      <c r="D130" t="s">
+        <v>342</v>
+      </c>
+      <c r="E130" t="s">
+        <v>343</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H130" t="s">
+        <v>118</v>
+      </c>
+      <c r="I130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" t="s">
+        <v>269</v>
+      </c>
+      <c r="D131" t="s">
+        <v>280</v>
+      </c>
+      <c r="E131" t="s">
+        <v>138</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H131" t="s">
+        <v>232</v>
+      </c>
+      <c r="I131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" t="s">
         <v>314</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D129" t="s">
-        <v>120</v>
-      </c>
-      <c r="E129" t="s">
-        <v>143</v>
-      </c>
-      <c r="G129" t="s">
-        <v>264</v>
-      </c>
-      <c r="H129" t="s">
-        <v>265</v>
-      </c>
-      <c r="I129" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" t="s">
-        <v>311</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D130" t="s">
-        <v>213</v>
-      </c>
-      <c r="E130" t="s">
-        <v>214</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H130" t="s">
-        <v>122</v>
-      </c>
-      <c r="I130" t="s">
+      <c r="D132" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" t="s">
+        <v>132</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H132" t="s">
+        <v>159</v>
+      </c>
+      <c r="I132" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>373</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>115</v>
+      </c>
+      <c r="E133" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D131" t="s">
-        <v>160</v>
-      </c>
-      <c r="E131" t="s">
-        <v>133</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H131" t="s">
-        <v>212</v>
-      </c>
-      <c r="I131" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" t="s">
-        <v>121</v>
-      </c>
-      <c r="E132" t="s">
-        <v>128</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H132" t="s">
-        <v>123</v>
-      </c>
-      <c r="I132" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C133" t="s">
-        <v>250</v>
-      </c>
-      <c r="D133" t="s">
-        <v>251</v>
-      </c>
-      <c r="E133" t="s">
-        <v>138</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>324</v>
+      <c r="G133" t="s">
+        <v>292</v>
       </c>
       <c r="H133" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="I133" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>240</v>
-      </c>
-      <c r="C134" t="s">
-        <v>304</v>
+        <v>365</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="E134" t="s">
-        <v>201</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>3</v>
+        <v>133</v>
+      </c>
+      <c r="G134" t="s">
+        <v>276</v>
       </c>
       <c r="H134" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="I134" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" t="s">
-        <v>337</v>
-      </c>
-      <c r="C135" t="s">
-        <v>264</v>
+      <c r="A135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D135" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="E135" t="s">
         <v>201</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="H135" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="I135" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" t="s">
-        <v>261</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>49</v>
+      <c r="A136" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" t="s">
+        <v>240</v>
       </c>
       <c r="D136" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="E136" t="s">
-        <v>137</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
+      </c>
+      <c r="G136" t="s">
+        <v>246</v>
       </c>
       <c r="H136" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="I136" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>186</v>
+      <c r="A137" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" t="s">
+        <v>348</v>
       </c>
       <c r="D137" t="s">
-        <v>212</v>
+        <v>356</v>
       </c>
       <c r="E137" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="H137" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="I137" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>25</v>
+        <v>234</v>
+      </c>
+      <c r="C138" t="s">
+        <v>337</v>
       </c>
       <c r="D138" t="s">
-        <v>123</v>
+        <v>338</v>
       </c>
       <c r="E138" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="H138" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="I138" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>324</v>
+      <c r="A139" t="s">
+        <v>270</v>
+      </c>
+      <c r="C139" t="s">
+        <v>261</v>
       </c>
       <c r="D139" t="s">
-        <v>326</v>
+        <v>260</v>
       </c>
       <c r="E139" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H139" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I139" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>399</v>
       </c>
       <c r="D140" t="s">
-        <v>124</v>
+        <v>400</v>
       </c>
       <c r="E140" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="H140" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="I140" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="D141" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="E141" t="s">
-        <v>223</v>
+        <v>135</v>
+      </c>
+      <c r="G141" t="s">
+        <v>367</v>
+      </c>
+      <c r="H141" t="s">
+        <v>368</v>
+      </c>
+      <c r="I141" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" t="s">
-        <v>292</v>
+      <c r="A142" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E142" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H142" t="s">
+        <v>121</v>
+      </c>
+      <c r="I142" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>276</v>
+        <v>341</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="D143" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="E143" t="s">
-        <v>201</v>
+        <v>131</v>
+      </c>
+      <c r="G143" t="s">
+        <v>250</v>
+      </c>
+      <c r="H143" t="s">
+        <v>251</v>
+      </c>
+      <c r="I143" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D144" t="s">
+        <v>232</v>
+      </c>
+      <c r="E144" t="s">
+        <v>132</v>
+      </c>
+      <c r="G144" t="s">
+        <v>304</v>
+      </c>
+      <c r="H144" t="s">
+        <v>305</v>
+      </c>
+      <c r="I144" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" t="s">
+        <v>159</v>
+      </c>
+      <c r="E145" t="s">
+        <v>129</v>
+      </c>
+      <c r="G145" t="s">
+        <v>264</v>
+      </c>
+      <c r="H145" t="s">
+        <v>265</v>
+      </c>
+      <c r="I145" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" t="s">
+        <v>292</v>
+      </c>
+      <c r="D146" t="s">
+        <v>296</v>
+      </c>
+      <c r="E146" t="s">
+        <v>295</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H146" t="s">
+        <v>122</v>
+      </c>
+      <c r="I146" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>314</v>
+      </c>
+      <c r="C147" t="s">
+        <v>276</v>
+      </c>
+      <c r="D147" t="s">
+        <v>286</v>
+      </c>
+      <c r="E147" t="s">
+        <v>141</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H147" t="s">
+        <v>212</v>
+      </c>
+      <c r="I147" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D148" t="s">
+        <v>161</v>
+      </c>
+      <c r="E148" t="s">
+        <v>162</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H148" t="s">
+        <v>123</v>
+      </c>
+      <c r="I148" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" t="s">
+        <v>246</v>
+      </c>
+      <c r="D149" t="s">
+        <v>247</v>
+      </c>
+      <c r="E149" t="s">
+        <v>202</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H149" t="s">
+        <v>326</v>
+      </c>
+      <c r="I149" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" t="s">
+        <v>119</v>
+      </c>
+      <c r="E150" t="s">
+        <v>142</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H150" t="s">
+        <v>124</v>
+      </c>
+      <c r="I150" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151" t="s">
+        <v>143</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H151" t="s">
+        <v>222</v>
+      </c>
+      <c r="I151" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>240</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D152" t="s">
+        <v>213</v>
+      </c>
+      <c r="E152" t="s">
+        <v>214</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H152" t="s">
+        <v>125</v>
+      </c>
+      <c r="I152" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>348</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E153" t="s">
+        <v>133</v>
+      </c>
+      <c r="G153" t="s">
+        <v>379</v>
+      </c>
+      <c r="H153" t="s">
+        <v>380</v>
+      </c>
+      <c r="I153" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" t="s">
+        <v>367</v>
+      </c>
+      <c r="D154" t="s">
+        <v>368</v>
+      </c>
+      <c r="E154" t="s">
+        <v>138</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H154" t="s">
+        <v>207</v>
+      </c>
+      <c r="I154" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>261</v>
+      </c>
+      <c r="B155" s="21"/>
+      <c r="C155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>121</v>
+      </c>
+      <c r="E155" t="s">
+        <v>128</v>
+      </c>
+      <c r="G155" t="s">
+        <v>389</v>
+      </c>
+      <c r="H155" t="s">
+        <v>390</v>
+      </c>
+      <c r="I155" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>399</v>
+      </c>
+      <c r="C156" t="s">
+        <v>250</v>
+      </c>
+      <c r="D156" t="s">
+        <v>251</v>
+      </c>
+      <c r="E156" t="s">
+        <v>138</v>
+      </c>
+      <c r="G156" t="s">
+        <v>395</v>
+      </c>
+      <c r="H156" t="s">
+        <v>396</v>
+      </c>
+      <c r="I156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C157" t="s">
+        <v>304</v>
+      </c>
+      <c r="D157" t="s">
+        <v>305</v>
+      </c>
+      <c r="E157" t="s">
+        <v>201</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D144" t="s">
+      <c r="H157" t="s">
         <v>227</v>
       </c>
-      <c r="E144" t="s">
+      <c r="I157" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="1" t="s">
+    <row r="158" spans="1:9">
+      <c r="A158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>264</v>
+      </c>
+      <c r="D158" t="s">
+        <v>265</v>
+      </c>
+      <c r="E158" t="s">
+        <v>201</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H158" t="s">
+        <v>208</v>
+      </c>
+      <c r="I158" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159" t="s">
+        <v>122</v>
+      </c>
+      <c r="E159" t="s">
+        <v>137</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H159" t="s">
+        <v>216</v>
+      </c>
+      <c r="I159" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D160" t="s">
+        <v>212</v>
+      </c>
+      <c r="E160" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" t="s">
+        <v>123</v>
+      </c>
+      <c r="E161" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>292</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D162" t="s">
+        <v>326</v>
+      </c>
+      <c r="E162" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>124</v>
+      </c>
+      <c r="E163" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D164" t="s">
+        <v>222</v>
+      </c>
+      <c r="E164" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D165" t="s">
+        <v>125</v>
+      </c>
+      <c r="E165" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>246</v>
+      </c>
+      <c r="C166" t="s">
+        <v>379</v>
+      </c>
+      <c r="D166" t="s">
+        <v>380</v>
+      </c>
+      <c r="E166" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" t="s">
+        <v>207</v>
+      </c>
+      <c r="E167" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C168" t="s">
+        <v>389</v>
+      </c>
+      <c r="D168" t="s">
+        <v>390</v>
+      </c>
+      <c r="E168" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C169" t="s">
+        <v>395</v>
+      </c>
+      <c r="D169" t="s">
+        <v>396</v>
+      </c>
+      <c r="E169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D170" t="s">
+        <v>227</v>
+      </c>
+      <c r="E170" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D171" t="s">
         <v>208</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E171" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>246</v>
-      </c>
-      <c r="C146" s="1" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
+        <v>352</v>
+      </c>
+      <c r="D172" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>367</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D173" t="s">
         <v>216</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E173" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" t="s">
-        <v>347</v>
-      </c>
-      <c r="D147" t="s">
-        <v>355</v>
-      </c>
-      <c r="E147" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C148" t="s">
-        <v>348</v>
-      </c>
-      <c r="D148" t="s">
-        <v>356</v>
-      </c>
-      <c r="E148" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C149" t="s">
-        <v>349</v>
-      </c>
-      <c r="D149" t="s">
-        <v>357</v>
-      </c>
-      <c r="E149" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C150" t="s">
-        <v>350</v>
-      </c>
-      <c r="D150" t="s">
-        <v>358</v>
-      </c>
-      <c r="E150" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C151" t="s">
-        <v>351</v>
-      </c>
-      <c r="D151" t="s">
-        <v>359</v>
-      </c>
-      <c r="E151" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>352</v>
-      </c>
-      <c r="D152" t="s">
-        <v>360</v>
-      </c>
-      <c r="E152" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="1" t="s">
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C153" t="s">
-        <v>353</v>
-      </c>
-      <c r="D153" t="s">
-        <v>361</v>
-      </c>
-      <c r="E153" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="1" t="s">
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C154" t="s">
-        <v>354</v>
-      </c>
-      <c r="D154" t="s">
-        <v>362</v>
-      </c>
-      <c r="E154" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
         <v>304</v>
-      </c>
-      <c r="B155" s="21"/>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>353</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>354</v>
+      <c r="A178" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>363</v>
+      <c r="A179" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:A170">
-    <sortCondition ref="A170"/>
+  <sortState ref="A4:A198">
+    <sortCondition ref="A198"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5584,10 +6136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M147"/>
+  <dimension ref="B4:M166"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D147"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5836,14 +6388,14 @@
       <c r="M16" s="13"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="1" t="s">
-        <v>176</v>
+      <c r="B17" t="s">
+        <v>389</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>390</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="I17" s="15" t="s">
         <v>138</v>
@@ -5857,10 +6409,10 @@
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D18" t="s">
         <v>201</v>
@@ -5877,7 +6429,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
         <v>200</v>
@@ -5897,10 +6449,10 @@
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>201</v>
@@ -5917,10 +6469,10 @@
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
         <v>201</v>
@@ -5936,11 +6488,11 @@
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" t="s">
-        <v>264</v>
+      <c r="B22" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
         <v>201</v>
@@ -5956,11 +6508,11 @@
       <c r="M22" s="13"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="1" t="s">
-        <v>180</v>
+      <c r="B23" t="s">
+        <v>264</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="D23" t="s">
         <v>201</v>
@@ -5977,10 +6529,10 @@
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
         <v>201</v>
@@ -5996,11 +6548,11 @@
       <c r="M24" s="13"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" t="s">
-        <v>302</v>
+      <c r="B25" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="D25" t="s">
         <v>201</v>
@@ -6017,10 +6569,10 @@
     </row>
     <row r="26" spans="2:13">
       <c r="B26" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D26" t="s">
         <v>201</v>
@@ -6036,14 +6588,14 @@
       <c r="M26" s="13"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="1" t="s">
-        <v>41</v>
+      <c r="B27" t="s">
+        <v>304</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="I27" s="15" t="s">
         <v>142</v>
@@ -6057,13 +6609,13 @@
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>376</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="I28" s="15" t="s">
         <v>141</v>
@@ -6076,14 +6628,14 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="1" t="s">
-        <v>61</v>
+      <c r="B29" t="s">
+        <v>391</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>392</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>236</v>
@@ -6097,13 +6649,13 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>126</v>
@@ -6117,13 +6669,13 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I31" s="15" t="s">
         <v>346</v>
@@ -6136,14 +6688,14 @@
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" t="s">
-        <v>347</v>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>355</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>139</v>
@@ -6156,11 +6708,11 @@
       <c r="M32" s="13"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" t="s">
-        <v>348</v>
+      <c r="B33" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
         <v>136</v>
@@ -6177,10 +6729,10 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" t="s">
-        <v>349</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="D34" t="s">
         <v>136</v>
@@ -6197,10 +6749,10 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D35" t="s">
         <v>136</v>
@@ -6217,10 +6769,10 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C36" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D36" t="s">
         <v>136</v>
@@ -6237,10 +6789,10 @@
     </row>
     <row r="37" spans="2:13">
       <c r="B37" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C37" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D37" t="s">
         <v>136</v>
@@ -6257,10 +6809,10 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D38" t="s">
         <v>136</v>
@@ -6277,10 +6829,10 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D39" t="s">
         <v>136</v>
@@ -6296,28 +6848,28 @@
       <c r="M39" s="13"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="1" t="s">
-        <v>195</v>
+      <c r="B40" t="s">
+        <v>352</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>360</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="I40" s="16"/>
       <c r="J40" s="11"/>
       <c r="K40" s="16"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="1" t="s">
-        <v>43</v>
+      <c r="B41" t="s">
+        <v>353</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>361</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I41" s="17" t="s">
         <v>170</v>
@@ -6329,44 +6881,44 @@
       <c r="K41" s="15"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="1" t="s">
-        <v>230</v>
+      <c r="B42" t="s">
+        <v>354</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="1" t="s">
-        <v>59</v>
+      <c r="B44" t="s">
+        <v>385</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>386</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
         <v>138</v>
@@ -6374,10 +6926,10 @@
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="1" t="s">
-        <v>68</v>
+        <v>230</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
         <v>138</v>
@@ -6385,10 +6937,10 @@
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="1" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>138</v>
@@ -6396,10 +6948,10 @@
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="1" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
         <v>138</v>
@@ -6407,10 +6959,10 @@
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="1" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
         <v>138</v>
@@ -6418,32 +6970,32 @@
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" t="s">
-        <v>269</v>
+      <c r="B51" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="D51" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" t="s">
-        <v>250</v>
+      <c r="B52" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C52" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
         <v>138</v>
@@ -6451,208 +7003,208 @@
     </row>
     <row r="53" spans="2:4">
       <c r="B53" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" t="s">
-        <v>316</v>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>317</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D55" s="24" t="s">
+      <c r="B55" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D55" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="1" t="s">
-        <v>157</v>
+      <c r="B56" t="s">
+        <v>250</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="D56" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="C58" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="D58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" t="s">
+        <v>368</v>
+      </c>
+      <c r="D60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>371</v>
+      </c>
+      <c r="C61" t="s">
+        <v>372</v>
+      </c>
+      <c r="D61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C60" t="s">
-        <v>263</v>
-      </c>
-      <c r="D60" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C61" t="s">
-        <v>238</v>
-      </c>
-      <c r="D61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" t="s">
-        <v>279</v>
-      </c>
-      <c r="C62" t="s">
-        <v>289</v>
-      </c>
-      <c r="D62" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" t="s">
-        <v>278</v>
-      </c>
-      <c r="C63" t="s">
-        <v>288</v>
-      </c>
-      <c r="D63" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="C64" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="D64" t="s">
-        <v>299</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="1" t="s">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="1" t="s">
-        <v>34</v>
+      <c r="B68" t="s">
+        <v>279</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="1" t="s">
-        <v>37</v>
+      <c r="B69" t="s">
+        <v>278</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="1" t="s">
-        <v>40</v>
+      <c r="B70" t="s">
+        <v>277</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
         <v>133</v>
@@ -6660,187 +7212,187 @@
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="1" t="s">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D73" s="24" t="s">
+      <c r="B73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" t="s">
-        <v>309</v>
+      <c r="B74" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>308</v>
+        <v>94</v>
       </c>
       <c r="D74" t="s">
-        <v>313</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="1" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="1" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" t="s">
-        <v>244</v>
+      <c r="B77" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="D77" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" t="s">
-        <v>267</v>
-      </c>
-      <c r="C79" t="s">
-        <v>268</v>
-      </c>
-      <c r="D79" t="s">
-        <v>202</v>
+      <c r="B79" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="1" t="s">
-        <v>191</v>
+      <c r="B80" t="s">
+        <v>309</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="1" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="D81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="1" t="s">
-        <v>192</v>
+      <c r="B83" t="s">
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="1" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="C84" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="C85" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="D85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" t="s">
-        <v>320</v>
+      <c r="B86" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>321</v>
+        <v>218</v>
       </c>
       <c r="D86" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D87" s="24" t="s">
+      <c r="B87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" t="s">
         <v>202</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="1" t="s">
-        <v>324</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="D88" t="s">
         <v>202</v>
@@ -6848,657 +7400,866 @@
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D89" s="24" t="s">
+      <c r="B89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="1" t="s">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="D91" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="1" t="s">
-        <v>19</v>
+      <c r="B92" t="s">
+        <v>320</v>
       </c>
       <c r="C92" t="s">
-        <v>119</v>
+        <v>321</v>
       </c>
       <c r="D92" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="24" t="s">
-        <v>339</v>
+      <c r="B93" s="23" t="s">
+        <v>332</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="1" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>326</v>
       </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C95" t="s">
-        <v>220</v>
-      </c>
-      <c r="D95" t="s">
-        <v>141</v>
+      <c r="B95" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="1" t="s">
-        <v>36</v>
+      <c r="B96" t="s">
+        <v>369</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>370</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="D97" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="D98" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="1" t="s">
-        <v>7</v>
+      <c r="B99" t="s">
+        <v>383</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>384</v>
       </c>
       <c r="D99" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="1" t="s">
-        <v>73</v>
+      <c r="B100" t="s">
+        <v>393</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="1" t="s">
-        <v>5</v>
+      <c r="B101" t="s">
+        <v>395</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>396</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="2:4">
-      <c r="B102" s="1" t="s">
-        <v>4</v>
+      <c r="B102" t="s">
+        <v>397</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
+        <v>398</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="1" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="D103" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="1" t="s">
-        <v>15</v>
+      <c r="B104" t="s">
+        <v>271</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D104" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="2:4">
-      <c r="B106" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C106" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" t="s">
-        <v>126</v>
+      <c r="B106" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>346</v>
+      <c r="B107" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" t="s">
+        <v>174</v>
+      </c>
+      <c r="D107" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="1" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="D108" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="1" t="s">
-        <v>194</v>
+      <c r="B110" t="s">
+        <v>276</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="2:4">
-      <c r="B111" s="1" t="s">
-        <v>153</v>
+      <c r="B111" t="s">
+        <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>380</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="2:4">
-      <c r="B112" s="1" t="s">
-        <v>14</v>
+      <c r="B112" t="s">
+        <v>234</v>
       </c>
       <c r="C112" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="D113" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C114" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="D115" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="2:4">
-      <c r="B116" t="s">
-        <v>290</v>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>109</v>
       </c>
       <c r="D116" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="2:4">
-      <c r="B117" t="s">
-        <v>291</v>
+      <c r="B117" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C117" t="s">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="D117" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="2:4">
-      <c r="B118" t="s">
-        <v>292</v>
+      <c r="B118" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="D118" t="s">
-        <v>295</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="2:4">
-      <c r="B121" s="1" t="s">
-        <v>31</v>
+      <c r="B121" t="s">
+        <v>387</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="D121" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="2:4">
-      <c r="B122" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" t="s">
-        <v>101</v>
-      </c>
-      <c r="D122" t="s">
-        <v>137</v>
+      <c r="B122" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="2:4">
       <c r="B123" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D123" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="B124" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D124" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="2:4">
       <c r="B125" s="1" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C125" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="D125" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="2:4">
       <c r="B126" s="1" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="C126" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="D126" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" s="1" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D127" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="B128" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D128" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="2:4">
       <c r="B129" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C129" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="D129" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="2:4">
       <c r="B130" s="1" t="s">
-        <v>322</v>
+        <v>155</v>
       </c>
       <c r="C130" t="s">
-        <v>325</v>
+        <v>159</v>
       </c>
       <c r="D130" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="2:4">
-      <c r="B131" s="1" t="s">
-        <v>24</v>
+      <c r="B131" t="s">
+        <v>290</v>
       </c>
       <c r="C131" t="s">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="D131" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="2:4">
-      <c r="B132" s="1" t="s">
-        <v>63</v>
+      <c r="B132" t="s">
+        <v>291</v>
       </c>
       <c r="C132" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="D132" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
     </row>
     <row r="133" spans="2:4">
-      <c r="B133" s="1" t="s">
-        <v>39</v>
+      <c r="B133" t="s">
+        <v>292</v>
       </c>
       <c r="C133" t="s">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="D133" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="2:4">
-      <c r="B134" s="1" t="s">
-        <v>45</v>
+      <c r="B134" t="s">
+        <v>399</v>
       </c>
       <c r="C134" t="s">
-        <v>88</v>
+        <v>400</v>
       </c>
       <c r="D134" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" s="1" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="D135" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="2:4">
-      <c r="B136" t="s">
-        <v>273</v>
+      <c r="B136" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C136" t="s">
-        <v>283</v>
+        <v>92</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="2:4">
-      <c r="B137" t="s">
-        <v>252</v>
+      <c r="B137" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C137" t="s">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c r="D137" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="2:4">
-      <c r="B138" t="s">
-        <v>248</v>
+      <c r="B138" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="D138" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="2:4">
-      <c r="B139" t="s">
-        <v>258</v>
+      <c r="B139" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C139" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="D139" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="2:4">
-      <c r="B140" t="s">
-        <v>274</v>
+      <c r="B140" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C140" t="s">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="D140" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="2:4">
-      <c r="B141" t="s">
-        <v>272</v>
+      <c r="B141" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C141" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="2:4">
       <c r="B142" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D142" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="2:4">
       <c r="B143" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C143" t="s">
+        <v>113</v>
+      </c>
+      <c r="D143" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4">
+      <c r="B144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>115</v>
+      </c>
+      <c r="D144" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C145" t="s">
+        <v>122</v>
+      </c>
+      <c r="D145" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C146" t="s">
+        <v>325</v>
+      </c>
+      <c r="D146" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" t="s">
+        <v>146</v>
+      </c>
+      <c r="D147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C148" t="s">
+        <v>79</v>
+      </c>
+      <c r="D148" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" t="s">
+        <v>82</v>
+      </c>
+      <c r="D149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" t="s">
+        <v>88</v>
+      </c>
+      <c r="D150" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C151" t="s">
+        <v>213</v>
+      </c>
+      <c r="D151" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>377</v>
+      </c>
+      <c r="C152" t="s">
+        <v>378</v>
+      </c>
+      <c r="D152" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
+        <v>273</v>
+      </c>
+      <c r="C153" t="s">
+        <v>283</v>
+      </c>
+      <c r="D153" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>252</v>
+      </c>
+      <c r="C154" t="s">
+        <v>253</v>
+      </c>
+      <c r="D154" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" t="s">
+        <v>248</v>
+      </c>
+      <c r="C155" t="s">
+        <v>249</v>
+      </c>
+      <c r="D155" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" t="s">
+        <v>259</v>
+      </c>
+      <c r="D156" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" t="s">
+        <v>274</v>
+      </c>
+      <c r="C157" t="s">
+        <v>284</v>
+      </c>
+      <c r="D157" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
+        <v>272</v>
+      </c>
+      <c r="C158" t="s">
+        <v>282</v>
+      </c>
+      <c r="D158" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>111</v>
+      </c>
+      <c r="D159" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C160" t="s">
         <v>232</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D160" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
-      <c r="B144" t="s">
+    <row r="161" spans="2:4">
+      <c r="B161" t="s">
         <v>300</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C161" t="s">
         <v>301</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D161" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="2:4">
-      <c r="B145" t="s">
+    <row r="162" spans="2:4">
+      <c r="B162" t="s">
         <v>310</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C162" t="s">
         <v>312</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D162" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="2:4">
-      <c r="B146" t="s">
+    <row r="163" spans="2:4">
+      <c r="B163" t="s">
         <v>314</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C163" t="s">
         <v>319</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D163" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="147" spans="2:4">
-      <c r="B147" s="24" t="s">
+    <row r="164" spans="2:4">
+      <c r="B164" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="C147" s="24" t="s">
+      <c r="C164" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D164" s="24" t="s">
         <v>132</v>
       </c>
     </row>
+    <row r="165" spans="2:4">
+      <c r="B165" t="s">
+        <v>365</v>
+      </c>
+      <c r="C165" t="s">
+        <v>366</v>
+      </c>
+      <c r="D165" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" t="s">
+        <v>363</v>
+      </c>
+      <c r="C166" t="s">
+        <v>364</v>
+      </c>
+      <c r="D166" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B4:D147">
-    <sortCondition ref="D4:D147"/>
+  <sortState ref="B4:D166">
+    <sortCondition ref="D4:D166"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
